--- a/BEC/02-口语相关/口语问题汇总.xlsx
+++ b/BEC/02-口语相关/口语问题汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300" activeTab="2"/>
+    <workbookView windowWidth="10848" windowHeight="9155" tabRatio="802" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="口语问答" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>question</t>
   </si>
@@ -59,6 +59,201 @@
   <si>
     <t>Staff should consider the distance from the company. If the time they spend on travelling to work is too long, they'll fell exhausted and have their productivity decreased.
 productivity n.生产力，生产率</t>
+  </si>
+  <si>
+    <t>在本部分考试中，负责提问的考官会问考生提问一些与个人信息和工作生活相关的问题，举例如下：</t>
+  </si>
+  <si>
+    <t>What do you think of the company advising employees to go to work by public transport?</t>
+  </si>
+  <si>
+    <t>It should be encouraged while we have to consider the reallity. Though taking public transport is environment-friendly, sometimes it can bring some troubles to the staff, for example, too long time is spend and public transport can be crowded.</t>
+  </si>
+  <si>
+    <t>Why don't some people like to do performance appraisals? Can it be improved?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Some people don't like to do performance appraisals because they fear that, if the evaluation results are disappointing, they might lose their job, or at least the current post. Of course, such situation can be improved by implementing effective and fair staff incentive schemes coupled with some aiding procedures. Aiding procedures mean that, once a staffs performance evaluation is not satisfying, first he or she should be aided or helped to improve his or her performance rather than being </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>laid off(解雇，辞退)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think working at home is beneficial?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Both merits and demerits can be seen. If we are working at home, we are familiar with the environment and we'll feel comfortable. We can also choose the proper time to work. But we can not communication with our colleagues very well, easily to get </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>detached(adj.分离的，分开的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the development of our company.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think it is good for the staff to work for a long time?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Staff should not work for a long time. It is difficult for people to concnetrate their mind for a long time and they tend to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>distracted(adj.思想不集中的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This may affect their productivity and efficiency.</t>
+    </r>
+  </si>
+  <si>
+    <t>What skills are needed when you start a business? (What skill is important to make business successful?)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When starting a business, first you will have to have the necessary management skills. As an employer yourself, you have to know how to handle different types of employees. Next I think come the networking skills. As you know, managing a business </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">necessitates(v.使。。。变成必要) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>being on good terms with all parties concerned, including the relevant competent authorities, the suppliers and the consumers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think your subject will be useful in the future?</t>
+  </si>
+  <si>
+    <t>Well, I really doubt that. You know, most of the theories or definitions that I learned in my university are just a kind of theoretical stuff. Well, lots of the examples in the textbook are actually designed or designated for ideal or typical circumstances. I think it's out-dated and not applicable to the real world situations.</t>
+  </si>
+  <si>
+    <t>What is the most important skill in the job?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The most important skill in the most jobs should be the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interpersonal (adj.人和人之间的，人际的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">skills or the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>communicative skills(人际交往技能)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. No matter what job we are doing, we'll meet a lot of people. Therefore, we have to get along with people from all works of life. If we can gain efficient communicative skills, it can be easier for us to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>implement(执行，实施)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> our jobs.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -128,6 +323,122 @@
     <t>Yes. I feel positive about it. Good relationship can contribute to the cooperation between the clients and the company. Paying them a brilliant visit is an action of showing kindness.</t>
   </si>
   <si>
+    <t>What will you do if one of the visitors complains about the arrangement you have prepared for them?</t>
+  </si>
+  <si>
+    <t>I will apologise to him firstly, because after all, my duty is to let the visitors feel pleasant. Then ask them what I can do for them and contemplate whether there is something wrong with the arrangement.</t>
+  </si>
+  <si>
+    <t>Do you think your company should be responsible for the health and safety of all of the visitors?</t>
+  </si>
+  <si>
+    <t>I reckon we should, at least when they are visiting. Guaranteeing their safety and health will provide both of us with stable basis of cooperation. Furthermore, they will be thankful if we do so.</t>
+  </si>
+  <si>
+    <r>
+      <t>话题二：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。
+你公司想要介绍一份业务通讯材料以定期向顾客邮寄。你接到要求，要协助这一项目。共同讨论并决定：
+1.业务通讯材料中需要包括什么类型的文章和信息
+2.业务通讯材料的外观以及印刷业务通讯材料的频率</t>
+    </r>
+  </si>
+  <si>
+    <t>讨论要点：
+- 公司要向顾客介绍业务通讯材料
+- 定期邮寄业务通讯材料的好处
+- 业务通讯材料的内容
+- 业务通讯材料如何在外观上吸引顾客
+- 多久应该印刷一次
+- 最后总结</t>
+  </si>
+  <si>
+    <t>A: I heard that there is a new idea to promote our sale.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: To introduce </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>newsletters(时事通讯)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to our clients? Someone told me about that. Are you responsible for that?</t>
+    </r>
+  </si>
+  <si>
+    <t>A: Yeah. Actually, both of us should be responsible for this arrangement. We can benefit from this. Customers would know our recent discounts and new categories.</t>
+  </si>
+  <si>
+    <t>B: And once they got somethings to buy, they would remind themselves of our products.</t>
+  </si>
+  <si>
+    <t>A: Definitely. So the content of our newsletters has to involve our products categories and discount policy.</t>
+  </si>
+  <si>
+    <t>B: Also some changes happened to our company. It is quite frequent for us to update our information. But some client may feel reluctant to this newsletter, considering it as useless leaflets.</t>
+  </si>
+  <si>
+    <t>A: We'd better make its appearance appealing.</t>
+  </si>
+  <si>
+    <t>B: Quite brilliant. I suppose maybe it can be better if we print our trademark on the first page and the cover.</t>
+  </si>
+  <si>
+    <t>A: Can't agree with you more. How often do you think we should deliver this newsletter to our clients?</t>
+  </si>
+  <si>
+    <t>B: Maybe once a month?</t>
+  </si>
+  <si>
+    <t>A: Yeah. Then we deliver this once a month to them. But we have to make sure our present categories.</t>
+  </si>
+  <si>
+    <t>B: OK. I'll give a call to our Sales Department.</t>
+  </si>
+  <si>
+    <t>Will you read the newsletters thoroughly from the shop where you often buy products?</t>
+  </si>
+  <si>
+    <t>Certainly. I'd be pleased to read the recent information about the products I'm interested in. Especially some coupons are also provided along with the newsletters.</t>
+  </si>
+  <si>
+    <t>Who should be sent the newsletters? Only the loyalty members or all the customers?</t>
+  </si>
+  <si>
+    <t>I suggest we should send the newsletters to all the customers. This may encourage them to buy the products we are presenting if there are some bargains with good quality presented on the newsletters.</t>
+  </si>
+  <si>
+    <t>Should the staff in your company deliver the newsletters by themselves or you prepare to outsource this project?</t>
+  </si>
+  <si>
+    <t>I think outsourcing may be a good idea. Since the staff in the company have their assignments to accomplish, giving them the delivery job can make them feel exhausted.</t>
+  </si>
+  <si>
     <t>话题选择：
 在这部分考试中，考生需要就某个话题独立发表意见，做一个为时一分钟的小型演讲。这个部分的关键在于考生要在一分钟之内把个人观点讲清楚，既要做到言之有物又要做到条理清晰。</t>
   </si>
@@ -148,6 +459,257 @@
 Secondly, financial backing should be taken into account. Without money, there can be no mentioning of running a company at all. The costs of personnel and advertisement should be calculated carefully and reasonably.
 Thirdly, the selection of location. For instance, proper location of a company can entitle itself advantages. Given that company needs to deliver products or some materials realted to its business, location determines the fees and the labour the company has to pay.
 prerequisite n.先决条件，前提</t>
+  </si>
+  <si>
+    <t>在本部分考试中，你需要针对一项商务话题进行发言。你需要从三个话题中选取一个，并展开一分钟的发言。你有一分钟的时间进行准备。</t>
+  </si>
+  <si>
+    <r>
+      <t>A.决定是否应聘某岗位时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.工作地点
+2.职业前景
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.组织室内培训课程时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.课程内容
+2.选择参与人员
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.招聘高级职员时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.招聘代理机构
+2.经济激励</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic A: What is important when deciding whether to apply for a new post?</t>
+  </si>
+  <si>
+    <t>When we are deciding whether to apply for this job, we have to think it over and take some elements into account. Generally, we spend 8 to 9 hours per day on working, if the time we spend in commuting is too much then it tends to be a burden. Thus location is bound to be a crucial element. Besides, career prospects are worth attaching significance. A post or a job is definitely not the destination of our career life. Everyone needs to be acknowledged by others, which makes promotion extremely vital. One should never focus his or her eyesight on the things in front of him or her, future deserves more attention, instead. Furthermore, we can pay a little attention to the salary. Salary can be a demanding element when we find other conditions enough suitable for us.</t>
+  </si>
+  <si>
+    <t>If you choose Topic B: What is important when organising an in-house training course?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Training course should be a necessity rather than a waste for a company. If we intend to benefit from training course, we have to assure that the content taught in the class is quite intensely related to the routine work in the company. Also, it has to be practical. Theoretical knowledge is not recommended to be introduced. Besides, we'd better carefully select the trainees since we aim to improve company's productivity and have to guarantee that this course is 100% beneficial to our employees. Moreover, the length of this course should be controlled properly. If spending too long time learning, employees </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">incline(v.有。。。倾向) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to be bored and exhausted after a whole day's work.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic C: What is important when recruiting senior staff?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Proper senior staff can be considered as a treasure of a corporation if they are sophisticated and dedicated, which makes them the targets that corporations are desperate for. When a corporation needs to hire senior staff, it may hire a recruiting agency, not only with the purpose of saving energy. Skillful recruitment agencies can seek the really appropriate managerial staff for the corporation once provided with detailed description. Secondly, satisfactory salary should be attached to the recruit advertisement. Financial bonus are regarded as competitive. Besides, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>probation period(试用期)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is necessary. New senior staff should be on trial for several months, in order to figure out whether they are suitable for this position or not.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A.参加面试时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.应聘者的外表
+2.应聘者对公司的了解程度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.计划市场调查时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.提问内容
+2.提问对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.预测利润时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.目前的销售数据
+2.市场趋势</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic A: What is important when attending an interview?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When we are deciding who should be selected among several candidates, some elements should be taken into consideration. When we meet someone for the first time, we may pay attention to his or her appearance, for example, his clothes or his face, then we capture the first impression about the applicant, which can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decisive(adj.决定性的，关键性的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Secondly, we can attach importance to applicants' knowledge of company. If he or she has comprehensive knowledge about this company, we can assume he or she will be a loyal staff because he or she does pay efforts to know this company, his or her future company. Thirdly, we can never ignore the applicant's working experience, which can be nice reference about the ability of the applicant.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic B: What is important when planning market research?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Company's success </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stems from(来自)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wise market planning. Wise planning includes several aspects. First of all, types of questions should be paid attention to. Questions need to be relevant to our current trade, such as our products or service satisfaction. Secondly, we should clarify the type of people to guarantee the efficiency of this planning. They should be our customers or potential customers, whose opinions can influence our products selling conditions in the future. Besides, we have to consider our rivals' competition, analysing our advantages and disadvantages to make sure that we are situated in the leading position among the trade. After considering these factors, our market researches will be effective.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -187,13 +749,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -334,13 +889,26 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -640,48 +1208,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,115 +1262,124 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1149,31 +1729,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="43.8888888888889" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.8888888888889" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -1215,8 +1796,81 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="14.4"/>
-    <row r="9" s="3" customFormat="1" ht="14.4"/>
+    <row r="8" s="5" customFormat="1" ht="14.4" spans="1:2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="43.2" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="86.4" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="234" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="140.4" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="93.6" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" ht="46.8" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="187.2" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="156" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="171.6" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1227,75 +1881,184 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="42.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="124.8" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
+      <c r="A1" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31.2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="78" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="78" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="62.4" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
+      <c r="A7" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" ht="93.6" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="93.6" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" ht="202.8" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" ht="46.8" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="78" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" ht="93.6" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" ht="62.4" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" ht="46.8" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" ht="46.8" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" ht="78" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" ht="93.6" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" ht="78" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1307,38 +2070,102 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="28.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.8888888888889" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="141" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="234" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="316" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" ht="140.4" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" ht="234" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" ht="218.4" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" ht="218.4" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" ht="140.4" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" ht="234" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" ht="234" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/BEC/02-口语相关/口语问题汇总.xlsx
+++ b/BEC/02-口语相关/口语问题汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="152">
   <si>
     <t>question</t>
   </si>
@@ -74,6 +74,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Some people don't like to do performance appraisals because they fear that, if the evaluation results are disappointing, they might lose their job, or at least the current post. Of course, such situation can be improved by implementing effective and fair staff incentive schemes coupled with some aiding procedures. Aiding procedures mean that, once a staffs performance evaluation is not satisfying, first he or she should be aided or helped to improve his or her performance rather than being </t>
     </r>
     <r>
@@ -102,6 +109,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Both merits and demerits can be seen. If we are working at home, we are familiar with the environment and we'll feel comfortable. We can also choose the proper time to work. But we can not communication with our colleagues very well, easily to get </t>
     </r>
     <r>
@@ -130,6 +144,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Staff should not work for a long time. It is difficult for people to concnetrate their mind for a long time and they tend to be </t>
     </r>
     <r>
@@ -158,6 +179,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When starting a business, first you will have to have the necessary management skills. As an employer yourself, you have to know how to handle different types of employees. Next I think come the networking skills. As you know, managing a business </t>
     </r>
     <r>
@@ -192,6 +220,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The most important skill in the most jobs should be the </t>
     </r>
     <r>
@@ -253,6 +288,270 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> our jobs.</t>
+    </r>
+  </si>
+  <si>
+    <t>How do you see the Chinese luxury consumption?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chinese people hold interests in purchasing luxury products when they are abroad, which means that nowadays we are enjoying a relaxing life, possessing fortune and facing less living pressure than before. The promotion of consumption reveals certain increase in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">comprehensive(广泛的，综合的) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>national strength, people living carefree lives. We'd like to witness that our quality of life has been dramatically enhanced, while boasting the fortune should never be encouraged. Excessive pursuit of money and spending lavishly ought to be avoided.</t>
+    </r>
+  </si>
+  <si>
+    <t>What changes do you think of advertising in China?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tracing back to the history, we can figure out several kinds of advertisement, such as radio, newspapers, TV and the Internet. Nowadays, the influence of newspapers and radio seems to be decaying, while the Internet is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>embracing(拥抱)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> its glittering era. The changes reflecting in different types of advertisement indicate the quick development of Chinese economy. Everything is changing. If corporations want to keep up with the rapid pace of change, they have to sniff at every omens and seize every chance to develop themselves.</t>
+    </r>
+  </si>
+  <si>
+    <t>How do you see the Chinese business?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chinese family business owns a long history. There are reasons for its long life. Given that the management members in this business are family members, they can convey easily and attain a highly concentrated target, which means </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cohesive(adj.团结的，结合的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> force. With the kinship, the managerial staff may feel embarrassed to point out other staff's weakness, which can impede the upward pace of the business. Nowadays Chinese family business is experiencing great growth, becoming the vital part of economy in China.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think the appearance of the building will influence customers?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When a customer sees a building for the first time, they will throw their eyes on the appearance of the building. The building with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>glamorous(adj.富有魅力的，美丽动人的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> appearance will turn everybody's head. Company should pay more attention to designing their buildings with the purpose of attracting more customers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you want to consider a promotion before you enter a company?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Of course I've thought about being promoted. Because every employee wants to gain promotion in their career, and satisfaction in the job can keep staff being positive and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>motivated(adj.有目的的，有积极性的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think interviews are the best method of judging an applicant's suitability for a job?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As I see it, interviews do not reveal a lot about an applicant's suitability for a job. As the saying goes, "first impression is always misleading". So in order to find out whether an applicant is suitable for a job, we may need more time to find out about the applicant, so usually an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>internship(n.实习期)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is required for a newly recruited staff member.</t>
+    </r>
+  </si>
+  <si>
+    <t>How important are imports or exports to your country?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We can not say that China is a country that wholly relies on imports and exports for its national income, but foreign trade does play an important role in China's national economy. For many years China has been maintaining a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>favorable balance of trade(贸易顺差)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, so that its </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>foreign-exchange reserves(外汇储备)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are massive. This certainly guarantees the smooth operation of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>national economy(国民经济)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think it had better have an interview before giving the staff a promotion?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Of course there should be an interview if we want to promote some staff. We have to know their current career plan and thoughts towards their job, and thus we can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>define(v.规定)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> whether he or she is suitable for this promotion.</t>
     </r>
   </si>
   <si>
@@ -336,6 +635,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>话题二：</t>
     </r>
     <r>
@@ -367,6 +674,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">B: To introduce </t>
     </r>
     <r>
@@ -437,6 +751,146 @@
   </si>
   <si>
     <t>I think outsourcing may be a good idea. Since the staff in the company have their assignments to accomplish, giving them the delivery job can make them feel exhausted.</t>
+  </si>
+  <si>
+    <r>
+      <t>话题三：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。
+你公司计划制作一段短视频来向国外推广自己。你接到要求，协助计划视频内容。
+共同讨论并决定：
+1.目标观众是谁，如何让视频有趣，并使观众了解相关信息。
+2.你需要视频中包含公司的哪些方面。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: I heard that we are going to make a short video about our company.</t>
+  </si>
+  <si>
+    <t>B: What for? I suppose we plan to expand the foreign market. If we intend to promote us abroad, we have to make this video account.</t>
+  </si>
+  <si>
+    <t>A: Yeah. We are aiming at the foreign market. The foreigners will be our target customers.</t>
+  </si>
+  <si>
+    <t>B: Firstly, we have to know them well, catering to their preference and dislikes. We can learn some successful advertising videos, finding out in which aspects they have interests.</t>
+  </si>
+  <si>
+    <t>A: Absolutely. We can employ some celebrities from their countries to make them feel familiar with our company.</t>
+  </si>
+  <si>
+    <t>B: That's it. Furthermore, the video has to be informative since we have to present full information to them.</t>
+  </si>
+  <si>
+    <t>A: Don't forget that we have to introduce our company to them. The scale of our company and the service we provide should be included in this video.</t>
+  </si>
+  <si>
+    <t>B: That make sense. I suppose maybe it can be better if we print our trademark on the first picture, thus the foreigners can possess good impression of us.</t>
+  </si>
+  <si>
+    <t>A: Can't agree with you more. Besides, our company's future development should be demonstrated in the video to let the potential customers know our plans.</t>
+  </si>
+  <si>
+    <t>B: But we have to ask the Market Strategy Department first.</t>
+  </si>
+  <si>
+    <t>A: Yeah. Let's give them a call.</t>
+  </si>
+  <si>
+    <t>B: OK.</t>
+  </si>
+  <si>
+    <t>Do you think some staff should appear in the video?</t>
+  </si>
+  <si>
+    <t>Yes. Some staff should present themselves in the video, because the staff members are also a crucial part of the company. If our customers abroad witness our company holds marvelous staff morale, they will feel positive to buy our products.</t>
+  </si>
+  <si>
+    <t>What media are you going to use to run this video?</t>
+  </si>
+  <si>
+    <t>I'd try the Internet or some LED display board situated in the shopping mall. Areas with the shopping mall boast great customers flow, thus the video will give effect to progaganda our company.</t>
+  </si>
+  <si>
+    <t>Do you think the video should contain some elements that are relative to the target country?</t>
+  </si>
+  <si>
+    <t>To attract local customers, we should add some elements to this video to let the audience feel cordial. We should also investigate the target market in advance.</t>
+  </si>
+  <si>
+    <t>话题四：
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。</t>
+  </si>
+  <si>
+    <t>工作体验项目
+你公司已决定为一组学习商务的学生提供为期两周的工作体验项目。
+你接到要求，需要协助这个项目的准备工作。
+共同讨论并决定：
+1.应该给学生提供哪种工作体验。
+2.了解学生的什么信息将会有用以及应该如何挑选参与者。</t>
+  </si>
+  <si>
+    <t>A: Hi, you know, our company has decided to offer work experience programme for a small group of students.</t>
+  </si>
+  <si>
+    <t>B: Yeah, I've heard it.</t>
+  </si>
+  <si>
+    <t>A: They are from a local business college, and the programme will last for two weeks.</t>
+  </si>
+  <si>
+    <t>B: You see, we can arrange business discussion for them, thus they can have clear comprehension about how a contact is sealed.</t>
+  </si>
+  <si>
+    <t>A: They will benefit from that, and I think our company can also provide recruitment fair and maybe some business training.</t>
+  </si>
+  <si>
+    <t>B: They may attain more knowledge and experience if they participate in business training in my point of view.</t>
+  </si>
+  <si>
+    <t>A: I agree with you. Well, what qualifications do you think the students should possess? I mean we have picked up some excellent ones.</t>
+  </si>
+  <si>
+    <t>B: Their major must be relevant to our business. This is the focal thing that should be taken into consideration. What's more, their scores should be satisfying. Do you think so?</t>
+  </si>
+  <si>
+    <t>A: Absolutely, It's hard for a student with poor scores to join in a real business process. Their abilities of speaking foreign languages are also crucial.</t>
+  </si>
+  <si>
+    <t>B: That's right, given that we often sign contracts with multinational companies.</t>
+  </si>
+  <si>
+    <t>A: OK. Why don't we start preparing for it?</t>
+  </si>
+  <si>
+    <t>B: Wonderful! Now let's get started.</t>
+  </si>
+  <si>
+    <t>Will you agree that the students should participate in the real business trade?</t>
+  </si>
+  <si>
+    <t>No. Since the students tend to lack certain experience, they may make mistakes sometimes, which can result in losses. We can build a virtual atmosphere to provide them with opportunities.</t>
+  </si>
+  <si>
+    <t>Will you hire the students who used to participate in this programme?</t>
+  </si>
+  <si>
+    <t>That's excellent for a company to hire the applicants who used to work for this company as interns. They are familiar with the process how the company operates and we'll save money on training the freshmen.</t>
+  </si>
+  <si>
+    <t>Who do you think should undertake the training fee? Your company or the business school?</t>
+  </si>
+  <si>
+    <t>The business school, I suppose. Having some students here does bring us some troubles and responsibilities to take. We have to take their accommodations into consideration and pay efforts to teach them. The relative costs should not be paid by us.</t>
   </si>
   <si>
     <t>话题选择：
@@ -465,6 +919,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>A.决定是否应聘某岗位时，什么是重要的？</t>
     </r>
     <r>
@@ -539,6 +1001,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Training course should be a necessity rather than a waste for a company. If we intend to benefit from training course, we have to assure that the content taught in the class is quite intensely related to the routine work in the company. Also, it has to be practical. Theoretical knowledge is not recommended to be introduced. Besides, we'd better carefully select the trainees since we aim to improve company's productivity and have to guarantee that this course is 100% beneficial to our employees. Moreover, the length of this course should be controlled properly. If spending too long time learning, employees </t>
     </r>
     <r>
@@ -567,6 +1036,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Proper senior staff can be considered as a treasure of a corporation if they are sophisticated and dedicated, which makes them the targets that corporations are desperate for. When a corporation needs to hire senior staff, it may hire a recruiting agency, not only with the purpose of saving energy. Skillful recruitment agencies can seek the really appropriate managerial staff for the corporation once provided with detailed description. Secondly, satisfactory salary should be attached to the recruit advertisement. Financial bonus are regarded as competitive. Besides, </t>
     </r>
     <r>
@@ -592,6 +1068,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>A.参加面试时，什么是重要的？</t>
     </r>
     <r>
@@ -660,6 +1144,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When we are deciding who should be selected among several candidates, some elements should be taken into consideration. When we meet someone for the first time, we may pay attention to his or her appearance, for example, his clothes or his face, then we capture the first impression about the applicant, which can be </t>
     </r>
     <r>
@@ -688,6 +1179,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Company's success </t>
     </r>
     <r>
@@ -710,6 +1208,321 @@
       </rPr>
       <t xml:space="preserve"> wise market planning. Wise planning includes several aspects. First of all, types of questions should be paid attention to. Questions need to be relevant to our current trade, such as our products or service satisfaction. Secondly, we should clarify the type of people to guarantee the efficiency of this planning. They should be our customers or potential customers, whose opinions can influence our products selling conditions in the future. Besides, we have to consider our rivals' competition, analysing our advantages and disadvantages to make sure that we are situated in the leading position among the trade. After considering these factors, our market researches will be effective.</t>
     </r>
+  </si>
+  <si>
+    <t>If you choose Topic C: What is important when predicting profits?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Regularly, we predict profits quarterly or monthly. Some elements should be taken into consideration. To predict future figures, we have to deal with the past figures. We can collect current sales figures, analysing how well we have done during the past days. After that we can find out what will happen in the future. Secondly, take account of market trends. There are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boom seasons(=peak season旺季)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and off seasons. We can't get rid of this influencing factor. Furthermore, operating costs account for a big part in this.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A.决定是否要获得进一步的资格时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.需要投入时间
+2.职业的好处
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.在报纸上刊登广告时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.报纸销售数据
+2.广告费用
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.决定是否投资技术时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.对公司的好处
+2.涉及的成本</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic A: What is important when deciding whether to obtain a further qualification?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When we are considering whether to obtain a further qualification, we have to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contemplate(v.考虑)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the following elements. Firstly, we have to measure that whether our time is available. If available time can't be guaranteed, the balance of our life and work will be upset. Secondly, the benefits it can bring are also important for us to think it over. We should figure out whether it is worthwhile for us to gain the benefits and pay efforts. Thirdly, its developing future is bound to effect. Sometimes we see it clearly that there is no promising future in some trades, then it is not advisable for us to obtain this further qualification.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic B: What is important when placing a newspaper advertisement?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To publicise products or service via the newspaper is cost-effective, while we have to make sure that it is worth implementing. Firstly, the selection of the newspaper is quite important. The audience defines the result we can gain, thus it is crucial for us to choose the newspaper with a large number of buyers. Secondly, to make profits, we have to make budget first. We have to know the cost beforehand, once we know the cost then we can make sure what we can get for profits. Thirdly, the size of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>typeface(n.版面)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is also a significant element. A proper typeface can grasp audience's attention while bad ones can't.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic C: What is Important when considering whether to invest in technology?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Technology birngs development. The boss who wants to develop his company must manipulate the development of technology. There are several advantages that we can attain after we have implemented technology. Firstly, the productivity can be boosted since manpower can never be compared with machines or robots. Secondly, we can increase the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>turnout(n.版面)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keep pace with (赶上，跟上)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the development in the society. But we have to contemplate the cost, then we can figure the profits out. Furthermore, the size of the company should also be considered. Thus we can know whether it is appropriate for us to accommodate the new machines or devices.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A.在招待客户的时候，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.活动类型
+2.花费
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.在选择租用零售经营场所的地点时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.地点
+2.合同有效期
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.在决定产品的包装时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.外观
+2.生产过程</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic A: What is important when entertaining clients?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entertaining clients could be a crucial step to the final success. It is not easy to implement. It is more than just a banquet, a visit. A successful entertaining will impress the clients and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contribute to(促成，有助于)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a further cooperation.
+When entertaining clients, the first thing we have to decide is the types of activities. We should make our arrangements suitable for the clients' interests and favorites. To promote our benefit, we'd better arrange activities that can help us foster business targets. For example, we can provide our clients with a fantastic meal, meanwhile we make a further discussion with them.
+There is another vital element when deciding how to entertain our clients. We must take cost into consideration because high expenses don't always lead to great satisfaction. We should spend our money appropriately. But it is also important that we should treat our clients with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cordiality(n.热情友好)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and kindness. Thus we can both benefit from this entertaining activities.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic B: What is important when choosing retail premises to rent?</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +2166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,6 +2182,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1376,9 +2195,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1729,10 +2545,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -1743,18 +2559,18 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -1796,21 +2612,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="14.4" spans="1:2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="43.2" spans="1:2">
-      <c r="A9" s="8" t="s">
+    <row r="8" s="7" customFormat="1" ht="14.4" spans="1:2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" s="7" customFormat="1" ht="43.2" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="86.4" spans="1:2">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" s="7" customFormat="1" ht="86.4" spans="1:2">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1869,6 +2684,88 @@
       </c>
       <c r="B18" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" ht="46.8" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="249.6" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" ht="234" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" ht="234" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" ht="140.4" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" ht="46.8" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" ht="93.6" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" ht="156" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" ht="187.2" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" ht="93.6" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1881,10 +2778,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -1895,76 +2792,76 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="124.8" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31.2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="78" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="78" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="62.4" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" ht="93.6" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" ht="93.6" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1973,92 +2870,263 @@
     </row>
     <row r="12" ht="202.8" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" ht="46.8" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" ht="78" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" ht="93.6" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" ht="62.4" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="46.8" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" ht="46.8" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="78" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" ht="93.6" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" ht="78" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
+    </row>
+    <row r="24" ht="187.2" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" ht="62.4" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" ht="93.6" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" ht="62.4" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" ht="78" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" ht="78" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" ht="109.2" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" ht="93.6" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" ht="78" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" ht="140.4" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" ht="62.4" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" ht="62.4" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" ht="62.4" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" ht="93.6" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" ht="78" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" ht="31.2" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" ht="93.6" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" ht="93.6" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" ht="124.8" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2070,10 +3138,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -2085,23 +3153,23 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="141" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="234" spans="1:2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="218.4" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="316" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2110,34 +3178,34 @@
     </row>
     <row r="5" ht="140.4" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" ht="234" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" ht="218.4" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" ht="218.4" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2146,26 +3214,95 @@
     </row>
     <row r="10" ht="140.4" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" ht="234" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" ht="234" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" ht="156" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" ht="140.4" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" ht="202.8" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" ht="187.2" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" ht="202.8" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" ht="140.4" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" ht="327.6" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" ht="62.4" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/BEC/02-口语相关/口语问题汇总.xlsx
+++ b/BEC/02-口语相关/口语问题汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10848" windowHeight="9155" tabRatio="802" activeTab="2"/>
+    <workbookView windowWidth="10848" windowHeight="9155" tabRatio="802"/>
   </bookViews>
   <sheets>
     <sheet name="口语问答" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="163">
   <si>
     <t>question</t>
   </si>
@@ -295,6 +295,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Chinese people hold interests in purchasing luxury products when they are abroad, which means that nowadays we are enjoying a relaxing life, possessing fortune and facing less living pressure than before. The promotion of consumption reveals certain increase in </t>
     </r>
     <r>
@@ -323,6 +330,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Tracing back to the history, we can figure out several kinds of advertisement, such as radio, newspapers, TV and the Internet. Nowadays, the influence of newspapers and radio seems to be decaying, while the Internet is </t>
     </r>
     <r>
@@ -351,6 +365,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Chinese family business owns a long history. There are reasons for its long life. Given that the management members in this business are family members, they can convey easily and attain a highly concentrated target, which means </t>
     </r>
     <r>
@@ -379,6 +400,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When a customer sees a building for the first time, they will throw their eyes on the appearance of the building. The building with </t>
     </r>
     <r>
@@ -407,6 +435,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Of course I've thought about being promoted. Because every employee wants to gain promotion in their career, and satisfaction in the job can keep staff being positive and </t>
     </r>
     <r>
@@ -435,6 +470,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">As I see it, interviews do not reveal a lot about an applicant's suitability for a job. As the saying goes, "first impression is always misleading". So in order to find out whether an applicant is suitable for a job, we may need more time to find out about the applicant, so usually an </t>
     </r>
     <r>
@@ -463,6 +505,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">We can not say that China is a country that wholly relies on imports and exports for its national income, but foreign trade does play an important role in China's national economy. For many years China has been maintaining a </t>
     </r>
     <r>
@@ -531,6 +580,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Of course there should be an interview if we want to promote some staff. We have to know their current career plan and thoughts towards their job, and thus we can </t>
     </r>
     <r>
@@ -552,6 +608,158 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> whether he or she is suitable for this promotion.</t>
+    </r>
+  </si>
+  <si>
+    <t>Whether the company should continue to hire employees who got to leave?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Company can accept them if there are not proper staff to take over the job. The staff who had left the company are familiar with the trade in the company, possessing higher productivity than the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>freshmen(n.一年级生)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>What kind of person would you say you are?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I'm always trying to be optimistic, no matter what kind of difficulty I have met with. And I suppose I'm confident and positive, always working hard and sparing no effort to achieve my goals. Also I'm a person with a strong will and an independent mind. But that sometimes leads to being </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>impulsive(adj.易冲动的，冲动的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, not calm enough, which is one of my major </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drawbacks(n.缺点，欠缺)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>How important is it for you to have opportunities for promotion in your career?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, in fact, the opportunities for career promotion are important to everyone. No one would prefer to stay in one position for the whole of his or her life. Certainly I'm no exception. But what is equally important to me is the kind of job satisfaction, but as I see it, there are many other things that also contribute a lot to one's job satisfaction, for example, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>harmonious (adj.和睦的，融洽的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inter-personal(adj.人与人之间的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relationship, recognition from co-workers or line managers, and so on.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you ever engage in a fixed job for a long time?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I've been engaged in a job for a long time. I get quite familiar with the job since I've been dealt with it for a long time, easy to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tackle(v.处理，解决)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the problems. But there is no promotion for me, and I can not improve myself by keep doing so.</t>
     </r>
   </si>
   <si>
@@ -754,6 +962,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>话题三：</t>
     </r>
     <r>
@@ -1214,6 +1430,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Regularly, we predict profits quarterly or monthly. Some elements should be taken into consideration. To predict future figures, we have to deal with the past figures. We can collect current sales figures, analysing how well we have done during the past days. After that we can find out what will happen in the future. Secondly, take account of market trends. There are </t>
     </r>
     <r>
@@ -1239,6 +1462,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>A.决定是否要获得进一步的资格时，什么是重要的？</t>
     </r>
     <r>
@@ -1307,6 +1538,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When we are considering whether to obtain a further qualification, we have to </t>
     </r>
     <r>
@@ -1335,6 +1573,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">To publicise products or service via the newspaper is cost-effective, while we have to make sure that it is worth implementing. Firstly, the selection of the newspaper is quite important. The audience defines the result we can gain, thus it is crucial for us to choose the newspaper with a large number of buyers. Secondly, to make profits, we have to make budget first. We have to know the cost beforehand, once we know the cost then we can make sure what we can get for profits. Thirdly, the size of the </t>
     </r>
     <r>
@@ -1363,6 +1608,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Technology birngs development. The boss who wants to develop his company must manipulate the development of technology. There are several advantages that we can attain after we have implemented technology. Firstly, the productivity can be boosted since manpower can never be compared with machines or robots. Secondly, we can increase the </t>
     </r>
     <r>
@@ -1408,6 +1660,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>A.在招待客户的时候，应注重哪些方面？</t>
     </r>
     <r>
@@ -1476,6 +1736,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Entertaining clients could be a crucial step to the final success. It is not easy to implement. It is more than just a banquet, a visit. A successful entertaining will impress the clients and </t>
     </r>
     <r>
@@ -1523,6 +1790,84 @@
   </si>
   <si>
     <t>If you choose topic B: What is important when choosing retail premises to rent?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When considering the premises we choose for our retailers, there are two vital factors that we should take into consideration. The first and the most significant thing is to decide the location.
+A perfect retail premise ought to be located at a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prosperous(adj.繁荣的，兴旺的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> district or an area where a number of patrons can be granted. If you locate your premise at a remote area, it is unlikely to gain success, for there won't be many people coming to your shop.
+Secondly, we should emphasis on the length of the contract. A long-term contract can always guarantee the business' sustainable development and prosperity.
+Last but not least, rent cost should also be an important element. Running a business needs a great cash flow so that proper rent won't do any harm to the owner's capital.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic C: What is important when deciding on packaging for products?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The packages of the products are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decisive(adj.决定性的，关键的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in selling products. They can also define the destiny of the business, because they can attract the customers to purchase them or prevent them from paying for the products.
+Customers capture the image of the product at the first sight they meet the product. People are always surrounded by a variety of products in a mall and they tend to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appealed(adj.有吸引力，有感染力)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by those who have attractive images. Designers should pay more attention to the color, shape and materials of the product.
+Production procress is also crucial when deciding the packages, due to the cost being contained in the price of the products. In view of environments, we'd better use recyclable materials when producing the packages since it becomes useless once we begin to use the product.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2166,7 +2511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2181,12 +2526,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2545,10 +2884,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -2559,18 +2898,18 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -2612,20 +2951,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" ht="14.4" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" s="7" customFormat="1" ht="43.2" spans="1:1">
-      <c r="A9" s="7" t="s">
+    <row r="8" s="5" customFormat="1" ht="14.4" spans="1:2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="43.2" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" ht="86.4" spans="1:2">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="5" customFormat="1" ht="86.4" spans="1:2">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2766,6 +3105,47 @@
       </c>
       <c r="B30" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" ht="46.8" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" ht="109.2" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" ht="171.6" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" ht="234" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" ht="109.2" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2778,10 +3158,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -2792,76 +3172,76 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="124.8" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31.2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="78" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="78" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="62.4" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" ht="93.6" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" ht="93.6" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2870,87 +3250,87 @@
     </row>
     <row r="12" ht="202.8" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" ht="46.8" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" ht="78" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" ht="93.6" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" ht="62.4" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="46.8" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" ht="46.8" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="78" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" ht="93.6" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" ht="78" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2959,84 +3339,84 @@
     </row>
     <row r="24" ht="187.2" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" ht="62.4" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" ht="93.6" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" ht="62.4" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" ht="78" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="78" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" ht="109.2" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="93.6" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" ht="78" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3045,88 +3425,92 @@
     </row>
     <row r="36" ht="140.4" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" ht="62.4" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" ht="62.4" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" ht="62.4" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" ht="93.6" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" ht="78" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" ht="31.2" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" ht="93.6" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" ht="93.6" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" ht="124.8" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3138,10 +3522,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -3153,23 +3537,23 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="141" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="218.4" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="316" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3178,34 +3562,34 @@
     </row>
     <row r="5" ht="140.4" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" ht="234" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" ht="218.4" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" ht="218.4" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3214,34 +3598,34 @@
     </row>
     <row r="10" ht="140.4" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" ht="234" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" ht="234" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="156" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3249,35 +3633,35 @@
       <c r="B14" s="2"/>
     </row>
     <row r="15" ht="140.4" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>141</v>
+      <c r="A15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" ht="202.8" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" ht="202.8" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3286,23 +3670,34 @@
     </row>
     <row r="20" ht="140.4" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" ht="327.6" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" ht="62.4" spans="1:1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" ht="265.2" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" ht="280.8" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/BEC/02-口语相关/口语问题汇总.xlsx
+++ b/BEC/02-口语相关/口语问题汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10848" windowHeight="9155" tabRatio="802"/>
+    <workbookView windowWidth="12911" windowHeight="9155" tabRatio="802"/>
   </bookViews>
   <sheets>
     <sheet name="口语问答" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="278">
   <si>
     <t>question</t>
   </si>
@@ -615,6 +615,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Company can accept them if there are not proper staff to take over the job. The staff who had left the company are familiar with the trade in the company, possessing higher productivity than the </t>
     </r>
     <r>
@@ -643,6 +650,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I'm always trying to be optimistic, no matter what kind of difficulty I have met with. And I suppose I'm confident and positive, always working hard and sparing no effort to achieve my goals. Also I'm a person with a strong will and an independent mind. But that sometimes leads to being </t>
     </r>
     <r>
@@ -691,6 +705,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Well, in fact, the opportunities for career promotion are important to everyone. No one would prefer to stay in one position for the whole of his or her life. Certainly I'm no exception. But what is equally important to me is the kind of job satisfaction, but as I see it, there are many other things that also contribute a lot to one's job satisfaction, for example, </t>
     </r>
     <r>
@@ -739,6 +760,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I've been engaged in a job for a long time. I get quite familiar with the job since I've been dealt with it for a long time, easy to </t>
     </r>
     <r>
@@ -761,6 +789,232 @@
       </rPr>
       <t xml:space="preserve"> the problems. But there is no promotion for me, and I can not improve myself by keep doing so.</t>
     </r>
+  </si>
+  <si>
+    <t>Are you satisfied with your current living condition?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I'm a person who can be easily satisfied. I felt that though my life is not very decent, while I'm quite happy about it. I chose a job that I love, I can have 8 hours to spend on it, which makes me feel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>content(adj.满意的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you like working with a team or by yourself?</t>
+  </si>
+  <si>
+    <t>I like working with a team. As the proverb goes: "Two heads are better than one." In a team, I can learn from my fellow workers, get help from them when I'm under pressure. And the most important thing is that I can learn to communicate with all sorts of people.</t>
+  </si>
+  <si>
+    <t>Do you think the future development of tourism will be promising in China?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, I think so. As China is a country with abundant tourist resources, along with the global economic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>integration(n.结合，一体化)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, China's scenic spots and historic sites will attract more and more tourists and China's tourism will be more and more flourishing.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think it's important for every student in this country to learn English?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yeah. English is an essential skill for those who are engaged in promoting themselves. What is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>noticeable(adj.显著的，显而易见的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is that, since China has adopted the open policy, communication with other foreign countries tends to be more crucial, which makes English more and more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indispensable(adj.不可或缺的，必不可少的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>What means of advertising do you think businesses now tend to choose?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nowadays, along with the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>burgeoning(adj.迅速成长的，迅速发展的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> development of information technology and the Internet, more and more businesses tend to choose the means of Internet advertising to publicize their products, as it is more cost-effective.</t>
+    </r>
+  </si>
+  <si>
+    <t>What is the important of sending suitable staff to the meeting?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Different meetings own different problems to solve and decisions to make. The staff who gets familiar with the meeting contents can give quick responses, and comprehend the points effectively. Some staff with excellent communication skills can react actively to the problems occurred in the meeting. Thus the meeting can be run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>smoothly(adv.平滑地，流畅地，平稳地，顺利地)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and successfully.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think it is a good idea to employ the family members in your company?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes: Yes, I think to employ family members in my company is a good idea, because people who have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kinship(n.血缘关系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) are easier to come into agreement on certain issues, and they can work toward the same goal more readily.
+No: No, I don't think it's a good idea to employ family members in my company. You know, if the family members violate the company's rules and regulations, it's hard for me to punish them as I punish other employees.</t>
+    </r>
+  </si>
+  <si>
+    <t>Which industry should increase the remuneration of developing knowledge?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As I see it, currently in China, those who are engaged in education and scientific research are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>underpaid(adj.所得报酬过低的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; they should be given more remuneration. As you know, such professions demand higher level of professional knowledge, and accumulating the necessary skills andn knowledge for such career is costly and expensive.</t>
+    </r>
+  </si>
+  <si>
+    <t>Why people are stubborn in their old businesses?</t>
   </si>
   <si>
     <r>
@@ -1109,6 +1363,649 @@
     <t>The business school, I suppose. Having some students here does bring us some troubles and responsibilities to take. We have to take their accommodations into consideration and pay efforts to teach them. The relative costs should not be paid by us.</t>
   </si>
   <si>
+    <t>话题五：
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。</t>
+  </si>
+  <si>
+    <t>英语语言培训
+你公司正计划为公司员工提供30小时的英语语言培训。
+公司要求你协助这个培训项目的计划和组织工作。
+共同讨论并决定：
+1.如何鼓励员工积极参与培训
+2.什么时间适合进行培训</t>
+  </si>
+  <si>
+    <t>A: Hey, have you heard that we're going to have an English language training this quarter?</t>
+  </si>
+  <si>
+    <t>B: Yeah, I've heard it. 30 hours, right?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Right. But you know our employees tend to be a little tired after they finished </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>daily routine(例行公事，日常工作)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. They don't feel like participating this training...</t>
+    </r>
+  </si>
+  <si>
+    <t>B: We can encourage them by providing benefits to the ones who take part in this training.</t>
+  </si>
+  <si>
+    <t>A: Also award them. We can award them after we have done this training. Extra bonus to the excellent ones maybe.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: You have my vote there. Everyone loves bonus. This can spur them to take part in the training </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proactively(adv.积极主动地，主动出击地)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>A: There is another problem. You see, our working time is fixed, so I'm afraid that we have to determaine the suitable time for the training.</t>
+  </si>
+  <si>
+    <t>B: How about picking afternoon or evenings? People are always nearly sinking into sleep, having low efficiency. Maybe we can take advantages of that to implement this training.</t>
+  </si>
+  <si>
+    <t>A: Yeah. Sounds plausible. Maybe Wednesdays. Not too busy for everyone.</t>
+  </si>
+  <si>
+    <t>B: Well. Brilliant. We still have to discuss about the details...</t>
+  </si>
+  <si>
+    <t>A: OK. The facility issue?</t>
+  </si>
+  <si>
+    <t>B: Yeah...</t>
+  </si>
+  <si>
+    <t>What practical preparations would be necessary before running a foreign language course for employees?</t>
+  </si>
+  <si>
+    <t>The company should arrange a test to testify how well their employees have mastered this language in order to decide the difficulty level of the foreign language course.</t>
+  </si>
+  <si>
+    <t>What are the advantages of learning a foreign language with work colleagues?</t>
+  </si>
+  <si>
+    <t>They can encourage each other and use what they have learned into their daily routine, which can take great efficiency and enhance their impression on the knowledge.</t>
+  </si>
+  <si>
+    <t>Are there any other foreign languages you would like to learn?</t>
+  </si>
+  <si>
+    <t>French maybe. I always consider French as a romantic language and I really enjoy the delicacy of the French culture.</t>
+  </si>
+  <si>
+    <t>What ways of learning English are most helpful for people working in business?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I suppose it should be learning </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>along with(在。。。过程中)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> practicing what we have learned. It's very easy for us to forget without using and practicing.</t>
+    </r>
+  </si>
+  <si>
+    <t>What kind of help with languages would you give to a foreign colleague who has just arrived to start a job in your company?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Firstly I would tell him some phrases we used very often in our daily life. After he has been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">immersed(v.使浸没，使沉浸在。。。) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the language environment for a while, I would teach him some terms that we can implement in our work.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think foreign language skills will continue to be useful for business in the future?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes. Though technology is becoming more and more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>advanced(adj.在前面的，超前的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, we still need to communicate with foreign guys without the help of technology of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interpreting(v.解释，说明，口译)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sometimes.</t>
+    </r>
+  </si>
+  <si>
+    <t>话题六：
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。</t>
+  </si>
+  <si>
+    <t>团队合作
+你所就职的公司要将一小组员工送走三天，促使他们进行团队合作。
+公司要求你协助这个项目的准备工作。
+讨论并决定：
+1.公司需要在项目开始前做什么准备。
+2.小组活动适合什么样的工作和消遣活动。</t>
+  </si>
+  <si>
+    <t>A: Hi, a piece of news, have you heard that our company is going to send a small group of employees away?</t>
+  </si>
+  <si>
+    <t>B: What for? Staff training?</t>
+  </si>
+  <si>
+    <t>A: Bingo. For three days to encourage them to work as a team.</t>
+  </si>
+  <si>
+    <t>B: Are you going to be responsible for this?</t>
+  </si>
+  <si>
+    <t>A: We are. The first question. What practical arrangements we need to make?</t>
+  </si>
+  <si>
+    <t>B: Firstly, we have to confirm the number of the staff and make reservation for them, you know, some accomodations.</t>
+  </si>
+  <si>
+    <t>A: Yeah. Besides we should make selection from the current staff. I prefer the positive and well-performed ones.</t>
+  </si>
+  <si>
+    <t>B: I can't agree with you more. Well, the aim is to let them work cooperatively, right? So what work should be prepared for them?</t>
+  </si>
+  <si>
+    <t>A: Group discussion. This is the first thing they have to experience if they want to turn themselves into a team.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Plausible. Sports activities can facilitate their spirit of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solidarity (n.团结，齐心协力)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and militancy. We can also arrange fine dinner for them.</t>
+    </r>
+  </si>
+  <si>
+    <t>A: Definitely. Are you coming with me to make criterion to select participants?</t>
+  </si>
+  <si>
+    <t>B: I'm coming.</t>
+  </si>
+  <si>
+    <t>What preparations might the participants need to make before going away?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They should be instructed in safety training and some basic skills implemented in dealing with interpersonal skills, which can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endow(v.给予，赋予)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> them with the ability to get along well with others.</t>
+    </r>
+  </si>
+  <si>
+    <t>What might be the disadvantages of working as part of a team?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Staff may tend to be too dependent on the team, refusing to think independently, which makes it harder for them to make decisions by themselves, instead of being </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decisive(adj.果断的，坚决的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Would you like to take part in a programme for developing teamwork?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I'd like to take part in such programme. I felt easy when I'm in a team. I'm always impressed by others' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inspiration(n.灵感)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>What kinds of activities would you like to participate in with colleagues outside work?</t>
+  </si>
+  <si>
+    <t>Some leisure activities, I suppose. These activities can relax us and enhance the relationship between us, providing our office a harmonious atmosphere.</t>
+  </si>
+  <si>
+    <t>How might a company measure the success of a training programme?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the staff participated in this programme tend to be more cooperative, sharing higher productivity when they are working in a team, then the programme </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proves to be(后来被发现是)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> successful.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think staff training is always of benefit to a company?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Staff training is of benefit to a company. Everything is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proceeding(v.继续做，行进)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> forward and never cease steps. So does the company. If the ability of the company stays the same, it can never gain higher turnout, which makes staff training more vital.</t>
+    </r>
+  </si>
+  <si>
+    <t>话题七：
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。</t>
+  </si>
+  <si>
+    <t>招待国外客户
+你所就职的公司要招待一组外国客户三天，其中包括一天休息日。
+公司要求你为该访问事宜作出安排计划。
+讨论并决定：
+1.什么招待活动对此次访问较为合适。
+2.决定招待计划前了解客户的什么信息会有用。</t>
+  </si>
+  <si>
+    <t>A: Hi, latest news, have you heard that our company is planning to entertain some foreign clients?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Laborious(adj.耗时费力的，辛苦的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> task.</t>
+    </r>
+  </si>
+  <si>
+    <t>A: For three days, including one non-working day.</t>
+  </si>
+  <si>
+    <t>B: So we are going to be responsible for this?</t>
+  </si>
+  <si>
+    <t>A: We are. Firstly, what kind of cooperation session or activities should we prepare?</t>
+  </si>
+  <si>
+    <t>B: We have to keep them informed of our latest information about products, doing some sessions and seminars, you know.</t>
+  </si>
+  <si>
+    <t>A: Yeah. Practicable. In addition, we should provide some entertainment for them. For example, sightseeing or a fine dinner.</t>
+  </si>
+  <si>
+    <t>B: I can't agree with you more. We are aiming to work cooperatively, right? We can facilitate the relationship between us over the table.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: But we have to get to know them before we </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finalise(v.最后定下来，定案)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the plan, their habits, their preference. Sometimes we may make them uncomfortable if we arrange things withour catering to them.</t>
+    </r>
+  </si>
+  <si>
+    <t>B: Exactly. We gotta hit on what they like. Besides, we should know the basic condition about the company they are operating, including their scale, their sale patterns.</t>
+  </si>
+  <si>
+    <t>A: Plausible. I'll send them an email and pay a visit to the market department.</t>
+  </si>
+  <si>
+    <t>What kinds of arrangements need to be made before foreign visitors arrive?</t>
+  </si>
+  <si>
+    <t>We must ensure we've confirmed the reservation of hotels to accommodate them, and know their flight to pick them up.</t>
+  </si>
+  <si>
+    <t>Are there any disadvantages for a company in having a visit from foreign clients?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Their visit may interrupt the daily routine of a company, for the companies must arrange staff to entertain them, which will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>distract(v.转移注意力，使分心)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> them from implementing work.</t>
+    </r>
+  </si>
+  <si>
+    <t>Where would you take foreign visitors in your home town?</t>
+  </si>
+  <si>
+    <t>Some places with good scenery, I suppose. We should provide them with a relaxing visit, so sightseeing can be a good choice.</t>
+  </si>
+  <si>
+    <t>Would you enjoy looking after business visitors for a few days?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I suppose I will. No matter looking after visitors or doing my duty, all of the assignments are my jobs. Besides, I can make important contacts by implementing this entertainment, which can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>advantageous(adj.有利的，有好处的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to my interpersonal skills.</t>
+    </r>
+  </si>
+  <si>
+    <t>What problems might there be when socialising with foreign business people?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think the visitors may have the feeling of culture shock for this maybe the first time they come to this country, they may get confused and our presentation can not be very </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comprehensible(adj.可理解的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to them. Besides, the language issues. Even with translators, there may be confusion.</t>
+    </r>
+  </si>
+  <si>
+    <t>What are the long-term benefits of establishing personal contacts with foreign clients?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Firstly we can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keep posted about(定期通报，及时报告)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> their information, knowing what they want and then we can adjust our strategy. Secondly, we will make our collaboration stable and lood forward to further contacts.</t>
+    </r>
+  </si>
+  <si>
     <t>话题选择：
 在这部分考试中，考生需要就某个话题独立发表意见，做一个为时一分钟的小型演讲。这个部分的关键在于考生要在一分钟之内把个人观点讲清楚，既要做到言之有物又要做到条理清晰。</t>
   </si>
@@ -1793,6 +2690,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When considering the premises we choose for our retailers, there are two vital factors that we should take into consideration. The first and the most significant thing is to decide the location.
 A perfect retail premise ought to be located at a </t>
     </r>
@@ -1824,6 +2728,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The packages of the products are </t>
     </r>
     <r>
@@ -1867,6 +2778,474 @@
       </rPr>
       <t xml:space="preserve"> by those who have attractive images. Designers should pay more attention to the color, shape and materials of the product.
 Production procress is also crucial when deciding the packages, due to the cost being contained in the price of the products. In view of environments, we'd better use recyclable materials when producing the packages since it becomes useless once we begin to use the product.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A.选择员工进行提拔时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.工作态度
+2.近期表现
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.考虑变更职业时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.进一步的学习或培训
+2.未来的晋升机会
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.计划投放广告时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.市场调查
+2.选择合适媒介</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic A: Waht is important when selecting staff for promotion?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The first element we should take into consideration is employees' attitude to work. It reflects how much they have paid their effort to work and how important they considered their work. If an employee holds a positive and diligent attitude, he or she will certainly attain an excellent performance. Besides the attitude to work, I suppose that the current performance is of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sovereign(adj.有主权的，有至高无上权力的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> importance. The aim to promote staff is to encourage other staff to make more contribution to the company, which makes current performance become a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>criteria(n.标准，准则)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when considering the candidate. Current performance includes the punctuality, working efficiency and business achievement.
+    Furthermore, the ability to get along with other co-workers. Good employees are the ones who can take good care of both work skills and working atmosphere. Undoubtedly, it's not very easy to find such a guy possessing all of advantages we've mentioned above. We need to pay more efforts to this promotion.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic B: What is important when considering a career change?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When an employee thinks about changing his job, he may have got bored or exhausted by his current condition, which means that there is no room for him or her to get promoted or to learn new things. People are always moving forward. When considering changing our career, we'd like to wonder whether there is a chance waiting for us to attain further study or training. Only when we have gained more skills and knowledge can we improve ourselves.
+    In modern society, if we stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moving forward(前进,向前走)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> we are actually retreating. On the other hand, we should also pond over the possibility of being promoted, and whether there are plenty of opportunities for future promotion. The result of promotion pushes us to be more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>industrious(adj.勤奋的，勤劳的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and attain higher achievement. But to be frank, I'd like to choose a job in which I really have interest, I will be active in my daily work if I have passion.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic C: What is important when planning an advertising campaign?</t>
+  </si>
+  <si>
+    <t>Advertising and market share a close bond with each other. Before we make any advertisement, the first and imperative thing we should know is the relative market.
+    Market determines every aspects of the advertising campaign. For example, if we've gonna implement a new series of textbooks into local market, we have to know the students' amount and their ages. We need to clarify our targeted customers and figure out the potential objectives, or we may lead our company to great loss. Secondly we should select appropriate media. Different products need diverse media to let them generate maximal(adj.最大的，最高的) profits. Beauty items should be spread by commercials to let girls be immersed and penetrated, while factories and corporations should be propagated in the banners along the streets in order to turn every passengers' eyes.</t>
+  </si>
+  <si>
+    <r>
+      <t>A.在选择出差交通工具的时候，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.便利程度
+2.是否划算
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.在想要获得升迁时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.表现优劣
+2.对公司的忠诚度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.在首次出口产品或相关服务时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.个人交往
+2.专家建议</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic A: What is important when choosing transport for a business trip?</t>
+  </si>
+  <si>
+    <t>Everyone may get chances to go on a business trip. The form of transportation can be essential to this business trip, which makes it crucial to choose transport. We should take several elements into consideration.
+    Firstly, convenience should be ranked at the top priority. Convenience means that we'll spend less time and save our energy. Business trip tends to be more exhausted than ordinary trip, if energy and efforts are wasted on the things not related to business, it's sort of difficult for us to restore our spirit and make the tasks completed brilliantly.
+    Secondly, we should take care of the cost. Given that our budget is limited, we have to measure whether our choice is cost-effectiveness.
+    Last but not the least, the quality can also be taken into account. We should define whether the cost spend is proportionate(adj.成比例的，相称的) to the service we received.</t>
+  </si>
+  <si>
+    <t>If you choose topic B: What is important when aiming for promotion?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Promotion is the incentive for us to pay efforts to work. When talking about aming for promotion, the first thing we should contemplate is the quality of performance. Promotion is the reward for the people who contribute to the cooperation, thus it should belong to the ones who possess great performance. The evaluation of one's performance is the criterion whether he or she should receive the promotion. All tasks well completed, there is no reason that the boss wouldn't consider you as a candidate. Company loyalty is the second element. Company need the ones who hold loyalty to them. Since these people will pour all of their energy into promoting companies' turnout and reputation. If people with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fidelity(n.忠诚，忠实)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gain promotion, other staff would be spurred. Interpersonal skills are as important as company loyalty. A proper and wise leader must be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sophisticated(adj.见多识广的，老练的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic C: What is important when exporting goods or services for the first time?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To begin with, we should build good personal contacts when considering how to export goods or services for the first time. This is the main issue. Besides, professional advice should always be taken into account, since usually we don't have too much experience for the first time. In order to avoid making mistakes and loss, it is worth listening to the professionals who hold the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expertise(n.专门知识，专门技能)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the specific area. Last but not least, security of goods should become a consideration. This is reasonable because secure and safe delivery defines our reputation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A.在处理客户投诉时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.表达歉意
+2.提出解决方案
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.在为新产品定价时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.生产成本
+2.竞争对手的价格
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.在降低人员流动率时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.奖金激励
+2.职业结构</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic A: What is important when dealing with complaints from clients?</t>
+  </si>
+  <si>
+    <t>Dealing with complaints from clients is a significant aspect when implementing effective customer service. Once we got complaints, there must be something we've done wrong. The first thing we should do is to offer an apology to our client, so as to show our sincerity and respect, letting the client know that we've made their need as the top priority. Then we should put forward solutions to tackle this problem, showing that we are positive to face their feedback, instead of avoiding and neglecting. But these are not enough, we still have to follow up the process. We can make phone calls, writing them letters to know how our solution works. Customers will feel satisfied with the serious attitude we presented to them, which can guarantee a further cooperation.</t>
+  </si>
+  <si>
+    <t>If you choose topic B: What is important when setting prices for new products?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are several factors we should take into consideration when setting prices for new products. Firstly, we ought to know how much we cost on producing our product, which is the basic elements to decide the price of a product. Secondly, we should keep informed of our competitors' price, thus we can stand out the market. But we can never set a low price blindly, which is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>detrimental(adj.有害的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the market. Last bu not least, we'd better make market research to define our targeted customers. Different group people may hold different ideas about prices. Only if we know their characteristics can we make clear and precise judgment.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic C: What is important when aiming to reduce staff turnover?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When talking about reducing staff turnover, there some tips we can follow.
+    Firstly, be sure that we are paying employees the fair going wage for their work(or better) and offer them competitive benefits. This might seem like a brainer but you'd be surprised how few companies offer raises that keep up with an employee's development and actual rising worth. Today's employees </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crave(v.渴望)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> work balance. That impacts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>retention(n.保持，维持)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> directly. Flexible work arrangements had positive effects on retention. And more and more companies know it. That means, if we've not offering employees flexibility around work hours and locations, they might easily leave you for someone who will.</t>
     </r>
   </si>
 </sst>
@@ -2884,10 +4263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -3148,6 +4527,102 @@
         <v>51</v>
       </c>
     </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" ht="46.8" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" ht="109.2" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" ht="109.2" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" ht="124.8" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" ht="156" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" ht="46.8" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" ht="124.8" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" ht="171.6" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" ht="218.4" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" ht="156" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" ht="46.8" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" ht="31.2" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3158,10 +4633,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -3172,76 +4647,76 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="124.8" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31.2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="78" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="78" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="62.4" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" ht="93.6" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" ht="93.6" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3250,87 +4725,87 @@
     </row>
     <row r="12" ht="202.8" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" ht="46.8" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" ht="78" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" ht="93.6" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" ht="62.4" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" ht="46.8" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" ht="46.8" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" ht="78" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" ht="93.6" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" ht="78" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3339,84 +4814,84 @@
     </row>
     <row r="24" ht="187.2" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" ht="62.4" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" ht="93.6" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" ht="62.4" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" ht="78" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" ht="78" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" ht="109.2" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" ht="93.6" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" ht="78" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3425,92 +4900,428 @@
     </row>
     <row r="36" ht="140.4" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" ht="62.4" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" ht="62.4" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" ht="62.4" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" ht="93.6" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" ht="78" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" ht="31.2" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" ht="93.6" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="93.6" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" ht="124.8" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
+    </row>
+    <row r="48" ht="124.8" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" ht="46.8" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" ht="78" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" ht="78" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" ht="93.6" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" ht="46.8" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" ht="78" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" ht="78" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" ht="62.4" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" ht="78" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" ht="109.2" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" ht="93.6" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" ht="124.8" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" ht="46.8" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" ht="31.2" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" ht="62.4" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" ht="62.4" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" ht="78" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" ht="46.8" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" ht="109.2" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" ht="93.6" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" ht="62.4" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" ht="78" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" ht="93.6" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" ht="124.8" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" ht="124.8" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" ht="46.8" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" ht="31.2" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" ht="62.4" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" ht="78" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" ht="93.6" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" ht="46.8" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" ht="62.4" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" ht="93.6" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" ht="62.4" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" ht="124.8" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" ht="140.4" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" ht="93.6" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3522,10 +5333,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -3537,23 +5348,23 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="141" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="218.4" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="316" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3562,34 +5373,34 @@
     </row>
     <row r="5" ht="140.4" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" ht="234" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" ht="218.4" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" ht="218.4" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3598,34 +5409,34 @@
     </row>
     <row r="10" ht="140.4" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" ht="234" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" ht="234" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" ht="156" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>148</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3634,34 +5445,34 @@
     </row>
     <row r="15" ht="140.4" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" ht="202.8" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" ht="202.8" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3670,35 +5481,147 @@
     </row>
     <row r="20" ht="140.4" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" ht="327.6" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" ht="265.2" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" ht="280.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" ht="140.4" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" ht="312" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" ht="296.4" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" ht="265.2" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" ht="140.4" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" ht="296.4" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" ht="280.8" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" ht="187.2" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" ht="140.4" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" ht="234" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" ht="202.8" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" ht="218.4" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BEC/02-口语相关/口语问题汇总.xlsx
+++ b/BEC/02-口语相关/口语问题汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12911" windowHeight="9155" tabRatio="802"/>
+    <workbookView windowWidth="10668" windowHeight="9060" tabRatio="802" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="口语问答" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="320">
   <si>
     <t>question</t>
   </si>
@@ -795,6 +795,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I'm a person who can be easily satisfied. I felt that though my life is not very decent, while I'm quite happy about it. I chose a job that I love, I can have 8 hours to spend on it, which makes me feel </t>
     </r>
     <r>
@@ -829,6 +836,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes, I think so. As China is a country with abundant tourist resources, along with the global economic </t>
     </r>
     <r>
@@ -857,6 +871,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yeah. English is an essential skill for those who are engaged in promoting themselves. What is </t>
     </r>
     <r>
@@ -905,6 +926,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Nowadays, along with the </t>
     </r>
     <r>
@@ -933,6 +961,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Different meetings own different problems to solve and decisions to make. The staff who gets familiar with the meeting contents can give quick responses, and comprehend the points effectively. Some staff with excellent communication skills can react actively to the problems occurred in the meeting. Thus the meeting can be run </t>
     </r>
     <r>
@@ -961,6 +996,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes: Yes, I think to employ family members in my company is a good idea, because people who have </t>
     </r>
     <r>
@@ -990,6 +1032,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">As I see it, currently in China, those who are engaged in education and scientific research are </t>
     </r>
     <r>
@@ -1015,6 +1064,365 @@
   </si>
   <si>
     <t>Why people are stubborn in their old businesses?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This reflects human </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nature(n.天性)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as people tend to be conservative and lazy. It is obvious that to be bold and brave needs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>audacity(n.大胆)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and a large deal of investment. Unlike pouring money into new businesses, being stubborn in one's old business in less risky and less costly. In addition, when conducting old businesses, people need only to master the traditional skills instead of the new skills.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you like shopping?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oh, when it comes to shopping, I have to say that I am really a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shopaholic(n.购物狂)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. In my spare time, I would like to go shopping at a mall, a convenience store, a grocery store, a supermarket, a department store or go shopping online. Mostly, I would shop for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>daily necessities(日用必需品)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, like cosmetics, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>skincare products(护肤品)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, fashion stuff, snacks, clothes, or sneakers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think the company should advise employees not to drive to work?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Considering the serious pollution issue, it should be encouraged to work </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by means of(可以使用)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> public transport. The amount of released carbon dioxide would be controlled. That is to say, this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>practice(n.做法)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> benefits environmental protection. On the other hand, the problem related to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>traffic congestion(交通拥堵)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> also could be addressed to some extent.</t>
+    </r>
+  </si>
+  <si>
+    <t>Why is it important to hold meetings with customers?</t>
+  </si>
+  <si>
+    <t>It is critical to hold meetings with customers since it will allow you to obtain information related to the customers' demands and enhance the customer satisfaction. Besides, meeting is also an effective communication way which guarantees there would be no serious flaws, especially in terms of the contract details.</t>
+  </si>
+  <si>
+    <t>Is it easy for you to manage time?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actually, it is not that easy to manage time as we expect, since time is precious and limited for a college student who has to deal with a wide range of tests and prepare for career plan. In most cases, we have to decide which means a lot for us. Hence, I prefer to make a to-do-list according to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">priority(n.优先级) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>every day.</t>
+    </r>
+  </si>
+  <si>
+    <t>What are the possible difficulties when you launch a career in a new company?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The difficulties you might </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>confront(v.面对)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when launching a career in a new company may include unfamiliar environment and people, getting used to the new office </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>practices(n.常规)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and occasionally unsatisfying financial benefits which could influence your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>morale(n.士气)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and motivation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think China's work time is changing?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes. Big companies used to require their staff to follow the 8-hour work schedule every day. But currently, the increasing number of companies </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adopt(v.采纳)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the flexible time schedule, by which the staff could avoid wasting time owing to rush hour and be at their </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>positions(n.职位)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> during the core period of the day. Meanwhile, it is allowed to work at home for the employees in several companies.</t>
+    </r>
+  </si>
+  <si>
+    <t>Is there anything you dislike about your work?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Honestly, the worst I have to say about my job is lack of interaction with people, since I am a software engineer. Actually I am a little bored about sitting in front of a computer screen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all day long(整天)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and I am longing for a job that involves dealing with people.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1382,6 +1790,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A: Right. But you know our employees tend to be a little tired after they finished </t>
     </r>
     <r>
@@ -1413,6 +1828,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">B: You have my vote there. Everyone loves bonus. This can spur them to take part in the training </t>
     </r>
     <r>
@@ -1477,6 +1899,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I suppose it should be learning </t>
     </r>
     <r>
@@ -1505,6 +1934,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Firstly I would tell him some phrases we used very often in our daily life. After he has been </t>
     </r>
     <r>
@@ -1533,6 +1969,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes. Though technology is becoming more and more </t>
     </r>
     <r>
@@ -1617,6 +2060,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">B: Plausible. Sports activities can facilitate their spirit of </t>
     </r>
     <r>
@@ -1651,6 +2101,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">They should be instructed in safety training and some basic skills implemented in dealing with interpersonal skills, which can </t>
     </r>
     <r>
@@ -1679,6 +2136,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Staff may tend to be too dependent on the team, refusing to think independently, which makes it harder for them to make decisions by themselves, instead of being </t>
     </r>
     <r>
@@ -1707,6 +2171,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I'd like to take part in such programme. I felt easy when I'm in a team. I'm always impressed by others' </t>
     </r>
     <r>
@@ -1741,6 +2212,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If the staff participated in this programme tend to be more cooperative, sharing higher productivity when they are working in a team, then the programme </t>
     </r>
     <r>
@@ -1769,6 +2247,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Staff training is of benefit to a company. Everything is </t>
     </r>
     <r>
@@ -1809,6 +2294,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">B: </t>
     </r>
     <r>
@@ -1852,6 +2344,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A: But we have to get to know them before we </t>
     </r>
     <r>
@@ -1892,6 +2391,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Their visit may interrupt the daily routine of a company, for the companies must arrange staff to entertain them, which will </t>
     </r>
     <r>
@@ -1926,6 +2432,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I suppose I will. No matter looking after visitors or doing my duty, all of the assignments are my jobs. Besides, I can make important contacts by implementing this entertainment, which can be </t>
     </r>
     <r>
@@ -1954,6 +2467,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I think the visitors may have the feeling of culture shock for this maybe the first time they come to this country, they may get confused and our presentation can not be very </t>
     </r>
     <r>
@@ -1982,6 +2502,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Firstly we can </t>
     </r>
     <r>
@@ -2003,11 +2530,118 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> their information, knowing what they want and then we can adjust our strategy. Secondly, we will make our collaboration stable and lood forward to further contacts.</t>
+    </r>
+  </si>
+  <si>
+    <t>话题八：
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。</t>
+  </si>
+  <si>
+    <t>电视会议
+你所就职的公司担心员工花在参加其他分公司会议的时间过多，所以正在寻求替代方案。
+你需要对采用视频会议的方式提出建议。
+讨论并决定：
+1.关于目前会议召开的方式，公司需要了解些什么
+2.视频会议的优势和劣势是什么</t>
+  </si>
+  <si>
+    <t>A: With the advent of relatively low cost, high capacity broadband telecommunication facilities and services, accompanied by powerful computing processors and video compression techniques, video conferencing becomes an increasingly popular means of holding meetings for the majority of companies.</t>
+  </si>
+  <si>
+    <t>B: I totally agree with you. It allows companies in two or more locations to interact with each other by video and audio transmissions simultaneously. I think video conferencing would transform the form of meetings conducted in a traditional way as most experts predict.</t>
+  </si>
+  <si>
+    <t>A: Right. The meetings that take place currently are out of date, which cannot enable individuals in distant locations to participate in meetings on short notice.</t>
+  </si>
+  <si>
+    <t>B: That is why numerous computer companies regard video conferencing as a prospective market and launch different hardware and software to promote and advertise the technology.</t>
+  </si>
+  <si>
+    <t>A: However, there are many disadvantages involved as for video conferencing. Research has demonstrated that some non-managerial employees tend not to use it owing to several factors, including anxiety. Some such anxieties can be avoided if managers use the technology as part of the regular course of meetings. In addition, participants of video-conferences must work harder to explain information conveyed than they would if they attended face-to-face.</t>
+  </si>
+  <si>
+    <t>B: That is true. But it also proves its values to people. With time and money savings, video conferencing enables low-cost face-to-face meetings without leaving the desk. It is very useful as a method by which employees in many different locations can cooperate closely on the complicated project, especially for a multinational company with widespread offices all over the world.</t>
+  </si>
+  <si>
+    <t>A: In a long run, considering its potential value, video conferencing is a better choice for many companies.</t>
+  </si>
+  <si>
+    <t>B: From my perspective, video conferencing would be widespread and a growing number of people will employ it to extend their businesses.</t>
+  </si>
+  <si>
+    <t>Would you prefer to have face-to-face meetins or through video conferencing?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I prefer to face-to-face conference. It is difficult to interpret complicated issue and processes if adopting video conferencing. In addition, particularly for the meetings which involve </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demonstrations(n.演示)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of procedure with the help of sophisticated equipment, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attendees(n.出席者)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> would find it hard to see the devices clearly or comprehend the meeting content. Apart from that, video conferencing would make effective communication impossible based on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eye contact(眼神交流).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hence, by contrast, face-to-face meetings are better.</t>
     </r>
   </si>
   <si>
     <t>话题选择：
 在这部分考试中，考生需要就某个话题独立发表意见，做一个为时一分钟的小型演讲。这个部分的关键在于考生要在一分钟之内把个人观点讲清楚，既要做到言之有物又要做到条理清晰。</t>
+  </si>
+  <si>
+    <t>mini 演讲虽然内容为一分钟的简短发言，但要求内容完整，有开头，有结尾; 能将提供的两点提示词发展为论点，并加以论证，同时能围绕题目，自己再提出一个论点并简短论证。要求考生使用得体的词语，条理清晰地构思、组织、表达自己的观点。</t>
   </si>
   <si>
     <t>What is important when selecting employees for promotion?</t>
@@ -2782,6 +3416,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>A.选择员工进行提拔时，应注重哪些方面？</t>
     </r>
     <r>
@@ -2850,6 +3492,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The first element we should take into consideration is employees' attitude to work. It reflects how much they have paid their effort to work and how important they considered their work. If an employee holds a positive and diligent attitude, he or she will certainly attain an excellent performance. Besides the attitude to work, I suppose that the current performance is of </t>
     </r>
     <r>
@@ -2899,6 +3548,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When an employee thinks about changing his job, he may have got bored or exhausted by his current condition, which means that there is no room for him or her to get promoted or to learn new things. People are always moving forward. When considering changing our career, we'd like to wonder whether there is a chance waiting for us to attain further study or training. Only when we have gained more skills and knowledge can we improve ourselves.
     In modern society, if we stop </t>
     </r>
@@ -2952,6 +3608,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>A.在选择出差交通工具的时候，应注重哪些方面？</t>
     </r>
     <r>
@@ -3029,6 +3693,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Promotion is the incentive for us to pay efforts to work. When talking about aming for promotion, the first thing we should contemplate is the quality of performance. Promotion is the reward for the people who contribute to the cooperation, thus it should belong to the ones who possess great performance. The evaluation of one's performance is the criterion whether he or she should receive the promotion. All tasks well completed, there is no reason that the boss wouldn't consider you as a candidate. Company loyalty is the second element. Company need the ones who hold loyalty to them. Since these people will pour all of their energy into promoting companies' turnout and reputation. If people with </t>
     </r>
     <r>
@@ -3077,6 +3748,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">To begin with, we should build good personal contacts when considering how to export goods or services for the first time. This is the main issue. Besides, professional advice should always be taken into account, since usually we don't have too much experience for the first time. In order to avoid making mistakes and loss, it is worth listening to the professionals who hold the </t>
     </r>
     <r>
@@ -3102,6 +3780,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>A.在处理客户投诉时，应注重哪些方面？</t>
     </r>
     <r>
@@ -3176,6 +3862,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">There are several factors we should take into consideration when setting prices for new products. Firstly, we ought to know how much we cost on producing our product, which is the basic elements to decide the price of a product. Secondly, we should keep informed of our competitors' price, thus we can stand out the market. But we can never set a low price blindly, which is </t>
     </r>
     <r>
@@ -3204,6 +3897,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When talking about reducing staff turnover, there some tips we can follow.
     Firstly, be sure that we are paying employees the fair going wage for their work(or better) and offer them competitive benefits. This might seem like a brainer but you'd be surprised how few companies offer raises that keep up with an employee's development and actual rising worth. Today's employees </t>
     </r>
@@ -3246,13 +3946,495 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> directly. Flexible work arrangements had positive effects on retention. And more and more companies know it. That means, if we've not offering employees flexibility around work hours and locations, they might easily leave you for someone who will.</t>
+    </r>
+  </si>
+  <si>
+    <t>A.在吸引新员工的时候，什么是重要的？
+B.在为外出出差做准备时，什么是重要的？
+C.在策划公司的招待活动时，什么是重要的？</t>
+  </si>
+  <si>
+    <t>If you choose topic A: What is important when trying to attract new staff?
+Answer cues:
+1.Competitive wages
+2.Company reputation
+3.Working atmosphere</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In terms of drawing new staff's attention, a range of factors should be taken into account.
+    Competitive wages, one of the most important factors attracting new staff, are considered by potential employees to a great extent. Attractive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remuneration package(薪酬福利)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plays a key role in hunting talented people. Considering the poor economic circumstance and constantly increasing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inflation rate(通货膨胀率)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>job seekers(求职者)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are keen on making more money in order to survive.
+    In addition, company reputation has become a significant contributor in the aspect of recruiting new staff. In fact, a company's future development is always associated with its previous reputation and image among the target customers. Meanwhile, career prospects for new staff are attached to the company so that company reputation would be referred to by new staff before filling in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>job vacancies(职位空缺)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+    Thirdly, nothing is more tempting than motivating working atmosphere for new staff. The availability of stimulating working environment breeds team spirit and high efficiency as well as innovations, which further promote staff to obtain an amazing career prospect indirectly.
+    All in all, all the factors I mentioned are very important when companies plan to recruit new staff.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic B: What is important when preparing to go away on a business trip?
+Answer cues:
+1.Informing colleagues and clients(通知同事和客户)
+2.Delegating essential tasks(委派必要的任务)
+3.Set your goals(设定你的目标)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When it comes to going away on a business trip, preparations including a variety of things should be considered ahead of time.
+    First of all, inform your colleagues and the clients you are about to pay a visit to and tell them the purpose and details of this visit. If so, your colleagues would know who they should contact during the trip. Plus, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">itinerary(行程) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and accommodation, as well as the electronic devices needed in the conference, will be arranged and prepared well by your clients.
+    Meanwhile, it is necessary to delegate essential tasks before the trip, like turing over the unfinished and urgent tasks to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deputy(n.代理人)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in advance in order to avoid delaying or suspending task completion progress. If the issue is handled earlier, the business trip would go well.
+    Thirdly, to set your goals is very essential before departure. Only if you make clear the final objective to achieve during this trip, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>effective strategies(有效措施)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and specific solutions would be employed to assist negotiation and to reach the final goal with ease. On the other hand, to set the goal earlier allows you to prepare the contracts and documents with comprehensive considerations, avoiding neglecting a number of crucial files.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic C: What is important when planning corporate hospitality?
+Answer cues:
+1.Guest list(客人名单)
+2.Type of event(宴会的类别)
+3.Business etiquette(商务礼仪)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Turning to planning corporate hospitality, which </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prompts(v.促使)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> colleagues and clients to relax, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>socialise with(与。。。社交)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> each other, and strengthen their business connections in a comfortable way, we should concern many aspects.
+    To begin with, a guest list is necessary since we should make arrangements and preparations according to the number of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attendees(n.出席者)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> counted in advance.
+    Corporate hospitality involves a wide range of categories, such as business conferences, seminars, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product launches(产品上市)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Considering the eventual effect varies with various types, we should give priority to the purpose of the event, ultimately deciding which kind of corporate hospitality should be held.
+    During corporate hospitality, we are supposed to pay attention to business etiquette. Business etiquette reflects respects to attendees and benefits establishing partnership as well as boosts company image, especially reinforcing relations of cooperation.
+    To sum up, it is essential to take all of these into account for a company when planning corporate hospitality.</t>
+    </r>
+  </si>
+  <si>
+    <t>A.为一份空缺的职位写报纸广告时，什么是重要的？
+B.给其他人分配工作时，什么是重要的？
+C.为公司设计网站时，什么是重要的？</t>
+  </si>
+  <si>
+    <t>If you choose topic A: What is important when writing a newspaper advertisement for a job vacancy?
+Answer cues:
+1.Description of the work(工作描述)
+2.Experience needed by applicants(申请人需要具备的经验)
+3.Remuneration package(薪资福利)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It would be a good job newspaper advertisement with effective information for job seekers. In general, the advertisement should cover a couple of key points concerned about by candidates.
+    Firstly, a specific description of the work should be included on the advertisement, involving tasks, duties, work atmosphere and so on.
+    Secondly, it is essential that all the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qualifications(n.资质)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required by the applicants ranging from hard skills to soft skills should be listed, such as education background, social skills, working experience, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>team spirit(团队精神)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, computer skills and others.
+    Thirdly, job seekers always attach great significance to the income and benefits. Yet the majority of companies would list a salary range instead of giving detailed information on the advertisement. Currently, offering an attractive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remuneration package(薪酬福利)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> would be a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decisive factor(决定性因素)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in hunting talents. Most candidates concern benefits, like annual leave, insurance, housing fund or staff discount. Hence, it is a wise choice to list all these respects to draw people's attention. Then, make sure that contact details are on the newspaper, such as telephone number or address.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic B: What is important when delegating work to others?
+Answer cues:
+1.Clear instructions(清晰的指示)
+2.Choice of person for the task(对于被委托者的选拔)
+3.Supervising and feedback(监控与反馈)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any person with promotion opportunities would be about to allocate tasks to the team members, which contributes to an increase as for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>productivity(n.生产力)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and efficiency. When delegating work to others, bear in mind several points as follows.
+    In the first place, keep in mind that clear instructions are significant. You are supposed to explain the purpose, duties and the restrictions of the work you assign. Otherwise, other people could not comprehend what they need to do later and bring about some unnecessary troubles.
+    Besides that, it could not be ignored regarding who suits the task. A person with essential ability or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expertise(n.专业技能)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the work is a better choice.
+    Another key factor is supervising and collecting feedback related to the procedure. The supervisor should keep an eye on the work closely and check on a regular basis in order to know if the work is finished as expected. After assessment of the work, proper bonus or praise should be given to the employee with excellent performance.
+    All in all, one should take various factors into account when delegating work to the others.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic C: What is important when designing a company website?
+Answer cues:
+1.Type of information to include(包括的信息种类)
+2.Different language versions(不同的语言版本)
+3.Effective web navigation(有效的网站导航系统)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">One should think about several respects when devising a company website and make sure it can draw many </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prospective customers(潜在客户)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+    In the first palce, type of information to involve is an essential stage. It is personalised for your needs to attract search engines, raise traffic and provide useful information for existing and potential customers. It also offers some information for the public about your services and latest products you supply, what you represent, how you run and so on.
+    Various language versions are not a minor consideration, either. Your website would be used by the people all over the world, so it is critical to include different language versions. It is designed to assist people with a wide range of nationalities to read online and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prompt(v.促使)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the communications between target users and the company.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -3283,34 +4465,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3324,14 +4478,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3371,6 +4517,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3421,7 +4582,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3449,55 +4631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3515,31 +4655,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3563,6 +4691,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3575,7 +4715,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3599,7 +4763,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3623,6 +4799,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3640,21 +4822,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3687,6 +4854,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3745,148 +4927,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3918,52 +5100,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -4263,10 +5445,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -4618,10 +5800,82 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" ht="31.2" spans="1:1">
+    <row r="51" ht="187.2" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" ht="171.6" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" ht="156" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" ht="156" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" ht="46.8" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" ht="140.4" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" ht="140.4" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" ht="187.2" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" ht="124.8" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4633,10 +5887,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -4647,76 +5901,76 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="124.8" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31.2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="78" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="78" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="62.4" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="93.6" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" ht="93.6" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4725,87 +5979,87 @@
     </row>
     <row r="12" ht="202.8" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" ht="46.8" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" ht="78" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" ht="93.6" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" ht="62.4" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" ht="46.8" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" ht="46.8" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" ht="78" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" ht="93.6" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" ht="78" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4814,84 +6068,84 @@
     </row>
     <row r="24" ht="187.2" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" ht="62.4" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" ht="93.6" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" ht="62.4" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" ht="78" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" ht="78" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="109.2" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" ht="93.6" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" ht="78" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4900,87 +6154,87 @@
     </row>
     <row r="36" ht="140.4" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" ht="62.4" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" ht="62.4" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" ht="62.4" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" ht="93.6" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" ht="78" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" ht="31.2" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" ht="93.6" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" ht="93.6" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" ht="124.8" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4989,111 +6243,111 @@
     </row>
     <row r="48" ht="124.8" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" ht="46.8" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" ht="78" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" ht="78" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" ht="93.6" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" ht="46.8" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" ht="78" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" ht="78" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" ht="62.4" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" ht="78" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" ht="109.2" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" ht="93.6" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5102,111 +6356,111 @@
     </row>
     <row r="63" ht="124.8" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" ht="46.8" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" ht="31.2" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" ht="62.4" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" ht="62.4" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" ht="78" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" ht="46.8" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" ht="109.2" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" ht="93.6" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" ht="62.4" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" ht="78" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" ht="93.6" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" ht="124.8" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5215,113 +6469,166 @@
     </row>
     <row r="78" ht="124.8" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" ht="46.8" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" ht="31.2" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" ht="62.4" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" ht="78" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" ht="93.6" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" ht="46.8" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" ht="62.4" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" ht="93.6" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" ht="62.4" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" ht="124.8" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" ht="140.4" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" ht="93.6" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
+    </row>
+    <row r="93" ht="140.4" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" ht="140.4" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" ht="78" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" ht="218.4" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" ht="62.4" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" ht="265.2" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5333,10 +6640,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -5346,25 +6653,28 @@
     <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="141" customHeight="1" spans="1:1">
+    <row r="1" s="1" customFormat="1" ht="141" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>250</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="218.4" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="316" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5373,34 +6683,34 @@
     </row>
     <row r="5" ht="140.4" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" ht="234" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" ht="218.4" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" ht="218.4" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5409,34 +6719,34 @@
     </row>
     <row r="10" ht="140.4" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" ht="234" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" ht="234" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" ht="156" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5445,34 +6755,34 @@
     </row>
     <row r="15" ht="140.4" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" ht="202.8" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" ht="202.8" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5481,34 +6791,34 @@
     </row>
     <row r="20" ht="140.4" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" ht="327.6" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" ht="265.2" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" ht="280.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5517,34 +6827,34 @@
     </row>
     <row r="25" ht="140.4" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" ht="312" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" ht="296.4" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" ht="265.2" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5553,34 +6863,34 @@
     </row>
     <row r="30" ht="140.4" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" ht="296.4" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" ht="280.8" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" ht="187.2" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5589,39 +6899,107 @@
     </row>
     <row r="35" ht="140.4" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" ht="234" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" ht="202.8" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" ht="218.4" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
+    </row>
+    <row r="40" ht="93.6" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" ht="405.6" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" ht="408" customHeight="1" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" ht="374.4" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" ht="93.6" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" ht="390" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" ht="358.8" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" ht="265.2" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BEC/02-口语相关/口语问题汇总.xlsx
+++ b/BEC/02-口语相关/口语问题汇总.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10668" windowHeight="9060" tabRatio="802" activeTab="1"/>
+    <workbookView windowWidth="10668" windowHeight="9060" tabRatio="802" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="口语问答" sheetId="1" r:id="rId1"/>
-    <sheet name="口语讨论" sheetId="2" r:id="rId2"/>
-    <sheet name="口语话题选择" sheetId="3" r:id="rId3"/>
+    <sheet name="口语话题选择" sheetId="3" r:id="rId2"/>
+    <sheet name="口语讨论" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="438">
   <si>
     <t>question</t>
   </si>
@@ -1067,6 +1067,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">This reflects human </t>
     </r>
     <r>
@@ -1115,6 +1122,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Oh, when it comes to shopping, I have to say that I am really a </t>
     </r>
     <r>
@@ -1183,6 +1197,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Considering the serious pollution issue, it should be encouraged to work </t>
     </r>
     <r>
@@ -1257,6 +1278,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Actually, it is not that easy to manage time as we expect, since time is precious and limited for a college student who has to deal with a wide range of tests and prepare for career plan. In most cases, we have to decide which means a lot for us. Hence, I prefer to make a to-do-list according to </t>
     </r>
     <r>
@@ -1285,6 +1313,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The difficulties you might </t>
     </r>
     <r>
@@ -1353,6 +1388,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes. Big companies used to require their staff to follow the 8-hour work schedule every day. But currently, the increasing number of companies </t>
     </r>
     <r>
@@ -1401,6 +1443,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Honestly, the worst I have to say about my job is lack of interaction with people, since I am a software engineer. Actually I am a little bored about sitting in front of a computer screen </t>
     </r>
     <r>
@@ -1422,6 +1471,3384 @@
         <scheme val="minor"/>
       </rPr>
       <t>, and I am longing for a job that involves dealing with people.</t>
+    </r>
+  </si>
+  <si>
+    <t>What do you think of telephone sales?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actually, in China, telephone sales is not accepted by the public and is not a popular method of selling products, but in the western world it is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>different picture(不同的情况/局面)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Because Chinese people may consider it quite disturbing. Personally I don't like such a method of selling products and it is very hard to figure out what the speaker is saying through the phone call, let alone remembering a large deal of complicated figures when introducing the product. This might be the so-called cultural difference.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think it is a good selling way to make a direct phone call to a customer's home for telephone sales?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, as a Chinese, I don't feel like this is a good method, since making a phone call to a customer's home directly will allow the customer to feel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>annoying(adj.讨厌的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which might be inconvenient for customers under certain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>circumstances(n.情形，情况)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. In addition, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>traditionally(adv.传统地)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, most of Chinese customers treat telephone sales as cheating.</t>
+    </r>
+  </si>
+  <si>
+    <t>When you go shopping, which will be more valued, brand or price?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When I go shopping, what I really concern about is the price, because I am still a student, and I could survive with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financial support(经济资助)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from my parents. So I have to save money as possible as I can in order to reduce my parents' burden. Plus, I think pursuing famous brands blindly is meaningless for students though the brands show people's social status.</t>
+    </r>
+  </si>
+  <si>
+    <t>How do you make your company's website more attractive?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, in order to make the company's website more attractive, we should design the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>format(格式)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>categorise (v.分类)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the information in a more logical and ordered way so that people could </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extract(v.提取)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> useful information efficiently. And we can also </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resort to(凭借)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vivid and colorful pictures to draw site visitors' attention, enabling them to be familiar with our products.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think delivery fee should be free for online shopping?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, it depends. If we want to attract more customers and secure a large </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>market share(市场份额)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the initial stage, the delivery fee could be free. But the profit margin should be large enough to cover the costs in the long run. Otherwise, we </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are supposed to(应该)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> charge the delivery fee to cover the costs.</t>
+    </r>
+  </si>
+  <si>
+    <t>Shall all people take public transportation?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, if all people take public transportation, there will be less </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fuel consumption(燃料消耗)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and less </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gas emission(气体排放)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and the air pollution can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eased(v.缓解)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think it good if there is business competition?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, I think business competition is beneficial for the long-term and healthy development in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extensive(adj.广大的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> market of China. And that is why there are strict laws to fight against </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>monopoly(n.垄断)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the United States. What's more, as far as the consumers are concerned, as a result of the competition, they would benefit a lot from that in terms of price and quality.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do business people like to attend meetings?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Definitely, to attend meeitngs will enable them to meet more people, including </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prospective customers(潜在客户)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>suppliers(n.供应商)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which means a lot for their company development. On the other hand, business meeings will equip them with the latest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trend(n.趋势)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of their sector, offering valued information used for their future plan.</t>
+    </r>
+  </si>
+  <si>
+    <t>Can you tell me something about yourself?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, my name is Li Shanyong. I'm 21 years old. I'm now studying in Dalian Maritime University towards a bachelor degree of arts, majoring in English. I'm very outgoing and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>straightforward(ajd.坦率的，正直的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. I love making friends.</t>
+    </r>
+  </si>
+  <si>
+    <t>What magazines and newspapers do you read?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I'd like to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keep myself informed(让自己了解)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> about international business. I really like to read </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Economist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. It gives </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thorough(adj.彻底的，全面的) coverage(n.新闻报道)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of news from all over the world. I like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>immerse myself in(使自己沉浸在。。。中)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> business information which can broaden my horizon and enrich my experience.</t>
+    </r>
+  </si>
+  <si>
+    <t>Are flowers important in your life?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They're very important. Flowers are perfect gifts to express your wishes to your dear ones. For instance, you can give mom </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>carnations(n.康乃馨)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to show your love and respect in Mother's day Fresh flowers can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lift one's spirits(提起精神)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dried flowers(干花)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be used to decorate homes. Hence, it plays a really important role in my life.</t>
+    </r>
+  </si>
+  <si>
+    <t>What's your opinion about job-hopping?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In fact, different people hold different attitude towards job-hopping. From my point of view, though sometimes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>job-hopping(n.跳槽)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> does bring some immediate financial benefits, what most contributes to one's job satisfaction is not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solely(adv.单独地，唯一地)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confined to material gains. In most cases, working environment, respect and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recognition(n.认可)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from one's colleagues and other factors can count a lot。</t>
+    </r>
+  </si>
+  <si>
+    <t>话题选择：
+在这部分考试中，考生需要就某个话题独立发表意见，做一个为时一分钟的小型演讲。这个部分的关键在于考生要在一分钟之内把个人观点讲清楚，既要做到言之有物又要做到条理清晰。</t>
+  </si>
+  <si>
+    <t>mini 演讲虽然内容为一分钟的简短发言，但要求内容完整，有开头，有结尾; 能将提供的两点提示词发展为论点，并加以论证，同时能围绕题目，自己再提出一个论点并简短论证。要求考生使用得体的词语，条理清晰地构思、组织、表达自己的观点。</t>
+  </si>
+  <si>
+    <t>What is important when selecting employees for promotion?</t>
+  </si>
+  <si>
+    <t>Firstly,personal qualities are important,such as loyalty to the company, responsibility and so on,since these can help to establish personal credibility and integrity among colleagues.
+Secondly,work-related qualities are also very significant,for these qualities include qualifaciations,skills and abilities which are necessary for any job.
+On top of that, current performance is never a factor to be neglected. Successful performance can at least demonstrate some aspects of the staff's ability, such as communication skills, sales experiences and so on.
+integrity n.诚实，正直</t>
+  </si>
+  <si>
+    <t>What is important when setting up a new business?</t>
+  </si>
+  <si>
+    <t>Firstly, management experience is very important when setting up a new business. This is the prerequisite of normal functioning of the company. Once the leader possesses brilliant experience of running a company, he can make right decisions and see things in a very mature view. Thus this company will provide nice environment to grow up.
+Secondly, financial backing should be taken into account. Without money, there can be no mentioning of running a company at all. The costs of personnel and advertisement should be calculated carefully and reasonably.
+Thirdly, the selection of location. For instance, proper location of a company can entitle itself advantages. Given that company needs to deliver products or some materials realted to its business, location determines the fees and the labour the company has to pay.
+prerequisite n.先决条件，前提</t>
+  </si>
+  <si>
+    <t>在本部分考试中，你需要针对一项商务话题进行发言。你需要从三个话题中选取一个，并展开一分钟的发言。你有一分钟的时间进行准备。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A.决定是否应聘某岗位时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.工作地点
+2.职业前景
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.组织室内培训课程时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.课程内容
+2.选择参与人员
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.招聘高级职员时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.招聘代理机构
+2.经济激励</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic A: What is important when deciding whether to apply for a new post?</t>
+  </si>
+  <si>
+    <t>When we are deciding whether to apply for this job, we have to think it over and take some elements into account. Generally, we spend 8 to 9 hours per day on working, if the time we spend in commuting is too much then it tends to be a burden. Thus location is bound to be a crucial element. Besides, career prospects are worth attaching significance. A post or a job is definitely not the destination of our career life. Everyone needs to be acknowledged by others, which makes promotion extremely vital. One should never focus his or her eyesight on the things in front of him or her, future deserves more attention, instead. Furthermore, we can pay a little attention to the salary. Salary can be a demanding element when we find other conditions enough suitable for us.</t>
+  </si>
+  <si>
+    <t>If you choose Topic B: What is important when organising an in-house training course?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Training course should be a necessity rather than a waste for a company. If we intend to benefit from training course, we have to assure that the content taught in the class is quite intensely related to the routine work in the company. Also, it has to be practical. Theoretical knowledge is not recommended to be introduced. Besides, we'd better carefully select the trainees since we aim to improve company's productivity and have to guarantee that this course is 100% beneficial to our employees. Moreover, the length of this course should be controlled properly. If spending too long time learning, employees </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">incline(v.有。。。倾向) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to be bored and exhausted after a whole day's work.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic C: What is important when recruiting senior staff?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Proper senior staff can be considered as a treasure of a corporation if they are sophisticated and dedicated, which makes them the targets that corporations are desperate for. When a corporation needs to hire senior staff, it may hire a recruiting agency, not only with the purpose of saving energy. Skillful recruitment agencies can seek the really appropriate managerial staff for the corporation once provided with detailed description. Secondly, satisfactory salary should be attached to the recruit advertisement. Financial bonus are regarded as competitive. Besides, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>probation period(试用期)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is necessary. New senior staff should be on trial for several months, in order to figure out whether they are suitable for this position or not.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A.参加面试时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.应聘者的外表
+2.应聘者对公司的了解程度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.计划市场调查时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.提问内容
+2.提问对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.预测利润时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.目前的销售数据
+2.市场趋势</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic A: What is important when attending an interview?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When we are deciding who should be selected among several candidates, some elements should be taken into consideration. When we meet someone for the first time, we may pay attention to his or her appearance, for example, his clothes or his face, then we capture the first impression about the applicant, which can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decisive(adj.决定性的，关键性的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Secondly, we can attach importance to applicants' knowledge of company. If he or she has comprehensive knowledge about this company, we can assume he or she will be a loyal staff because he or she does pay efforts to know this company, his or her future company. Thirdly, we can never ignore the applicant's working experience, which can be nice reference about the ability of the applicant.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic B: What is important when planning market research?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Company's success </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stems from(来自)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wise market planning. Wise planning includes several aspects. First of all, types of questions should be paid attention to. Questions need to be relevant to our current trade, such as our products or service satisfaction. Secondly, we should clarify the type of people to guarantee the efficiency of this planning. They should be our customers or potential customers, whose opinions can influence our products selling conditions in the future. Besides, we have to consider our rivals' competition, analysing our advantages and disadvantages to make sure that we are situated in the leading position among the trade. After considering these factors, our market researches will be effective.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic C: What is important when predicting profits?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Regularly, we predict profits quarterly or monthly. Some elements should be taken into consideration. To predict future figures, we have to deal with the past figures. We can collect current sales figures, analysing how well we have done during the past days. After that we can find out what will happen in the future. Secondly, take account of market trends. There are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boom seasons(=peak season旺季)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and off seasons. We can't get rid of this influencing factor. Furthermore, operating costs account for a big part in this.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A.决定是否要获得进一步的资格时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.需要投入时间
+2.职业的好处
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.在报纸上刊登广告时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.报纸销售数据
+2.广告费用
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.决定是否投资技术时，什么是重要的？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.对公司的好处
+2.涉及的成本</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic A: What is important when deciding whether to obtain a further qualification?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When we are considering whether to obtain a further qualification, we have to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contemplate(v.考虑)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the following elements. Firstly, we have to measure that whether our time is available. If available time can't be guaranteed, the balance of our life and work will be upset. Secondly, the benefits it can bring are also important for us to think it over. We should figure out whether it is worthwhile for us to gain the benefits and pay efforts. Thirdly, its developing future is bound to effect. Sometimes we see it clearly that there is no promising future in some trades, then it is not advisable for us to obtain this further qualification.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic B: What is important when placing a newspaper advertisement?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To publicise products or service via the newspaper is cost-effective, while we have to make sure that it is worth implementing. Firstly, the selection of the newspaper is quite important. The audience defines the result we can gain, thus it is crucial for us to choose the newspaper with a large number of buyers. Secondly, to make profits, we have to make budget first. We have to know the cost beforehand, once we know the cost then we can make sure what we can get for profits. Thirdly, the size of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>typeface(n.版面)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is also a significant element. A proper typeface can grasp audience's attention while bad ones can't.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose Topic C: What is Important when considering whether to invest in technology?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Technology birngs development. The boss who wants to develop his company must manipulate the development of technology. There are several advantages that we can attain after we have implemented technology. Firstly, the productivity can be boosted since manpower can never be compared with machines or robots. Secondly, we can increase the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>turnout(n.版面)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keep pace with (赶上，跟上)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the development in the society. But we have to contemplate the cost, then we can figure the profits out. Furthermore, the size of the company should also be considered. Thus we can know whether it is appropriate for us to accommodate the new machines or devices.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A.在招待客户的时候，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.活动类型
+2.花费
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.在选择租用零售经营场所的地点时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.地点
+2.合同有效期
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.在决定产品的包装时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.外观
+2.生产过程</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic A: What is important when entertaining clients?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Entertaining clients could be a crucial step to the final success. It is not easy to implement. It is more than just a banquet, a visit. A successful entertaining will impress the clients and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contribute to(促成，有助于)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a further cooperation.
+When entertaining clients, the first thing we have to decide is the types of activities. We should make our arrangements suitable for the clients' interests and favorites. To promote our benefit, we'd better arrange activities that can help us foster business targets. For example, we can provide our clients with a fantastic meal, meanwhile we make a further discussion with them.
+There is another vital element when deciding how to entertain our clients. We must take cost into consideration because high expenses don't always lead to great satisfaction. We should spend our money appropriately. But it is also important that we should treat our clients with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cordiality(n.热情友好)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and kindness. Thus we can both benefit from this entertaining activities.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic B: What is important when choosing retail premises to rent?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When considering the premises we choose for our retailers, there are two vital factors that we should take into consideration. The first and the most significant thing is to decide the location.
+A perfect retail premise ought to be located at a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prosperous(adj.繁荣的，兴旺的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> district or an area where a number of patrons can be granted. If you locate your premise at a remote area, it is unlikely to gain success, for there won't be many people coming to your shop.
+Secondly, we should emphasis on the length of the contract. A long-term contract can always guarantee the business' sustainable development and prosperity.
+Last but not least, rent cost should also be an important element. Running a business needs a great cash flow so that proper rent won't do any harm to the owner's capital.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic C: What is important when deciding on packaging for products?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The packages of the products are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decisive(adj.决定性的，关键的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in selling products. They can also define the destiny of the business, because they can attract the customers to purchase them or prevent them from paying for the products.
+Customers capture the image of the product at the first sight they meet the product. People are always surrounded by a variety of products in a mall and they tend to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appealed(adj.有吸引力，有感染力)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by those who have attractive images. Designers should pay more attention to the color, shape and materials of the product.
+Production procress is also crucial when deciding the packages, due to the cost being contained in the price of the products. In view of environments, we'd better use recyclable materials when producing the packages since it becomes useless once we begin to use the product.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A.选择员工进行提拔时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.工作态度
+2.近期表现
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.考虑变更职业时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.进一步的学习或培训
+2.未来的晋升机会
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.计划投放广告时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.市场调查
+2.选择合适媒介</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic A: Waht is important when selecting staff for promotion?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The first element we should take into consideration is employees' attitude to work. It reflects how much they have paid their effort to work and how important they considered their work. If an employee holds a positive and diligent attitude, he or she will certainly attain an excellent performance. Besides the attitude to work, I suppose that the current performance is of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sovereign(adj.有主权的，有至高无上权力的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> importance. The aim to promote staff is to encourage other staff to make more contribution to the company, which makes current performance become a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>criteria(n.标准，准则)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when considering the candidate. Current performance includes the punctuality, working efficiency and business achievement.
+    Furthermore, the ability to get along with other co-workers. Good employees are the ones who can take good care of both work skills and working atmosphere. Undoubtedly, it's not very easy to find such a guy possessing all of advantages we've mentioned above. We need to pay more efforts to this promotion.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic B: What is important when considering a career change?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When an employee thinks about changing his job, he may have got bored or exhausted by his current condition, which means that there is no room for him or her to get promoted or to learn new things. People are always moving forward. When considering changing our career, we'd like to wonder whether there is a chance waiting for us to attain further study or training. Only when we have gained more skills and knowledge can we improve ourselves.
+    In modern society, if we stop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moving forward(前进,向前走)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> we are actually retreating. On the other hand, we should also pond over the possibility of being promoted, and whether there are plenty of opportunities for future promotion. The result of promotion pushes us to be more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>industrious(adj.勤奋的，勤劳的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and attain higher achievement. But to be frank, I'd like to choose a job in which I really have interest, I will be active in my daily work if I have passion.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic C: What is important when planning an advertising campaign?</t>
+  </si>
+  <si>
+    <t>Advertising and market share a close bond with each other. Before we make any advertisement, the first and imperative thing we should know is the relative market.
+    Market determines every aspects of the advertising campaign. For example, if we've gonna implement a new series of textbooks into local market, we have to know the students' amount and their ages. We need to clarify our targeted customers and figure out the potential objectives, or we may lead our company to great loss. Secondly we should select appropriate media. Different products need diverse media to let them generate maximal(adj.最大的，最高的) profits. Beauty items should be spread by commercials to let girls be immersed and penetrated, while factories and corporations should be propagated in the banners along the streets in order to turn every passengers' eyes.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A.在选择出差交通工具的时候，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.便利程度
+2.是否划算
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.在想要获得升迁时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.表现优劣
+2.对公司的忠诚度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.在首次出口产品或相关服务时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.个人交往
+2.专家建议</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic A: What is important when choosing transport for a business trip?</t>
+  </si>
+  <si>
+    <t>Everyone may get chances to go on a business trip. The form of transportation can be essential to this business trip, which makes it crucial to choose transport. We should take several elements into consideration.
+    Firstly, convenience should be ranked at the top priority. Convenience means that we'll spend less time and save our energy. Business trip tends to be more exhausted than ordinary trip, if energy and efforts are wasted on the things not related to business, it's sort of difficult for us to restore our spirit and make the tasks completed brilliantly.
+    Secondly, we should take care of the cost. Given that our budget is limited, we have to measure whether our choice is cost-effectiveness.
+    Last but not the least, the quality can also be taken into account. We should define whether the cost spend is proportionate(adj.成比例的，相称的) to the service we received.</t>
+  </si>
+  <si>
+    <t>If you choose topic B: What is important when aiming for promotion?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Promotion is the incentive for us to pay efforts to work. When talking about aming for promotion, the first thing we should contemplate is the quality of performance. Promotion is the reward for the people who contribute to the cooperation, thus it should belong to the ones who possess great performance. The evaluation of one's performance is the criterion whether he or she should receive the promotion. All tasks well completed, there is no reason that the boss wouldn't consider you as a candidate. Company loyalty is the second element. Company need the ones who hold loyalty to them. Since these people will pour all of their energy into promoting companies' turnout and reputation. If people with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fidelity(n.忠诚，忠实)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gain promotion, other staff would be spurred. Interpersonal skills are as important as company loyalty. A proper and wise leader must be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sophisticated(adj.见多识广的，老练的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic C: What is important when exporting goods or services for the first time?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To begin with, we should build good personal contacts when considering how to export goods or services for the first time. This is the main issue. Besides, professional advice should always be taken into account, since usually we don't have too much experience for the first time. In order to avoid making mistakes and loss, it is worth listening to the professionals who hold the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expertise(n.专门知识，专门技能)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the specific area. Last but not least, security of goods should become a consideration. This is reasonable because secure and safe delivery defines our reputation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A.在处理客户投诉时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.表达歉意
+2.提出解决方案
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B.在为新产品定价时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.生产成本
+2.竞争对手的价格
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C.在降低人员流动率时，应注重哪些方面？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.奖金激励
+2.职业结构</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic A: What is important when dealing with complaints from clients?</t>
+  </si>
+  <si>
+    <t>Dealing with complaints from clients is a significant aspect when implementing effective customer service. Once we got complaints, there must be something we've done wrong. The first thing we should do is to offer an apology to our client, so as to show our sincerity and respect, letting the client know that we've made their need as the top priority. Then we should put forward solutions to tackle this problem, showing that we are positive to face their feedback, instead of avoiding and neglecting. But these are not enough, we still have to follow up the process. We can make phone calls, writing them letters to know how our solution works. Customers will feel satisfied with the serious attitude we presented to them, which can guarantee a further cooperation.</t>
+  </si>
+  <si>
+    <t>If you choose topic B: What is important when setting prices for new products?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">There are several factors we should take into consideration when setting prices for new products. Firstly, we ought to know how much we cost on producing our product, which is the basic elements to decide the price of a product. Secondly, we should keep informed of our competitors' price, thus we can stand out the market. But we can never set a low price blindly, which is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>detrimental(adj.有害的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the market. Last bu not least, we'd better make market research to define our targeted customers. Different group people may hold different ideas about prices. Only if we know their characteristics can we make clear and precise judgment.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic C: What is important when aiming to reduce staff turnover?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When talking about reducing staff turnover, there some tips we can follow.
+    Firstly, be sure that we are paying employees the fair going wage for their work(or better) and offer them competitive benefits. This might seem like a brainer but you'd be surprised how few companies offer raises that keep up with an employee's development and actual rising worth. Today's employees </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crave(v.渴望)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> work balance. That impacts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>retention(n.保持，维持)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> directly. Flexible work arrangements had positive effects on retention. And more and more companies know it. That means, if we've not offering employees flexibility around work hours and locations, they might easily leave you for someone who will.</t>
+    </r>
+  </si>
+  <si>
+    <t>A.在吸引新员工的时候，什么是重要的？
+B.在为外出出差做准备时，什么是重要的？
+C.在策划公司的招待活动时，什么是重要的？</t>
+  </si>
+  <si>
+    <t>If you choose topic A: What is important when trying to attract new staff?
+Answer cues:
+1.Competitive wages
+2.Company reputation
+3.Working atmosphere</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In terms of drawing new staff's attention, a range of factors should be taken into account.
+    Competitive wages, one of the most important factors attracting new staff, are considered by potential employees to a great extent. Attractive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remuneration package(薪酬福利)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plays a key role in hunting talented people. Considering the poor economic circumstance and constantly increasing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inflation rate(通货膨胀率)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>job seekers(求职者)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are keen on making more money in order to survive.
+    In addition, company reputation has become a significant contributor in the aspect of recruiting new staff. In fact, a company's future development is always associated with its previous reputation and image among the target customers. Meanwhile, career prospects for new staff are attached to the company so that company reputation would be referred to by new staff before filling in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>job vacancies(职位空缺)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+    Thirdly, nothing is more tempting than motivating working atmosphere for new staff. The availability of stimulating working environment breeds team spirit and high efficiency as well as innovations, which further promote staff to obtain an amazing career prospect indirectly.
+    All in all, all the factors I mentioned are very important when companies plan to recruit new staff.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic B: What is important when preparing to go away on a business trip?
+Answer cues:
+1.Informing colleagues and clients(通知同事和客户)
+2.Delegating essential tasks(委派必要的任务)
+3.Set your goals(设定你的目标)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When it comes to going away on a business trip, preparations including a variety of things should be considered ahead of time.
+    First of all, inform your colleagues and the clients you are about to pay a visit to and tell them the purpose and details of this visit. If so, your colleagues would know who they should contact during the trip. Plus, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">itinerary(行程) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and accommodation, as well as the electronic devices needed in the conference, will be arranged and prepared well by your clients.
+    Meanwhile, it is necessary to delegate essential tasks before the trip, like turing over the unfinished and urgent tasks to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deputy(n.代理人)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in advance in order to avoid delaying or suspending task completion progress. If the issue is handled earlier, the business trip would go well.
+    Thirdly, to set your goals is very essential before departure. Only if you make clear the final objective to achieve during this trip, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>effective strategies(有效措施)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and specific solutions would be employed to assist negotiation and to reach the final goal with ease. On the other hand, to set the goal earlier allows you to prepare the contracts and documents with comprehensive considerations, avoiding neglecting a number of crucial files.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic C: What is important when planning corporate hospitality?
+Answer cues:
+1.Guest list(客人名单)
+2.Type of event(宴会的类别)
+3.Business etiquette(商务礼仪)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Turning to planning corporate hospitality, which </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prompts(v.促使)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> colleagues and clients to relax, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>socialise with(与。。。社交)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> each other, and strengthen their business connections in a comfortable way, we should concern many aspects.
+    To begin with, a guest list is necessary since we should make arrangements and preparations according to the number of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attendees(n.出席者)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> counted in advance.
+    Corporate hospitality involves a wide range of categories, such as business conferences, seminars, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product launches(产品上市)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Considering the eventual effect varies with various types, we should give priority to the purpose of the event, ultimately deciding which kind of corporate hospitality should be held.
+    During corporate hospitality, we are supposed to pay attention to business etiquette. Business etiquette reflects respects to attendees and benefits establishing partnership as well as boosts company image, especially reinforcing relations of cooperation.
+    To sum up, it is essential to take all of these into account for a company when planning corporate hospitality.</t>
+    </r>
+  </si>
+  <si>
+    <t>A.为一份空缺的职位写报纸广告时，什么是重要的？
+B.给其他人分配工作时，什么是重要的？
+C.为公司设计网站时，什么是重要的？</t>
+  </si>
+  <si>
+    <t>If you choose topic A: What is important when writing a newspaper advertisement for a job vacancy?
+Answer cues:
+1.Description of the work(工作描述)
+2.Experience needed by applicants(申请人需要具备的经验)
+3.Remuneration package(薪资福利)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It would be a good job newspaper advertisement with effective information for job seekers. In general, the advertisement should cover a couple of key points concerned about by candidates.
+    Firstly, a specific description of the work should be included on the advertisement, involving tasks, duties, work atmosphere and so on.
+    Secondly, it is essential that all the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qualifications(n.资质)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required by the applicants ranging from hard skills to soft skills should be listed, such as education background, social skills, working experience, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>team spirit(团队精神)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, computer skills and others.
+    Thirdly, job seekers always attach great significance to the income and benefits. Yet the majority of companies would list a salary range instead of giving detailed information on the advertisement. Currently, offering an attractive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remuneration package(薪酬福利)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> would be a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decisive factor(决定性因素)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in hunting talents. Most candidates concern benefits, like annual leave, insurance, housing fund or staff discount. Hence, it is a wise choice to list all these respects to draw people's attention. Then, make sure that contact details are on the newspaper, such as telephone number or address.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic B: What is important when delegating work to others?
+Answer cues:
+1.Clear instructions(清晰的指示)
+2.Choice of person for the task(对于被委托者的选拔)
+3.Supervising and feedback(监控与反馈)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Any person with promotion opportunities would be about to allocate tasks to the team members, which contributes to an increase as for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>productivity(n.生产力)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and efficiency. When delegating work to others, bear in mind several points as follows.
+    In the first place, keep in mind that clear instructions are significant. You are supposed to explain the purpose, duties and the restrictions of the work you assign. Otherwise, other people could not comprehend what they need to do later and bring about some unnecessary troubles.
+    Besides that, it could not be ignored regarding who suits the task. A person with essential ability or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expertise(n.专业技能)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the work is a better choice.
+    Another key factor is supervising and collecting feedback related to the procedure. The supervisor should keep an eye on the work closely and check on a regular basis in order to know if the work is finished as expected. After assessment of the work, proper bonus or praise should be given to the employee with excellent performance.
+    All in all, one should take various factors into account when delegating work to the others.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic C: What is important when designing a company website?
+Answer cues:
+1.Type of information to include(包括的信息种类)
+2.Different language versions(不同的语言版本)
+3.Effective web navigation(有效的网站导航系统)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">One should think about several respects when devising a company website and make sure it can draw many </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prospective customers(潜在客户)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+    In the first palce, type of information to involve is an essential stage. It is personalised for your needs to attract search engines, raise traffic and provide useful information for existing and potential customers. It also offers some information for the public about your services and latest products you supply, what you represent, how you run and so on.
+    Various language versions are not a minor consideration, either. Your website would be used by the people all over the world, so it is critical to include different language versions. It is designed to assist people with a wide range of nationalities to read online and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prompt(v.促使)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the communications between target users and the company.</t>
+    </r>
+  </si>
+  <si>
+    <t>A.第一次会见外国客户时，什么是重要的？
+B.决定是否购买或者租用办公设备时，什么是重要的？
+C.为了提高员工的生产率，什么是重要的？</t>
+  </si>
+  <si>
+    <t>If you choose topic A: Waht is important when meeting foreign clients for the first time?
+Answer Cues:
+1.Foreign language skills(外语技能)
+2.Knowledge of cultural differences(了解文化差异)
+3.Business etiquette and participation in communication(注意商务礼仪和积极参与交流)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are key points to keep in mind when communicating with foreign clients for the first time. First, because the majority of overseas clients tend to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>conduct businesses(做生意)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in their mother tongue, to have a good command of foreign language skills could be dramatically useful. Occasionally, we need to slow down to produce a fluent communication on purpose.
+    And in interation, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gaffes(n.失态，出丑)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> appear owing to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>culture shock(文化冲突)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. For a long conversation with a foreign client, it is better to make efforts to read up on their country and know common customs about their culture. To understand the culture differences and respond appropriately takes quite a time.
+    In addition, make sure that you make the best impression on prospective foreign clients and fine business etiquette helps in achieving this. Simple courtesies such as shaking hands firmly and exchanging business cards can make multinational clients feel comfortable.
+    What's more, asking questions and seeking clarifications will help you comprehend the aims, concerns and overall demands of the foreign clients.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic B: What is important when deciding whether to buy or rent office equipment?
+Answer Cues:
+1.Cost(花费)
+2.Speed of technological change(技术革新的速度)
+3.Tax and service lifetime(税款和使用寿命)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In general, when gaining office equipment, either to buy or to rent has its advantages. Nevertheless, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expense(花费)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is given to top priority. Cost should be taken into account to ensure that you can afford it. Even though either choice would be acceptable for you, it's essential to evaluate whether or not the cash advantage of buying is better than the service benefits of renting.
+    With the high speed of technological changes, some office equipment is easy to become out of date and it's necessary to update the equipment in order to accelerate efficiency. Hence, the introduction of new devices would tackle the issue.
+    Another way to determine whether to buy or to rent depends on the tax. The renting of office equipment can be fully </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tax-deductible(adj.可免税的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if you use the rented property in your business. But with a rent, you would be at the risk of losing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tax benefits(纳税优惠)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. While buying equipment is better as a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tax write-off(税金扣除)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but both renting and buying can be used on your taxes.
+    Last but not least one is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>service lifetime(使用寿命)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Installing the right equipment for your office not only includes whether it can keep you comfortable, organised and productive, but also involves useful service lifetime, allowing you to reduce budgets.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic C: What is important when aiming to increase staff productivity?
+Answer Cues:
+1.Offering bonuses(提供奖金)
+2.Creating a pleasant environment(创造愉快的环境)
+3.Attending training classes(参加培训课程)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When aiming to increase staff productivity, several factors are taken into consideration, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>namely(adv.也就是)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, offering bonuses, creating a pleasant working environment and attending training classes.
+    First of all, whether a company offers bonuses determines staff productivity to a great extent. With the commodity prices soaring in recent years, the majority of staff bear huge financial burdens because they have to raise their families. So rewards and bonuses based on productivity would allow the staff to dedicate themselves to the work. Consequently, high productivity and efficiency would be achieved.
+    Secondly, to create a pleasant environment prompts employees to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>take an initiative(积极主动，带动)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to boost efficiency. The employees in a good mood would be more willing to be motivated and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>devote themselves to(全身心投入到)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the work. Employees are less likely to make mistakes and more likely to make wise decisions.
+    Thirdly, attending training classes is another factor to consider. By doing so, you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get access to(接触到)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> arange of skills and then meet a range of needs from different jobs.
+    Thus, these are the approaches I need to consider when targeting at improving staff productivity.</t>
+    </r>
+  </si>
+  <si>
+    <t>A.为了留住好的员工，什么是重要的？
+B.在组织一次会议中，什么是重要的？
+C.做一个市场计划时，什么是重要的？</t>
+  </si>
+  <si>
+    <t>If you choose topic A: What is important when aiming to keep good staff?
+Answer Cues:
+1.Promotion opportunities(升职机会)
+2.Salaries(工资)
+3.Company recognition(企业认知度)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generally speaking, when it comes to aiming to keep good staff, there are several factors that are needed to take into consideration.
+    The promotion opportunities would be thought about for an ambitious employee, since </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>advancement chances(升职机会)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are related to whether an individual cna achieve his ideal goal. Prospective employees often </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>give top priority to(给予最高优先级)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> promotion in order to grow within the company. After all, the majority of employees always look forward to being a senior manager someday.
+    Secondly, paying competitive wages is probably the single most significant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ingredient(n.因素)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to consider. Offering an attractive benefit would be a decisive factor in hunting new talents. With the soaring tendency of prices in the modern society, many employees are keen to make a big fortune to support a family.
+    A third consideration should be the company recognition. It is an intangible and valuable strength, which plays an important role in retaining employees. It is often the case that a good image of a corporation prompts the employees to build confidence and gain a sense of pride.
+    In a word, corporation should think about all the above when they want to keep excellent staff.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic B: What is important when organising a conference?
+Answer Cues:
+1.Conference speakers(会议演讲人)
+2.Facilities at conference center(会场的设备)
+3.Process and time allocation(流程和时间的分配)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are many factors to organising a conference.
+    One of the key secrets to organising a conference is to invite motivational speakers to do conference presentations. Excellent speakers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are inclined to(倾向于)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attract audience and create an active atmosphere, which brings about positive effects on the audience. They encourage people and inspire the participants.
+    Manpower and material resources function together as a good conference. So apart from the speaker, facilities at a meeting center also </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exert a huge impact(施加巨大的影响)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. For example, the microphone must be tested in advance to ensure that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attendees(n.出席人)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> throughout the room can hear what the speaker is saying. Similary, slides must be checked before the speaker begins his presentation.
+    Process and time allocation decide whether the conference can take palce as planned. Proper procedures can guarantee the conference operates in an orderly way, while time allocation will reach the conference goals.
+    All in all, when organising a conference we should think about all the factors mentioned above.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you choose topic C: What is important when producing a marketing plan?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer Cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Identifying target customers(确定目标客户)
+2.Setting a budget(制订预算)
+3.Marketing tactics(市场策略)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Producing a reasonable and effective marketing plan could </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>draw potential customers' attention(吸引潜在客户的注意)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which is extremely significant.
+    The first measure is associated with identifying target customers, which is meaningful for you to define the demands of the market your products or services correspond to and set a detailed goal for your plan.
+    A second consideration should be the budget, allowing people to pay attention to cost in order to achieve your objective. It benefits </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>capital turnover (资金周转)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and balance your budget. Then make all of the data into one document with tables and charts.
+    Next, we should think about marketing tactics like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pricing(n.定价)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, distribution, promotion advertising campaigns and market segmentation. Effective and action-oriented marketing strategies are the key to becoming successful.
+    All in all, these factors cannot be ignored when producing a marketing plan for a company.</t>
+    </r>
+  </si>
+  <si>
+    <t>A.在做演示的时候，什么是重要的？
+B.在与外宾开会选择口译译员时，什么是重要的？
+C.为市场引进新的产品类别时，什么是重要的？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you choose topic A: What is important when planning a presentation?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Audience(观众)
+2.Equipment needed(需要的设备)
+3.Researching the topic(对题目的调查研究)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When planning a presentation, several factors should be taken into consideration.
+    Firstly, you need to know who is going to be the target audience. You also need to know whether the audiences know anything about the topic of your presentation, what they are interested in, and why they come to your presentation, Once you have found out something about the target audience, you need to keep their interests and needs in mind so as to make your presentation interesting and meaningful for the target audience.
+    Secondly, you need to decide what kind of equipment will be needed for the presentation, like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>over-head projector(电脑投影仪)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, computer, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>epidiascope(n.幻灯机)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, microphone, and acoustic for the venue where the presentation will take place. Also, you need to make sure that the equipment needed will be available on the day when the presentation will take place. What's more, you need to check that all the equipment is in good condition and works well.
+    In addition, it's important to have a thorough research on the topic. By doing so, you can have access to more information and details about the topic, better understanding of the topic and gather more supporting ideas to make your presentation convincing and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>impressive(adj.令人印象深刻的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lf you choose topic B: What is important when selecting an interpreter for a meeting with foreign clients?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Experience(经验)
+2.Reliability(信赖)
+3.Personality(性格)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, when selecting an interpreter for a meeting with foreign clients, first of all, youneed to select an interpreter who is experienced in interpreting for such meetings, after all.interpretation is a skilled job which calls for a great deal of practice. The interpreter should have a wide knowledge about business management and be familiar with the specialterms and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jargons(n.行话，术语)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for commercial negotiations, finance, law, etc. ln addition, background knowledge about the target country is also important.
+    Secondly, the interpreter for a meeting with foreign clients should be reliable in the following aspects: being </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>punctual(adj.准时的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the meetings, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keeping information learned at the meetings confidential(保守某事的秘密)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and interpreting accurately what is being discussed.
+    Last but not least, the personality of an interpreter should also be taken into consideration. An interpreter with good personality and spirits will smooth the communication and create warm and relaxed atmosphere during the negotiation. It really helps to have a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>favorable outcome(有利结果，理想结果)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the meeting.
+    What I just mentioned are important factors for a company to choose an interpreter.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you choose topic C: What is important when introducing a new product range onto the market?
+Answer cues:
+1.Timing(时机)
+2.Advance publicity(提前宣传)
+3.Promotional events(促销活动)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When introducing a new product range onto the market, in the first place, the introduction should be made at an appropriate time, i.e., when the market is matured for having this new product range, in other words, there will be prospective customers to buy the products. If there are any competitors who are planning to introduce similar products onto the market, then it is necessary that the introduction should be made ahead of their introduction so as to grab much </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>market share(市场份额)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as much as possible.
+    Secondly, advance publicity is important in that it will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pave the way for(为。。。做好准备)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the introduction.i.e. to make it known to the general public. There are different ways to implement advance publicity.
+-- to have a news conference to declare the introduction
+-- to advertise on TV or radio,in newspaper or magazines
+-- to deliver samples of the new product (delivery can be made to the streets, to supermarkets, to people's homes,etc.)
+What's more, the company should organise various promotional events to stimulate people's enthusiasm and to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boost popularity(打开知名度)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quickly, and then won a good public praise in the industry.</t>
     </r>
   </si>
   <si>
@@ -2573,6 +6000,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I prefer to face-to-face conference. It is difficult to interpret complicated issue and processes if adopting video conferencing. In addition, particularly for the meetings which involve </t>
     </r>
     <r>
@@ -2637,44 +6071,520 @@
     </r>
   </si>
   <si>
-    <t>话题选择：
-在这部分考试中，考生需要就某个话题独立发表意见，做一个为时一分钟的小型演讲。这个部分的关键在于考生要在一分钟之内把个人观点讲清楚，既要做到言之有物又要做到条理清晰。</t>
-  </si>
-  <si>
-    <t>mini 演讲虽然内容为一分钟的简短发言，但要求内容完整，有开头，有结尾; 能将提供的两点提示词发展为论点，并加以论证，同时能围绕题目，自己再提出一个论点并简短论证。要求考生使用得体的词语，条理清晰地构思、组织、表达自己的观点。</t>
-  </si>
-  <si>
-    <t>What is important when selecting employees for promotion?</t>
-  </si>
-  <si>
-    <t>Firstly,personal qualities are important,such as loyalty to the company, responsibility and so on,since these can help to establish personal credibility and integrity among colleagues.
-Secondly,work-related qualities are also very significant,for these qualities include qualifaciations,skills and abilities which are necessary for any job.
-On top of that, current performance is never a factor to be neglected. Successful performance can at least demonstrate some aspects of the staff's ability, such as communication skills, sales experiences and so on.
-integrity n.诚实，正直</t>
-  </si>
-  <si>
-    <t>What is important when setting up a new business?</t>
-  </si>
-  <si>
-    <t>Firstly, management experience is very important when setting up a new business. This is the prerequisite of normal functioning of the company. Once the leader possesses brilliant experience of running a company, he can make right decisions and see things in a very mature view. Thus this company will provide nice environment to grow up.
-Secondly, financial backing should be taken into account. Without money, there can be no mentioning of running a company at all. The costs of personnel and advertisement should be calculated carefully and reasonably.
-Thirdly, the selection of location. For instance, proper location of a company can entitle itself advantages. Given that company needs to deliver products or some materials realted to its business, location determines the fees and the labour the company has to pay.
-prerequisite n.先决条件，前提</t>
-  </si>
-  <si>
-    <t>在本部分考试中，你需要针对一项商务话题进行发言。你需要从三个话题中选取一个，并展开一分钟的发言。你有一分钟的时间进行准备。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A.决定是否应聘某岗位时，什么是重要的？</t>
+    <t>In what other ways do you think companies could reduce the need for travelling to meetings?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A company can minimise the demand for travelling to meetings by email. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Senior managers(高管人员)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in branches can maintain contract by means of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>correspondence(书信，通讯)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with the head office and report their work. In this way, they can also keep a record through email box for future references.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think the time spent travelling to meetings is always time wasted?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As far as I am concerned, travelling to meetings would not necessarily consume a large deal of time as most people estimate since several fast means of transportation created by advanced technologies, like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bullet trains(v.高速火车)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, prompt the time during the journey to be cut down dramatically.</t>
+    </r>
+  </si>
+  <si>
+    <t>What do you think are the benefits to staff of business travel?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In my opinion, business travel is beneficial to widen staffs outlook and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accumulate experience(积累经验)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. It also encourages people to collaborate closely on a programme. To sum up, in spite of substantial expenses and time consumed, the advantages of travel, including effective communication and experience sharing, will have a considerable effect on employees.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think modern technology has affected the amount of business travel in recent years?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes. Recently, the amount of business has dropped with the arrival of modern technologies, because various ways to communicate, such as emails and skype, are available for people to use. People cannot afford frequent business travel owing to limited time. As a result, they attempt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alternative ways(其他方式)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to tackle the problem.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think video conferencing will become more important for meetings in the future?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, I do. I think video conferencing will play an important role in the future because numerous multinational companies in the world do need it. In addition, more and more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>branches(n.分公司)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> could take advantage of video conferencing to make people in the same company work apart. Hence, to employ video conferencing would be a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tendency(n.趋势)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>话题九：
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。</t>
+  </si>
+  <si>
+    <t>提供给学生的研讨会
+你的公司被要求去向一组商业系的学生做一天的系列专题研讨会，以帮助他们为在大公司工作做准备。
+你被要求去帮助计划研讨会。
+共同讨论并决定：
+1.哪种类型的信息会对了解学生有用
+2.最有用的话题是什么</t>
+  </si>
+  <si>
+    <t>A: A number of seminars are about to be held by our company. Our company has settled all the detailed arrangements, including the date, the place where seminars take place, seminar content, lectures and so on.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Actually I have heard of this. Who would attend the seminars? I think we should make </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">specific(adj.具体的) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plans for the seminars according to their demands.</t>
+    </r>
+  </si>
+  <si>
+    <t>A: You're right. As far as I'm concerned, attendees are all the students majoring in business who expect to work in a large company in the future.</t>
+  </si>
+  <si>
+    <t>B: The content of seminars concentrates on offering meaningful solutions to business issues. In the beginning, the director of this activity comes up with a couple of topics available used for seminars.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Yes, the topics proposed involve many aspects, ranging from essential qualifications required by big companies, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>career planning(职业规划)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, practical means for seeking jobs, strategies for package negotiations. What's more, the seminars are also related to the points about how to deal with relationship in the workplace and the seminars will also introduce the policy concerning employing new staff without any experience.</t>
+    </r>
+  </si>
+  <si>
+    <t>B: Definitely. The intensive seminars will instruct the students over what they need to acquire as for starting their careers soon.</t>
+  </si>
+  <si>
+    <t>A: Actually, the challenges of working in a large company could not be avoided for graduates who just graduate from universities. Hence, the seminars would discuss how to set their goals before achieving them in order to survive.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: By the way, at the end of the seminars, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>questionnaires(n.调查问卷)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will be distributed to the students and then the company will collect feedback towards the seminars.</t>
+    </r>
+  </si>
+  <si>
+    <t>What other preparations might the company need to make for the seminars?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Facilities at a conference center also </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exert(v.施加)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a huge effect. For example, the microphone must be tested </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in advance(提前)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to ensure that attendees throughout the room can hear what the speaker is saying.</t>
+    </r>
+  </si>
+  <si>
+    <t>How do you think students can benefit from seminars like this?</t>
+  </si>
+  <si>
+    <t>Students would get directions on how to prepare in many aspects before entering workplace. They chould apply positions of interns in order to cultivate the qualities which a regular employee should have in a big company. On the other hand, with the experience learned from the seminars in their minds, potential failures will be prevented in the future.</t>
+  </si>
+  <si>
+    <t>Would it be more useful at the beginning or the end of a student's course to have advice from a company?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is more helpful if students receive advice from a company at the beginning of a course, because based on the suggestions a student could </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be aware of(意识到)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the key content they should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acquire(v.习得，学得)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and master in a course, and even recognise which category of books they should refer to when learning the course.</t>
+    </r>
+  </si>
+  <si>
+    <t>What other ways do you think there are for business students to prepare for work?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Students could look up more practical information using the Internet. And they can ask advise from the friends who have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>engaged in(从事)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> business field. After all, the real experience coming from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>practice(n.实践)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> would be more useful for the newly-graduated students.</t>
+    </r>
+  </si>
+  <si>
+    <t>What areas of business would you like to have more experience of?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When it comes to the sector, I prefer to be more experienced. I would like to be more interested in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>channels(n.渠道，手段)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of collecting customer demands in reality, because customer needs are the basic elements for establishing cooperative relationship. It decides the existence of the cooperation and negotiation in the business field.</t>
+    </r>
+  </si>
+  <si>
+    <t>What advantages are there for companies of offering work experience to students?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Through the introduction of work experience, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a majority of(大多数) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">students would be familiar with the company in advance. It is more likely that the company would attract </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>talented(adj.有才能的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> students' attention when they graduate from universities.</t>
+    </r>
+  </si>
+  <si>
+    <t>话题十：
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。</t>
+  </si>
+  <si>
+    <r>
+      <t>销售经理会议</t>
     </r>
     <r>
       <rPr>
@@ -2685,1496 +6595,16 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-1.工作地点
-2.职业前景
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B.组织室内培训课程时，什么是重要的？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.课程内容
-2.选择参与人员
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C.招聘高级职员时，什么是重要的？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.招聘代理机构
-2.经济激励</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose Topic A: What is important when deciding whether to apply for a new post?</t>
-  </si>
-  <si>
-    <t>When we are deciding whether to apply for this job, we have to think it over and take some elements into account. Generally, we spend 8 to 9 hours per day on working, if the time we spend in commuting is too much then it tends to be a burden. Thus location is bound to be a crucial element. Besides, career prospects are worth attaching significance. A post or a job is definitely not the destination of our career life. Everyone needs to be acknowledged by others, which makes promotion extremely vital. One should never focus his or her eyesight on the things in front of him or her, future deserves more attention, instead. Furthermore, we can pay a little attention to the salary. Salary can be a demanding element when we find other conditions enough suitable for us.</t>
-  </si>
-  <si>
-    <t>If you choose Topic B: What is important when organising an in-house training course?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Training course should be a necessity rather than a waste for a company. If we intend to benefit from training course, we have to assure that the content taught in the class is quite intensely related to the routine work in the company. Also, it has to be practical. Theoretical knowledge is not recommended to be introduced. Besides, we'd better carefully select the trainees since we aim to improve company's productivity and have to guarantee that this course is 100% beneficial to our employees. Moreover, the length of this course should be controlled properly. If spending too long time learning, employees </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">incline(v.有。。。倾向) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to be bored and exhausted after a whole day's work.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose Topic C: What is important when recruiting senior staff?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Proper senior staff can be considered as a treasure of a corporation if they are sophisticated and dedicated, which makes them the targets that corporations are desperate for. When a corporation needs to hire senior staff, it may hire a recruiting agency, not only with the purpose of saving energy. Skillful recruitment agencies can seek the really appropriate managerial staff for the corporation once provided with detailed description. Secondly, satisfactory salary should be attached to the recruit advertisement. Financial bonus are regarded as competitive. Besides, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>probation period(试用期)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is necessary. New senior staff should be on trial for several months, in order to figure out whether they are suitable for this position or not.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A.参加面试时，什么是重要的？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.应聘者的外表
-2.应聘者对公司的了解程度
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B.计划市场调查时，什么是重要的？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.提问内容
-2.提问对象
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C.预测利润时，什么是重要的？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.目前的销售数据
-2.市场趋势</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose Topic A: What is important when attending an interview?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">When we are deciding who should be selected among several candidates, some elements should be taken into consideration. When we meet someone for the first time, we may pay attention to his or her appearance, for example, his clothes or his face, then we capture the first impression about the applicant, which can be </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>decisive(adj.决定性的，关键性的)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Secondly, we can attach importance to applicants' knowledge of company. If he or she has comprehensive knowledge about this company, we can assume he or she will be a loyal staff because he or she does pay efforts to know this company, his or her future company. Thirdly, we can never ignore the applicant's working experience, which can be nice reference about the ability of the applicant.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose Topic B: What is important when planning market research?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Company's success </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stems from(来自)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> wise market planning. Wise planning includes several aspects. First of all, types of questions should be paid attention to. Questions need to be relevant to our current trade, such as our products or service satisfaction. Secondly, we should clarify the type of people to guarantee the efficiency of this planning. They should be our customers or potential customers, whose opinions can influence our products selling conditions in the future. Besides, we have to consider our rivals' competition, analysing our advantages and disadvantages to make sure that we are situated in the leading position among the trade. After considering these factors, our market researches will be effective.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose Topic C: What is important when predicting profits?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Regularly, we predict profits quarterly or monthly. Some elements should be taken into consideration. To predict future figures, we have to deal with the past figures. We can collect current sales figures, analysing how well we have done during the past days. After that we can find out what will happen in the future. Secondly, take account of market trends. There are </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>boom seasons(=peak season旺季)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and off seasons. We can't get rid of this influencing factor. Furthermore, operating costs account for a big part in this.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A.决定是否要获得进一步的资格时，什么是重要的？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.需要投入时间
-2.职业的好处
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B.在报纸上刊登广告时，什么是重要的？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.报纸销售数据
-2.广告费用
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C.决定是否投资技术时，什么是重要的？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.对公司的好处
-2.涉及的成本</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose Topic A: What is important when deciding whether to obtain a further qualification?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">When we are considering whether to obtain a further qualification, we have to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>contemplate(v.考虑)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the following elements. Firstly, we have to measure that whether our time is available. If available time can't be guaranteed, the balance of our life and work will be upset. Secondly, the benefits it can bring are also important for us to think it over. We should figure out whether it is worthwhile for us to gain the benefits and pay efforts. Thirdly, its developing future is bound to effect. Sometimes we see it clearly that there is no promising future in some trades, then it is not advisable for us to obtain this further qualification.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose Topic B: What is important when placing a newspaper advertisement?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">To publicise products or service via the newspaper is cost-effective, while we have to make sure that it is worth implementing. Firstly, the selection of the newspaper is quite important. The audience defines the result we can gain, thus it is crucial for us to choose the newspaper with a large number of buyers. Secondly, to make profits, we have to make budget first. We have to know the cost beforehand, once we know the cost then we can make sure what we can get for profits. Thirdly, the size of the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>typeface(n.版面)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is also a significant element. A proper typeface can grasp audience's attention while bad ones can't.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose Topic C: What is Important when considering whether to invest in technology?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Technology birngs development. The boss who wants to develop his company must manipulate the development of technology. There are several advantages that we can attain after we have implemented technology. Firstly, the productivity can be boosted since manpower can never be compared with machines or robots. Secondly, we can increase the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>turnout(n.版面)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keep pace with (赶上，跟上)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the development in the society. But we have to contemplate the cost, then we can figure the profits out. Furthermore, the size of the company should also be considered. Thus we can know whether it is appropriate for us to accommodate the new machines or devices.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A.在招待客户的时候，应注重哪些方面？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.活动类型
-2.花费
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B.在选择租用零售经营场所的地点时，应注重哪些方面？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.地点
-2.合同有效期
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C.在决定产品的包装时，应注重哪些方面？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.外观
-2.生产过程</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose topic A: What is important when entertaining clients?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Entertaining clients could be a crucial step to the final success. It is not easy to implement. It is more than just a banquet, a visit. A successful entertaining will impress the clients and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>contribute to(促成，有助于)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a further cooperation.
-When entertaining clients, the first thing we have to decide is the types of activities. We should make our arrangements suitable for the clients' interests and favorites. To promote our benefit, we'd better arrange activities that can help us foster business targets. For example, we can provide our clients with a fantastic meal, meanwhile we make a further discussion with them.
-There is another vital element when deciding how to entertain our clients. We must take cost into consideration because high expenses don't always lead to great satisfaction. We should spend our money appropriately. But it is also important that we should treat our clients with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cordiality(n.热情友好)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and kindness. Thus we can both benefit from this entertaining activities.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose topic B: What is important when choosing retail premises to rent?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">When considering the premises we choose for our retailers, there are two vital factors that we should take into consideration. The first and the most significant thing is to decide the location.
-A perfect retail premise ought to be located at a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prosperous(adj.繁荣的，兴旺的)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> district or an area where a number of patrons can be granted. If you locate your premise at a remote area, it is unlikely to gain success, for there won't be many people coming to your shop.
-Secondly, we should emphasis on the length of the contract. A long-term contract can always guarantee the business' sustainable development and prosperity.
-Last but not least, rent cost should also be an important element. Running a business needs a great cash flow so that proper rent won't do any harm to the owner's capital.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose topic C: What is important when deciding on packaging for products?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The packages of the products are </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>decisive(adj.决定性的，关键的)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in selling products. They can also define the destiny of the business, because they can attract the customers to purchase them or prevent them from paying for the products.
-Customers capture the image of the product at the first sight they meet the product. People are always surrounded by a variety of products in a mall and they tend to be </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>appealed(adj.有吸引力，有感染力)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by those who have attractive images. Designers should pay more attention to the color, shape and materials of the product.
-Production procress is also crucial when deciding the packages, due to the cost being contained in the price of the products. In view of environments, we'd better use recyclable materials when producing the packages since it becomes useless once we begin to use the product.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A.选择员工进行提拔时，应注重哪些方面？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.工作态度
-2.近期表现
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B.考虑变更职业时，应注重哪些方面？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.进一步的学习或培训
-2.未来的晋升机会
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C.计划投放广告时，应注重哪些方面？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.市场调查
-2.选择合适媒介</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose topic A: Waht is important when selecting staff for promotion?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The first element we should take into consideration is employees' attitude to work. It reflects how much they have paid their effort to work and how important they considered their work. If an employee holds a positive and diligent attitude, he or she will certainly attain an excellent performance. Besides the attitude to work, I suppose that the current performance is of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sovereign(adj.有主权的，有至高无上权力的)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> importance. The aim to promote staff is to encourage other staff to make more contribution to the company, which makes current performance become a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>criteria(n.标准，准则)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when considering the candidate. Current performance includes the punctuality, working efficiency and business achievement.
-    Furthermore, the ability to get along with other co-workers. Good employees are the ones who can take good care of both work skills and working atmosphere. Undoubtedly, it's not very easy to find such a guy possessing all of advantages we've mentioned above. We need to pay more efforts to this promotion.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose topic B: What is important when considering a career change?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">When an employee thinks about changing his job, he may have got bored or exhausted by his current condition, which means that there is no room for him or her to get promoted or to learn new things. People are always moving forward. When considering changing our career, we'd like to wonder whether there is a chance waiting for us to attain further study or training. Only when we have gained more skills and knowledge can we improve ourselves.
-    In modern society, if we stop </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>moving forward(前进,向前走)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> we are actually retreating. On the other hand, we should also pond over the possibility of being promoted, and whether there are plenty of opportunities for future promotion. The result of promotion pushes us to be more </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>industrious(adj.勤奋的，勤劳的)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and attain higher achievement. But to be frank, I'd like to choose a job in which I really have interest, I will be active in my daily work if I have passion.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose topic C: What is important when planning an advertising campaign?</t>
-  </si>
-  <si>
-    <t>Advertising and market share a close bond with each other. Before we make any advertisement, the first and imperative thing we should know is the relative market.
-    Market determines every aspects of the advertising campaign. For example, if we've gonna implement a new series of textbooks into local market, we have to know the students' amount and their ages. We need to clarify our targeted customers and figure out the potential objectives, or we may lead our company to great loss. Secondly we should select appropriate media. Different products need diverse media to let them generate maximal(adj.最大的，最高的) profits. Beauty items should be spread by commercials to let girls be immersed and penetrated, while factories and corporations should be propagated in the banners along the streets in order to turn every passengers' eyes.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A.在选择出差交通工具的时候，应注重哪些方面？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.便利程度
-2.是否划算
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B.在想要获得升迁时，应注重哪些方面？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.表现优劣
-2.对公司的忠诚度
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C.在首次出口产品或相关服务时，应注重哪些方面？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.个人交往
-2.专家建议</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose topic A: What is important when choosing transport for a business trip?</t>
-  </si>
-  <si>
-    <t>Everyone may get chances to go on a business trip. The form of transportation can be essential to this business trip, which makes it crucial to choose transport. We should take several elements into consideration.
-    Firstly, convenience should be ranked at the top priority. Convenience means that we'll spend less time and save our energy. Business trip tends to be more exhausted than ordinary trip, if energy and efforts are wasted on the things not related to business, it's sort of difficult for us to restore our spirit and make the tasks completed brilliantly.
-    Secondly, we should take care of the cost. Given that our budget is limited, we have to measure whether our choice is cost-effectiveness.
-    Last but not the least, the quality can also be taken into account. We should define whether the cost spend is proportionate(adj.成比例的，相称的) to the service we received.</t>
-  </si>
-  <si>
-    <t>If you choose topic B: What is important when aiming for promotion?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Promotion is the incentive for us to pay efforts to work. When talking about aming for promotion, the first thing we should contemplate is the quality of performance. Promotion is the reward for the people who contribute to the cooperation, thus it should belong to the ones who possess great performance. The evaluation of one's performance is the criterion whether he or she should receive the promotion. All tasks well completed, there is no reason that the boss wouldn't consider you as a candidate. Company loyalty is the second element. Company need the ones who hold loyalty to them. Since these people will pour all of their energy into promoting companies' turnout and reputation. If people with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fidelity(n.忠诚，忠实)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> gain promotion, other staff would be spurred. Interpersonal skills are as important as company loyalty. A proper and wise leader must be </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sophisticated(adj.见多识广的，老练的)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose topic C: What is important when exporting goods or services for the first time?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">To begin with, we should build good personal contacts when considering how to export goods or services for the first time. This is the main issue. Besides, professional advice should always be taken into account, since usually we don't have too much experience for the first time. In order to avoid making mistakes and loss, it is worth listening to the professionals who hold the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>expertise(n.专门知识，专门技能)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on the specific area. Last but not least, security of goods should become a consideration. This is reasonable because secure and safe delivery defines our reputation.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A.在处理客户投诉时，应注重哪些方面？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.表达歉意
-2.提出解决方案
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B.在为新产品定价时，应注重哪些方面？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.生产成本
-2.竞争对手的价格
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C.在降低人员流动率时，应注重哪些方面？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.奖金激励
-2.职业结构</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose topic A: What is important when dealing with complaints from clients?</t>
-  </si>
-  <si>
-    <t>Dealing with complaints from clients is a significant aspect when implementing effective customer service. Once we got complaints, there must be something we've done wrong. The first thing we should do is to offer an apology to our client, so as to show our sincerity and respect, letting the client know that we've made their need as the top priority. Then we should put forward solutions to tackle this problem, showing that we are positive to face their feedback, instead of avoiding and neglecting. But these are not enough, we still have to follow up the process. We can make phone calls, writing them letters to know how our solution works. Customers will feel satisfied with the serious attitude we presented to them, which can guarantee a further cooperation.</t>
-  </si>
-  <si>
-    <t>If you choose topic B: What is important when setting prices for new products?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">There are several factors we should take into consideration when setting prices for new products. Firstly, we ought to know how much we cost on producing our product, which is the basic elements to decide the price of a product. Secondly, we should keep informed of our competitors' price, thus we can stand out the market. But we can never set a low price blindly, which is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>detrimental(adj.有害的)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to the market. Last bu not least, we'd better make market research to define our targeted customers. Different group people may hold different ideas about prices. Only if we know their characteristics can we make clear and precise judgment.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose topic C: What is important when aiming to reduce staff turnover?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">When talking about reducing staff turnover, there some tips we can follow.
-    Firstly, be sure that we are paying employees the fair going wage for their work(or better) and offer them competitive benefits. This might seem like a brainer but you'd be surprised how few companies offer raises that keep up with an employee's development and actual rising worth. Today's employees </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>crave(v.渴望)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> work balance. That impacts </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>retention(n.保持，维持)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> directly. Flexible work arrangements had positive effects on retention. And more and more companies know it. That means, if we've not offering employees flexibility around work hours and locations, they might easily leave you for someone who will.</t>
-    </r>
-  </si>
-  <si>
-    <t>A.在吸引新员工的时候，什么是重要的？
-B.在为外出出差做准备时，什么是重要的？
-C.在策划公司的招待活动时，什么是重要的？</t>
-  </si>
-  <si>
-    <t>If you choose topic A: What is important when trying to attract new staff?
-Answer cues:
-1.Competitive wages
-2.Company reputation
-3.Working atmosphere</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In terms of drawing new staff's attention, a range of factors should be taken into account.
-    Competitive wages, one of the most important factors attracting new staff, are considered by potential employees to a great extent. Attractive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>remuneration package(薪酬福利)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> plays a key role in hunting talented people. Considering the poor economic circumstance and constantly increasing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inflation rate(通货膨胀率)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>job seekers(求职者)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> are keen on making more money in order to survive.
-    In addition, company reputation has become a significant contributor in the aspect of recruiting new staff. In fact, a company's future development is always associated with its previous reputation and image among the target customers. Meanwhile, career prospects for new staff are attached to the company so that company reputation would be referred to by new staff before filling in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>job vacancies(职位空缺)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-    Thirdly, nothing is more tempting than motivating working atmosphere for new staff. The availability of stimulating working environment breeds team spirit and high efficiency as well as innovations, which further promote staff to obtain an amazing career prospect indirectly.
-    All in all, all the factors I mentioned are very important when companies plan to recruit new staff.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose topic B: What is important when preparing to go away on a business trip?
-Answer cues:
-1.Informing colleagues and clients(通知同事和客户)
-2.Delegating essential tasks(委派必要的任务)
-3.Set your goals(设定你的目标)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When it comes to going away on a business trip, preparations including a variety of things should be considered ahead of time.
-    First of all, inform your colleagues and the clients you are about to pay a visit to and tell them the purpose and details of this visit. If so, your colleagues would know who they should contact during the trip. Plus, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">itinerary(行程) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and accommodation, as well as the electronic devices needed in the conference, will be arranged and prepared well by your clients.
-    Meanwhile, it is necessary to delegate essential tasks before the trip, like turing over the unfinished and urgent tasks to the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deputy(n.代理人)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in advance in order to avoid delaying or suspending task completion progress. If the issue is handled earlier, the business trip would go well.
-    Thirdly, to set your goals is very essential before departure. Only if you make clear the final objective to achieve during this trip, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>effective strategies(有效措施)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and specific solutions would be employed to assist negotiation and to reach the final goal with ease. On the other hand, to set the goal earlier allows you to prepare the contracts and documents with comprehensive considerations, avoiding neglecting a number of crucial files.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose topic C: What is important when planning corporate hospitality?
-Answer cues:
-1.Guest list(客人名单)
-2.Type of event(宴会的类别)
-3.Business etiquette(商务礼仪)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Turning to planning corporate hospitality, which </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prompts(v.促使)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> colleagues and clients to relax, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>socialise with(与。。。社交)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> each other, and strengthen their business connections in a comfortable way, we should concern many aspects.
-    To begin with, a guest list is necessary since we should make arrangements and preparations according to the number of </t>
+你的公司在组织一个销售经理的会议，这些经理的办公地点遍布世界各地。
+要求你协助规划此会议。
+共同讨论并决定:
+1.在会议前你需要给销售经理发送什么信息
+2.组织什么活动能够帮助人们更好地了解彼此</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Do we need to send materials associated with sales managers conference to all the </t>
     </r>
     <r>
       <rPr>
@@ -4194,240 +6624,468 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> counted in advance.
-    Corporate hospitality involves a wide range of categories, such as business conferences, seminars, and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>product launches(产品上市)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Considering the eventual effect varies with various types, we should give priority to the purpose of the event, ultimately deciding which kind of corporate hospitality should be held.
-    During corporate hospitality, we are supposed to pay attention to business etiquette. Business etiquette reflects respects to attendees and benefits establishing partnership as well as boosts company image, especially reinforcing relations of cooperation.
-    To sum up, it is essential to take all of these into account for a company when planning corporate hospitality.</t>
-    </r>
-  </si>
-  <si>
-    <t>A.为一份空缺的职位写报纸广告时，什么是重要的？
-B.给其他人分配工作时，什么是重要的？
-C.为公司设计网站时，什么是重要的？</t>
-  </si>
-  <si>
-    <t>If you choose topic A: What is important when writing a newspaper advertisement for a job vacancy?
-Answer cues:
-1.Description of the work(工作描述)
-2.Experience needed by applicants(申请人需要具备的经验)
-3.Remuneration package(薪资福利)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It would be a good job newspaper advertisement with effective information for job seekers. In general, the advertisement should cover a couple of key points concerned about by candidates.
-    Firstly, a specific description of the work should be included on the advertisement, involving tasks, duties, work atmosphere and so on.
-    Secondly, it is essential that all the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>qualifications(n.资质)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> required by the applicants ranging from hard skills to soft skills should be listed, such as education background, social skills, working experience, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>team spirit(团队精神)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, computer skills and others.
-    Thirdly, job seekers always attach great significance to the income and benefits. Yet the majority of companies would list a salary range instead of giving detailed information on the advertisement. Currently, offering an attractive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>remuneration package(薪酬福利)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> would be a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>decisive factor(决定性因素)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in hunting talents. Most candidates concern benefits, like annual leave, insurance, housing fund or staff discount. Hence, it is a wise choice to list all these respects to draw people's attention. Then, make sure that contact details are on the newspaper, such as telephone number or address.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose topic B: What is important when delegating work to others?
-Answer cues:
-1.Clear instructions(清晰的指示)
-2.Choice of person for the task(对于被委托者的选拔)
-3.Supervising and feedback(监控与反馈)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any person with promotion opportunities would be about to allocate tasks to the team members, which contributes to an increase as for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>productivity(n.生产力)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and efficiency. When delegating work to others, bear in mind several points as follows.
-    In the first place, keep in mind that clear instructions are significant. You are supposed to explain the purpose, duties and the restrictions of the work you assign. Otherwise, other people could not comprehend what they need to do later and bring about some unnecessary troubles.
-    Besides that, it could not be ignored regarding who suits the task. A person with essential ability or </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>expertise(n.专业技能)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for the work is a better choice.
-    Another key factor is supervising and collecting feedback related to the procedure. The supervisor should keep an eye on the work closely and check on a regular basis in order to know if the work is finished as expected. After assessment of the work, proper bonus or praise should be given to the employee with excellent performance.
-    All in all, one should take various factors into account when delegating work to the others.</t>
-    </r>
-  </si>
-  <si>
-    <t>If you choose topic C: What is important when designing a company website?
-Answer cues:
-1.Type of information to include(包括的信息种类)
-2.Different language versions(不同的语言版本)
-3.Effective web navigation(有效的网站导航系统)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">One should think about several respects when devising a company website and make sure it can draw many </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prospective customers(潜在客户)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-    In the first palce, type of information to involve is an essential stage. It is personalised for your needs to attract search engines, raise traffic and provide useful information for existing and potential customers. It also offers some information for the public about your services and latest products you supply, what you represent, how you run and so on.
-    Various language versions are not a minor consideration, either. Your website would be used by the people all over the world, so it is critical to include different language versions. It is designed to assist people with a wide range of nationalities to read online and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prompt(v.促使)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the communications between target users and the company.</t>
+      <t xml:space="preserve"> coming from the branch offices? if so, what are we supposed to send?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: From my perspective, all the documents related to the conference should be sent. Going through the documents in advance would allow the delegates to prepare the conference well. Conference delegates would get access to the objectives of the conference, procedure instructions, accommodation arrangements, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handouts(讲义材料)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or presentation notes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: We could ask the sales managers to read business articles used for discussion in the conference or analyse current situation as for recent sales performance. Proposals concerning boosting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sales volume(销售量)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> could be prepared by them as tasks.</t>
+    </r>
+  </si>
+  <si>
+    <t>B: The form of task would be acceptable for the participants. In fact, a variety of campaigns and amusements personalised are available to suit the spare time of the attendees.</t>
+  </si>
+  <si>
+    <t>A: The sales managers will gather here next month to address the problems, make wise decisions, and discuss and predict the issues of potential markets. I think it's also a great opportunity to pursue collective interests and establish collaboration relationships.</t>
+  </si>
+  <si>
+    <t>B: Several activities like dinner time, travelling and even a football game would make them know each other better and build trust to some extent.</t>
+  </si>
+  <si>
+    <t>A: For the company, a number of advantages would be obvious. But what do you think as for inviting a quest speaker at the beginning of a lecture.</t>
+  </si>
+  <si>
+    <t>B: Exactly. There should be a keynote speaker to set the scene and assist the conference attendees to be familiar with the theme of the conference.</t>
+  </si>
+  <si>
+    <t>Do you think a company benefits from holding conferences for its employees?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, it would be beneficial in many aspects. On one hand, to establish a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closer bonding(亲密关系)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> after meeting would enhance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>productivity(n.生产率)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> owing to better collaborations between employees. On the other hand, sharing successful experience in the conference will boost the sales volume of nearly all the branches all over the country.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think you would enjoy going to a conference?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It depends on the location where the conference </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>takes place(举行)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and how long the conference lasts. lf too much time and energy are involved in this conference, the employees will feel extremely exhausted, even complain about the conference.</t>
+    </r>
+  </si>
+  <si>
+    <t>How important is location to the success of a conference?</t>
+  </si>
+  <si>
+    <t>Location is very important where a conference is held, which determines whether the conference could be held as scheduled. The easier the employees of all the branches get, the more successful the conference will be. That is because a suitable location would benefit the entire company rather than only a few branches for which it is easier to arrive at the place of conference.</t>
+  </si>
+  <si>
+    <t>Could it be a problem if several managers in a company are away at conferences at the same time?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Definitely, no one could </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>address(v.处理)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> those urgent issues if most supervisors in a companyattend the meeting. For instance, it is possible that sales volume drops sharply owing tothe absence of senior managers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Should a company stop sending staff to conferences if it is having financial difficulties?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In spite of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financial burden(经济负担)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for a company, there is still the need to send staff to conferences. Through learning from other branches, it is likely that most of branches would benefit from the successful experience </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accumulated(v.积累)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by one of the branches.</t>
+    </r>
+  </si>
+  <si>
+    <t>Apart from having conferences, in what other ways can companies encourage teamwork among their employees?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To launch entertaining activities regularly is also an effective </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>means(n.手段)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of triggering team spirit, which would boost employees' efficiency </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to a great extent(极大程度地)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Similarly, after participating in games, employees probably could collaborate with each other well.</t>
+    </r>
+  </si>
+  <si>
+    <t>话题十一：
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。</t>
+  </si>
+  <si>
+    <t>销售库存积压品
+你所就职的生产公司要清理仓库以便储存新产品。公司想把已停产的尾货打折处理掉你需要对此提出建议。
+讨论并决定:
+1.是否对所有的产品采取同样的折扣
+2.如何告知顾客这次的打折活动</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Recently, our company launched new products, so we have to make space in warehouseto stock these products. That means we have to make a plan to dispose the old stock which has been just </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sorted out(分类)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from our warehouse.</t>
+    </r>
+  </si>
+  <si>
+    <t>B: Yeah, we are supposed to work out a detailed and effective plan, Do you have some ideas?</t>
+  </si>
+  <si>
+    <t>A: Um...Most of these products are old-fashioned and unattractive to people now. So we must take some measures to deal with them, like offering great discount to appeal customers.</t>
+  </si>
+  <si>
+    <t>B: It seems like the only way to sell off those end-of-range products. How much discount should be offered? 50% discount?</t>
+  </si>
+  <si>
+    <t>A: I agree with you. Discount is everywhere now during this holiday season, so we must offer bigger discount than usual.</t>
+  </si>
+  <si>
+    <t>B: Here comes a problem. Whether to offer the same discount on all products?</t>
+  </si>
+  <si>
+    <t>A: I prefer to offer the same discount on everything in that our products need to be cleared soon, and if people find we offer different discount, they will be upset and feel being cheated. It will have negative impact on our brand.</t>
+  </si>
+  <si>
+    <t>B: All right then And how can we notify our customers of this activity?</t>
+  </si>
+  <si>
+    <t>A: There are many ways to inform them. For example, we can advertise on TV, radio newspaper and magazines.</t>
+  </si>
+  <si>
+    <t>B: I don't think it does work quickly. We'd better to distribute leaflets to customers on the street and in the supermarkets and communities. In this way, we can attract people's attention and sell off the old stock soon.</t>
+  </si>
+  <si>
+    <t>A: Good idea, and we can also send emails to our customers or publish the news in our website.</t>
+  </si>
+  <si>
+    <t>Do you think discounts are a good way of selling old stock?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, it is a good way adopted by many retailers or supermarkets. Given bigger discounts.people are more likely to buy things. Facts proved that discounts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are directly proportional to(与。。。成比例)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sales volume.</t>
+    </r>
+  </si>
+  <si>
+    <t>In what other ways do you think companies can get rid of unwanted stock?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are many ways to get rid of unwanted stock. Despite discount, companies can dispose them as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fringe benefits(赠品)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of new products to appeal customers, In addition, they can also present them as gifts to some clients or sell them </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in bulk(大批量)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at low prices to small retailers.</t>
+    </r>
+  </si>
+  <si>
+    <t>What do you think is the main disadvantage for a company of having too much stock in its warehouse?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it causes some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cash-flow problems(资金周转问题)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because of too much stock. ln this way, companies don't have enough money to develop new products, conduct advertising campaigns or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">implement(v.实施) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>marketing plans.</t>
     </r>
   </si>
 </sst>
@@ -4441,7 +7099,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4611,6 +7269,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5079,10 +7745,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5445,10 +8111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -5554,8 +8220,8 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" ht="46.8" spans="1:1">
       <c r="A15" s="1" t="s">
@@ -5587,8 +8253,8 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" ht="46.8" spans="1:1">
       <c r="A20" s="1" t="s">
@@ -5628,8 +8294,8 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" ht="46.8" spans="1:1">
       <c r="A26" s="1" t="s">
@@ -5669,8 +8335,8 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" ht="46.8" spans="1:1">
       <c r="A32" s="1" t="s">
@@ -5710,8 +8376,8 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" ht="46.8" spans="1:1">
       <c r="A38" s="1" t="s">
@@ -5751,8 +8417,8 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" ht="46.8" spans="1:1">
       <c r="A44" s="1" t="s">
@@ -5792,8 +8458,8 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" ht="46.8" spans="1:1">
       <c r="A50" s="1" t="s">
@@ -5833,8 +8499,8 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" ht="46.8" spans="1:1">
       <c r="A56" s="1" t="s">
@@ -5874,8 +8540,127 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" ht="46.8" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" ht="218.4" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" ht="156" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" ht="156" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" ht="171.6" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" ht="46.8" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" ht="140.4" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" ht="78" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" ht="171.6" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" ht="156" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" ht="46.8" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" ht="109.2" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" ht="140.4" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" ht="156" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" ht="202.8" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5887,763 +8672,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="2" width="42.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="124.8" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="31.2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="78" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="93.6" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="78" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="62.4" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="93.6" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" ht="93.6" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" ht="93.6" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" ht="202.8" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" ht="46.8" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" ht="78" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" ht="93.6" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" ht="62.4" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" ht="46.8" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" ht="46.8" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" ht="78" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" ht="93.6" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" ht="78" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" ht="187.2" spans="1:1">
-      <c r="A24" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" ht="62.4" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" ht="93.6" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" ht="62.4" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" ht="78" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" ht="78" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" ht="109.2" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" ht="93.6" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" ht="78" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" ht="140.4" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" ht="62.4" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" ht="62.4" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" ht="62.4" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" ht="93.6" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" ht="78" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" ht="31.2" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" ht="93.6" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" ht="93.6" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" ht="124.8" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" ht="124.8" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" ht="46.8" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" ht="78" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" ht="78" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" ht="93.6" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" ht="46.8" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" ht="78" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" ht="78" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" ht="62.4" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" ht="78" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" ht="109.2" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" ht="93.6" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" ht="124.8" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" ht="46.8" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" ht="31.2" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" ht="62.4" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" ht="62.4" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" ht="78" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="69" ht="46.8" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" ht="109.2" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="72" ht="93.6" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" ht="62.4" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" ht="78" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" ht="93.6" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" ht="124.8" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" ht="124.8" spans="1:2">
-      <c r="A78" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="79" ht="46.8" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" ht="31.2" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" ht="62.4" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="82" ht="78" spans="1:2">
-      <c r="A82" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" ht="93.6" spans="1:2">
-      <c r="A83" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="84" ht="46.8" spans="1:1">
-      <c r="A84" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" ht="62.4" spans="1:2">
-      <c r="A86" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" ht="93.6" spans="1:2">
-      <c r="A87" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="88" ht="62.4" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="89" ht="124.8" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="90" ht="140.4" spans="1:2">
-      <c r="A90" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="91" ht="93.6" spans="1:2">
-      <c r="A91" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-    </row>
-    <row r="93" ht="140.4" spans="1:2">
-      <c r="A93" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="94" ht="140.4" spans="1:2">
-      <c r="A94" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="95" ht="78" spans="1:2">
-      <c r="A95" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="96" ht="218.4" spans="1:2">
-      <c r="A96" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="97" ht="62.4" spans="1:2">
-      <c r="A97" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" ht="265.2" spans="1:2">
-      <c r="A99" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -6655,350 +8687,1534 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="141" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>251</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="218.4" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>252</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="316" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" ht="140.4" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>257</v>
+        <v>114</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" ht="234" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>258</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" ht="218.4" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>261</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" ht="218.4" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>262</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" ht="140.4" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>264</v>
+        <v>114</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" ht="234" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>266</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" ht="234" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>267</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>268</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" ht="156" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>269</v>
+        <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" ht="140.4" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>271</v>
+        <v>114</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16" ht="202.8" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>273</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>275</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" ht="202.8" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>276</v>
+        <v>134</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>277</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" ht="140.4" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>278</v>
+        <v>114</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="21" ht="327.6" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>280</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" ht="265.2" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>281</v>
+        <v>139</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>282</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" ht="280.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>283</v>
+        <v>141</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>284</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" ht="140.4" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>285</v>
+        <v>114</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="26" ht="312" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>287</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" ht="296.4" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>288</v>
+        <v>146</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>289</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" ht="265.2" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>290</v>
+        <v>148</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>291</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" ht="140.4" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>292</v>
+        <v>114</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="31" ht="296.4" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>293</v>
+        <v>151</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" ht="280.8" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>295</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>296</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" ht="187.2" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>297</v>
+        <v>155</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>298</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" ht="140.4" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>299</v>
+        <v>114</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="36" ht="234" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>300</v>
+        <v>158</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>301</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" ht="202.8" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>302</v>
+        <v>160</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>303</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" ht="218.4" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>304</v>
+        <v>162</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>305</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" ht="93.6" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>306</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" ht="405.6" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>308</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" ht="408" customHeight="1" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>309</v>
+        <v>167</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>310</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" ht="374.4" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>311</v>
+        <v>169</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>312</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" ht="93.6" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>313</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" ht="390" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>314</v>
+        <v>172</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>315</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" ht="358.8" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>316</v>
+        <v>174</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>317</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" ht="265.2" spans="1:2">
       <c r="A48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" ht="93.6" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" ht="374.4" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" ht="405.6" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" ht="390" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" ht="93.6" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" ht="405.6" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" ht="343.2" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" ht="312" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" ht="93.6" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" ht="408" customHeight="1" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" ht="405.6" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" ht="405.6" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="42.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="124.8" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="31.2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="78" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="93.6" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="78" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="62.4" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="93.6" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" ht="93.6" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" ht="93.6" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" ht="202.8" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" ht="46.8" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" ht="78" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" ht="93.6" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" ht="62.4" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" ht="46.8" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" ht="46.8" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" ht="78" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" ht="93.6" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" ht="78" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" ht="187.2" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" ht="62.4" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" ht="93.6" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" ht="62.4" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" ht="78" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" ht="78" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" ht="109.2" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" ht="93.6" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" ht="78" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" ht="140.4" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" ht="62.4" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" ht="62.4" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" ht="62.4" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" ht="93.6" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" ht="78" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" ht="31.2" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" ht="93.6" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" ht="93.6" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" ht="124.8" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" ht="124.8" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" ht="46.8" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" ht="78" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" ht="78" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="52" ht="93.6" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" ht="46.8" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" ht="78" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" ht="78" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" ht="62.4" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="59" ht="78" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" ht="109.2" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61" ht="93.6" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" ht="124.8" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" ht="46.8" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" ht="31.2" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="66" ht="62.4" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67" ht="62.4" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" ht="78" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" ht="46.8" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" ht="109.2" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="72" ht="93.6" spans="1:2">
+      <c r="A72" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>319</v>
+      </c>
+    </row>
+    <row r="73" ht="62.4" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" ht="78" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" ht="93.6" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" ht="124.8" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" ht="124.8" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" ht="46.8" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="80" ht="31.2" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" ht="62.4" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="82" ht="78" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="83" ht="93.6" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="84" ht="46.8" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" ht="62.4" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="87" ht="93.6" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" ht="62.4" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" ht="124.8" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="90" ht="140.4" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" ht="93.6" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" ht="140.4" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="94" ht="140.4" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="95" ht="78" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="96" ht="218.4" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="97" ht="62.4" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" ht="265.2" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="100" ht="140.4" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="101" ht="140.4" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" ht="171.6" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="103" ht="156" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="104" ht="156" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" ht="124.8" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="107" ht="93.6" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="108" ht="93.6" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="109" ht="202.8" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="110" ht="109.2" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" ht="93.6" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="113" ht="156" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" ht="156" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="115" ht="124.8" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="116" ht="156" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="117" ht="124.8" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" ht="140.4" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="120" ht="171.6" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121" ht="124.8" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="122" ht="124.8" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="123" ht="78" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" ht="156" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="126" ht="109.2" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="127" ht="171.6" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="128" ht="93.6" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="129" ht="124.8" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="130" ht="124.8" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" ht="109.2" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="133" ht="109.2" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="134" ht="93.6" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="135" ht="62.4" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="136" ht="109.2" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="137" ht="109.2" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="138" ht="46.8" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" ht="109.2" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="141" ht="140.4" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="142" ht="109.2" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/BEC/02-口语相关/口语问题汇总.xlsx
+++ b/BEC/02-口语相关/口语问题汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="657">
   <si>
     <t>question</t>
   </si>
@@ -1478,6 +1478,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Actually, in China, telephone sales is not accepted by the public and is not a popular method of selling products, but in the western world it is a </t>
     </r>
     <r>
@@ -1506,6 +1513,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Well, as a Chinese, I don't feel like this is a good method, since making a phone call to a customer's home directly will allow the customer to feel </t>
     </r>
     <r>
@@ -1574,6 +1588,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When I go shopping, what I really concern about is the price, because I am still a student, and I could survive with </t>
     </r>
     <r>
@@ -1602,6 +1623,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Well, in order to make the company's website more attractive, we should design the </t>
     </r>
     <r>
@@ -1690,6 +1718,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Well, it depends. If we want to attract more customers and secure a large </t>
     </r>
     <r>
@@ -1738,6 +1773,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes, if all people take public transportation, there will be less </t>
     </r>
     <r>
@@ -1806,6 +1848,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes, I think business competition is beneficial for the long-term and healthy development in the </t>
     </r>
     <r>
@@ -1854,6 +1903,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Definitely, to attend meeitngs will enable them to meet more people, including </t>
     </r>
     <r>
@@ -1922,6 +1978,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Well, my name is Li Shanyong. I'm 21 years old. I'm now studying in Dalian Maritime University towards a bachelor degree of arts, majoring in English. I'm very outgoing and </t>
     </r>
     <r>
@@ -1950,6 +2013,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I'd like to </t>
     </r>
     <r>
@@ -2039,6 +2109,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">They're very important. Flowers are perfect gifts to express your wishes to your dear ones. For instance, you can give mom </t>
     </r>
     <r>
@@ -2107,6 +2184,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">In fact, different people hold different attitude towards job-hopping. From my point of view, though sometimes </t>
     </r>
     <r>
@@ -2168,6 +2252,1580 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> from one's colleagues and other factors can count a lot。</t>
+    </r>
+  </si>
+  <si>
+    <t>Which type of film do you like most? Comedy or drama?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I prefer watching comedy. On the one hand, it gives me a break from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tedious(adj.冗长乏味的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> work and relaxes my mind. On the other hand, it will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empower(v.使能够)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> me with good mood and energy for future work. All I need is to lean back and enjoy the shows. So I'd like to watch a comedy.</t>
+    </r>
+  </si>
+  <si>
+    <t>Could you tell me about your reasons for learning English?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actually, there are many reasons for me to lear English. First of all, I am able to approach a wider range of information resources. Moreover, I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sharpen my competitive edge(增强某人竞争力)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in job hunting and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>satisfy my curiosity(满足某人的好奇心)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in western culture. Finally, I can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>broaden my horizon(开阔某人的视野)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> through communication with people from different countries.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you prefer to work in a small team or big team?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I prefer to work in a small team. lt can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">anneal(v.锻炼，磨炼) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">me in every way when the team is small. Additionally, the team members are more likely to trust each other and the atmosphere within the team is much </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cozier(cozy 温馨的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, On the top of that, information is easily shared within a small team.</t>
+    </r>
+  </si>
+  <si>
+    <t>Can you tell me about your activities outside college?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Like many young ladies do, I often go shopping in my spare time. I am also interested in swimming, which I think can reshape my body line. Moreover, I have worked part time for a number of big companies, because I think I can gain some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hands-on experience(实践经验)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in business which is essential for my future career.</t>
+    </r>
+  </si>
+  <si>
+    <t>How can a batance be kept between growth and environmental protection?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, in order to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strike a balance(取得平衡)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between economic growth and environmental protection, the first and foremost thing to do is to strengthen the public awareness of environmental protection. Secondly, some practical measures should be adopted, including implementing rules and regulations regarding the punishment of those enterprises which </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>breach(v.违背)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> environmental protection laws, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subsidising(v.资助，补助)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> those companies which initiate strategies to upgrade their equipment in order to save energy, and encouraging economic entities to produce </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>environment-friendly(adj.有利于环境的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> products.</t>
+    </r>
+  </si>
+  <si>
+    <t>What should the students do during the vacation?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Students might have many choices to spend a vacation as long as they can make the vacation time interesting or helpful. For example, you can visit your families or friends, go to concerts or do many other things for relaxation. You can also plan a trip to the city or somewhere you are longing for, which will help to broaden your view and knowledge Furthermore, you can also choose to have a vacation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>internship(n.实习)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and the experience will increase your income as well as make you familiar with the society. So there is never lack of choices.</t>
+    </r>
+  </si>
+  <si>
+    <t>What is your future objective?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I prefer to be a leader, because l want to implement my dream and i think I can meet the qualities required for a good leader, First of all, a good leader should have the ability of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>team building(团队建设)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and  believe that I can help each individual in the team to perform their best due to my excellent communicating skills. Furthermore, the experience of being a leader will make me more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mature(adj.成熟的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and capable, because I will learn more from the process of planning, organising and solving unexpected events. So, I prefer the position of a leader to a follower.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you prefer to study alone on work assignment from class or to study in group?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I prefer to study in group. Firstly, it's inevitable for each of us to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>encounter(v.遭遇，遇到)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> problems when we study on work assignment At this time, group discussions will be very helpful because we can share our knowledge and learn a lot from others. Furthermore, group members will help you to find out and overcome your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shortcomings(n.缺点)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Besides, group study is also a chance to communicate with others and practice how to express ourselves. So I prefer to study in group.</t>
+    </r>
+  </si>
+  <si>
+    <t>How beneficial do you think it is for a company to regularly recruit new staff?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The involvement of new staff in work will bring new ideas and energy for the existing team, and faced with competitions the existing staff may be pushed to work harder.However, regular recruitment will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>incur(v.招致，引发)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> additional costs and high staff </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>turnover(n.人员流动率)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Socompanies should evaluate the actual need for new staff and shouldn't do recruitmentblindly.</t>
+    </r>
+  </si>
+  <si>
+    <t>What is the significance of career plans? And how to make them?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After a job is offered and accepted, career decisions must be made. A career plan may involve either a series of promotions within one firm or switching to a different firm. While planning a career path is a useful motivator(n.动力，激励因素), the plan should be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>achievable(adj.可完成的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. A preferable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>career path(职业道路)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> would also include short-term goals, since some ultimate goals may take twenty years or longer, The use of short-term goals can reinforce(v.加强，巩固) your confidence as these goals are achieved.</t>
+    </r>
+  </si>
+  <si>
+    <t>Should firms train their employees?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, I think so. By training their employees, firms may be able to increase their profits because trained staff are likely to be more productive and make less mistakes. Employees might also be more motivated to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>undertake(v.从事，承担)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more work, because managers are showing that they value their staff, and this can satisfy their staffs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esteem(n.尊重，自尊)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> needs.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you prefer to visit straightforwardly to the destination or enjoy the scenery along the way while on your vacation?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I prefer to take my time and enjoy the scenery along the way. Firstly, there can be some surprisingly beautiful sights on the way, and I don't want to miss it. lt can be even better than my destination. In addition, trip is a way of relaxation instead of a job. So you don't need to rush yourself, otherwise  may already feel tired when I get to my destination. I'd like to relax from the moment I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set out(出发，开始)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. So, that's my reason for sight-seeing along the way.</t>
+    </r>
+  </si>
+  <si>
+    <t>How do you usually spend your weekends?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>it depends(视情况而定)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. lf weather permits, I will go jogging or go shopping with friends. In contrast, if the weather is bad, I will stay indoors, do </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yoga(n.瑜伽)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or read books. I enjoy doing what I feel like doing and not being </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>restricted by errands(受差事的限制)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>What do you think of your personality?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, I think I am a person with great </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>perseverance(n.坚持不懈，不屈不挠)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, because I would not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yield to(屈服，让步)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> any difficulties or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hardships(n.苦难，困境)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Also, I am an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amiable(adj.和蔼的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> person and I can get along well with everyone around me. I like smiling. My friends always say that my smile can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>infect(v.感染，影响)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> many people.</t>
+    </r>
+  </si>
+  <si>
+    <t>Where is your hometown and describe it?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My hometown is Dalian. lt is well-known across the country, you know. lt is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coastal city(海滨城市)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, so the weather is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mild(adj.温和的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. It's never too hot in summer and never too cold in winter. There are many </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scenic spots(风景名胜)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, such as Xinghai Square, Dalian Shell Museum, Golden Pebble Beach and so on. People there enjoy going to the seashore for fun in their </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spare time(闲暇时间)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Can you tell me something about your friends?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I am very glad to have numerous friends. Most of them are my classmates. We share common interests and we share happiness and bitterness. For me, they like angles around me and always support me no matter what happened. I also learn many things from them, like optimism,self-confidence, diligence and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>willingness to learn(好学上进)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you like English?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes. I'm crazy about English. It attracts me due to the language itself and the culture it represents. I enjoy English movies and songs and often learn English sentences from them, My dream is to speak good English </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It broadens my horizon(开阔视野)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reshape(v.重塑)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> my values. In addition, a good command of English will certainly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sharpen my competitive edge(增强竞争力)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in job hunting.</t>
+    </r>
+  </si>
+  <si>
+    <t>What types of music do you like to listen to?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actually, I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>am</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>picky with(对。。。挑剔)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the genre of music. I love all the songs with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beautiful melodies(优美的旋律)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thoughtful lyrics(动人的歌词)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Nowadays, I prefer to listen to Jazz, because of its special melody. All in all, music enables to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cultivate(v.逐渐形成，培养)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> my artistic taste and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enrich my spiritual world(丰富精神世界)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you enjoy traveling?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Absolutely, I am fond of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adventure(n.冒险)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and exploration. As you know, in China, we have a proverb which goes like this--you can learn more by traveling a thousand miles than by reading a thousand books. So it always gets me to explore different places and experience different cultures and people. I really learn something from all these travels. In the future,l will go to more places that I want in the world.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you like to have flowers in your room?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, I do. Flowers make my home more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>colorful and alive(多彩而由生气的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Everytime I see flowers, I amin a good mood. Moreover, flowers are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decorative(adj.装饰性的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and they </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>send forth fragrance(散发香气)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Fresh flowers can lift my spirits and create a warm atmosphere.</t>
+    </r>
+  </si>
+  <si>
+    <t>What is the importance of teamwork?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Today's society is no longer a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self-sufficient(adj.自给自足的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> one, but the one in which all the people depend on each other for existence. Only for existence, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not to mention(更不用说)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the pursuit and obtainment of happiness, one can't do without the ability to work </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>harmoniously(adv.和蔼地)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with others. In the highly developed society today, one can almost accomplish nothing without joint efforts. What we have got through teamwork is not only self-improvement, personal success but also the satisfaction at both our devotion to common causes and the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sense of collective honour(集体荣誉感)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>How to improve teamwork?</t>
+  </si>
+  <si>
+    <r>
+      <t>Extensive experience(丰富的经验)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and a broad horizon are two important factors in improving teamwork. When encountering problems, inexperienced staff tend to be depressed or even in panic. At this time, experienced team members can be the spiritual leaders of the team and get problems solved soon. You can never predict what kind of problems might suddenly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pop up(出现)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, therefore there should be some staff who are experienced and knowledgeable.</t>
+    </r>
+  </si>
+  <si>
+    <t>What should be a good team ?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mutual trust and friendly atmosphere are important parts in a good team. The leader is not supposed to be too </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>controlling and overbearing(控制欲强的，专横的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but rather patient and be willing to listen to advice from other members. All the other members should be simultaneously </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">obedient(adj.服从的) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and loyal. They work towards a common objective, and talk openly and earnestly. As the old saying goes, they share happiness and hardship.</t>
+    </r>
+  </si>
+  <si>
+    <t>According to your character, what is your role in a team ?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I am a person who always pays attention to details. So I think my role in a team is to strive for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>perfection(n.完美，完善)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and accuracy. For those important and high-demand job requirements,I can play an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>immeasurable(adj.不可估量的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> role.</t>
+    </r>
+  </si>
+  <si>
+    <t>Why do people attend college?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From my point of view, attending college is very important to help people gain success in their careers. Nowadays, attending college is not only a process of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accumulating knowledge(积累知识)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but also the recognition of abilities by the society. Peaple are more likely to make it with a college degree. Furthermore, people will get more opportunities to find a better job and receive a promotion after they attend college, because they have the best </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>matching skills(匹配的技能)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the job than others who haven't attended college.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you prefer to work in the office or at home?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I prefer to work in the office. Firstly, although working at home may be comfortable, it's dificult for me to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fully-devoted(adj.完全投入的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to work. I always want to do other things like watching TV, surfing the Internet or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eating snacks(吃零食)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> during the work time, which is very insufficient. On the other hand, working in the office is more convenient to communicate with colleagues and solve problems sufficiently and quickly.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you agree or disagree: Students should wear uniform in school ?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I don't think students should wear uniform in school. For one thing, wearing uniform doesn't mean a better performance in school: In contrast, it doesn't matter what students wear as long as they ar doing fine. For another, students should be encouraged to express themselves and develop their personalities. Schools can forbid students to wear some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inappropriate(adj.不合适的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clothes. But asking them to wear the same uniform may not have a positive impact on their </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>psychology(n.心理)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you agree or disagree:“The most important lesson can't be learned in class”?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can't agree more. As the old saying goes, you can learn more by traveling a thousand miles than by reading a thousand books. So, to some extent, practical experience is more important. Practice is the only </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>criteria(n.标准)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of truth. What you have learned in class is very limited and even false sometimes, so you shouldn't be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>superstitious(adj.迷信的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> about textbooks but focusing on practice.</t>
     </r>
   </si>
   <si>
@@ -4020,6 +5678,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">There are key points to keep in mind when communicating with foreign clients for the first time. First, because the majority of overseas clients tend to </t>
     </r>
     <r>
@@ -4095,6 +5760,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">In general, when gaining office equipment, either to buy or to rent has its advantages. Nevertheless, </t>
     </r>
     <r>
@@ -4210,6 +5882,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When aiming to increase staff productivity, several factors are taken into consideration, </t>
     </r>
     <r>
@@ -4311,6 +5990,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Generally speaking, when it comes to aiming to keep good staff, there are several factors that are needed to take into consideration.
     The promotion opportunities would be thought about for an ambitious employee, since </t>
     </r>
@@ -4387,6 +6073,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">There are many factors to organising a conference.
     One of the key secrets to organising a conference is to invite motivational speakers to do conference presentations. Excellent speakers </t>
     </r>
@@ -4456,6 +6149,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you choose topic C: What is important when producing a marketing plan?
 </t>
     </r>
@@ -4486,6 +6186,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Producing a reasonable and effective marketing plan could </t>
     </r>
     <r>
@@ -4560,6 +6267,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you choose topic A: What is important when planning a presentation?
 </t>
     </r>
@@ -4590,6 +6304,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When planning a presentation, several factors should be taken into consideration.
     Firstly, you need to know who is going to be the target audience. You also need to know whether the audiences know anything about the topic of your presentation, what they are interested in, and why they come to your presentation, Once you have found out something about the target audience, you need to keep their interests and needs in mind so as to make your presentation interesting and meaningful for the target audience.
     Secondly, you need to decide what kind of equipment will be needed for the presentation, like </t>
@@ -4658,6 +6379,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">lf you choose topic B: What is important when selecting an interpreter for a meeting with foreign clients?
 </t>
     </r>
@@ -4688,6 +6416,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Well, when selecting an interpreter for a meeting with foreign clients, first of all, youneed to select an interpreter who is experienced in interpreting for such meetings, after all.interpretation is a skilled job which calls for a great deal of practice. The interpreter should have a wide knowledge about business management and be familiar with the specialterms and </t>
     </r>
     <r>
@@ -4783,6 +6518,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When introducing a new product range onto the market, in the first place, the introduction should be made at an appropriate time, i.e., when the market is matured for having this new product range, in other words, there will be prospective customers to buy the products. If there are any competitors who are planning to introduce similar products onto the market, then it is necessary that the introduction should be made ahead of their introduction so as to grab much </t>
     </r>
     <r>
@@ -4849,6 +6591,1658 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> quickly, and then won a good public praise in the industry.</t>
+    </r>
+  </si>
+  <si>
+    <t>A.在改善职业规划时，什么是重要的？
+B.在决定如何运输货物时，什么是重要的？
+C.在购买新机器时，什么是重要的？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you choose topic A: What is important when aiming to improve career prospects?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Reading business articles(阅读商务文章)
+2.Learning a foreign language(学习一门外语)
+3.Attending training class(参加培训课程)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When aiming to improve career prospects, I would take three factors into consideration, namely, reading business articles, learning a foreign language and attending training class.
+    Firstly, reading business articles is very important when trying to improve career prospects. This is a good way for you to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keep up with(赶得上)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the latest development in related field which may give you a clue of what to do next.
+    Secondly, learning a foreign language is also important. For instance, if you are good at speaking English, that would </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add weight to(增强优势，进一步证明)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the improvement of career prospects since the globalization economy and the wide-spread international corporation all needs the bridge of a common language, and English is one of the most widely used languages.
+    Thirdly, training is another factor to consider. By doing so, you get access to a range of skills to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meet different sort of needs(满足不同种类的需求)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from different jobs.
+    Thus, these are the factors I need to consider when aiming to improve career prospects.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you choose topic B: What is important when deciding how to transport goods?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Destination(目的地)
+2.Speed(速度)
+3.Delivery and loading/unloading(发货和装卸)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When deciding how to transport goods, we need to consider three factors. The first one is destination, which enables us to adopt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diverse(adj.多种多样的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ways to transport goods according to different distance of the delivery.
+    Secondly, speed needs to be considered, too. The more prompt the delivery is, the faster turnover will be. All in all, speed has great impact on the company.
+    Thirdly, we cannot </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overlook(v.忽视)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> delivery and loading, which matters to safety of the goods. If the goods are not taken good care of, damages may occur to the process of loading and unloading. Moreover, if the percentage of the damaged portion is too high, the company will suffer from huge losses.
+    Therefore, we need to consider every detail when transporting goods.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lf you choose topic C: What is important when purchasing new machinery?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Level of automation(自动化水平)
+2.Maintenance requirement(维修要求)
+3.Safety(安全)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When purchasing new machinery for production line, the primary consideration should be the level of automation. The main purpose for us to buy machinery is to save labour, raise efficiency and improve productivity. So we must know if the machine is fully automatic and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>computerised(adj.电脑化的，计算机化的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+    Another important factor to take into consideration is the maintenance requirement which matters the cost of our company. We should be clearly aware of who is responsible for the maintenance of the machine in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>payment terms(支付条款)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+    Also safety plays an important role in the choice. We should take it seriously and protect our workers because there were some accidents like workers got caught in the blade of the machinery. So, I think we are supposed to consider these elements above when buying new machinery.</t>
+    </r>
+  </si>
+  <si>
+    <t>A.在挑选零售销售助理时，什么是重要的？
+B.在通过电话联系客户时，什么是重要的？
+C.在管理变革时，什么是重要的？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you choose topic A: What is important when selecting a retail sales assistant?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Previous experience(以往的经验)
+2.Appearance(外在形象)
+3.Communicationg skills(沟通能力)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When it comes to selecting a retail sales assistant, we should consider such factors as previous experience, appearance and communicating skills.
+    The most important factor to consider is the assistants' former working experience. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Extensive(adj.广泛的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> working experience can enable the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">newly recruited worker(新招进来的员工) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to be quickly put in the picture. What's more, an experienced worker will save training expenses and work more efficiently.
+    Secondly, the assistants' appearances are equally important. A good appearance can make the publicity of the company better and easier, moreover, customers will be deeply impressed by a decent and neatly dressed sales assistant.
+    Another important factor to consider is the communicating skills. They can achieve a good performance with good communicating skills.
+    To sum up, the assistants' previous experience, appearance and communicating skills are the most important factors to be taken into account when we are selecting a retail salesassistant.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you choose topic B: What is important when contacting clients by telephone?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Calling at the right time(在合适的时间通话)
+2.Listening carefully(认真聆听)
+3.Focusing details(注重细节)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When contacting clients by telephone, we should consider three factors, including calling at the right time, listening carefully and focusing details.
+    Firstly, we should not underestimate the importance of calling at the right time. lt matters politeness and good impression on us. Don't disturb or annoy our clients when they are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the middle of(忙于做某事)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> something.
+    Then, we should listen carefully, be a good listener and respect our clients. Don't cut in or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chatter without stop(喋喋不休)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+    Apart from that, the details should not be neglected either. Details refer to something we should pay attention to when we discuss and talk with your client. We often say the details determine whether you will succeed or not. Focusing details can help us solve problems effectively and remain a healthy collaboration with clients.
+    In conclusion, such factors as calling at the right time, listening carefully and details should be considered when contacting clients by telephone.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you choose topic C; What is important when managing change?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Clear objective(明确的目标)
+2.Communication(沟通)
+3.Technology and qualified personnel(技术和合格的人员)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, as I see it, several things are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prerequisites(n.必要条件)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for managing change.
+    To begin with, clear objectives would be useful. Clear objective is an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indispensible(adj.必不可少的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> guide  of a company's future development. One will get lost in the business jungle without a clear objective.
+    Secondly, communication is not a minor consideration either. Communication promotes cooperation and benefits administration. It plays an important part in managing change.
+    In the third place, technology and qualified personnel are also important in that it provides company with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>core competitiveness(核心竞争力)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Innovative technology enables company to stand out from the crowd, while qualified, as precious assets for a company, can devote themselves to make the company stronger. Without them, it is hard to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keep pace with the time(与时俱进)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+    Taking all the factors into consideration, we can conclude that clear objectives, communication and technology and qualified personnel are very important when managing change.</t>
+    </r>
+  </si>
+  <si>
+    <t>A.在创建员工食堂时，什么是重要的？
+B.在工作中充当教师的角色时，什么是重要的？
+C.与顾客进行合同谈判时，什么是重要的？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you choose topic A: What is important when considering setting up a staff canteen?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Employee's opinions(员工的意见)
+2.Cost to the company(公司的成本)
+3.Food price(菜品价格)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think there are three points to consider when considering setting up a staff canteen.
+    First of all, I think we should listen to the employees' opinions. We should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spare no effort(不遗余力)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to meet the needs of the employees. Facilitating employees will finally benefit the company. To consider their opinions is to respect their interests.
+    Secondly, it is necessary for the company to consider the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expenditure(n.支出，花费)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of setting up a new canteen, because the company needs funds to keep the company alive and growing. The company can also strive for investment from others. Thus, make sure setting up the canteen is beneficial to employees and company.
+    Food price in the canteen is also of great importance. Make sure that the food price in the company's canteen lower than food outside. If the food price in the company's canteen is too high, employees will not take meals in the company's canteen, Instead, they will complain about the company.
+    All in all, we should consider these three factors when considering setting up a staff canteen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you choose topic B: What is important when working as a teacher?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Sharing expertise(分享专长)
+2.Deciding responsibilities(明确职责)
+3.Monitoring students(督导学生)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think working as a teacher requires the following three points: sharing expertise, deciding responsibilities and monitoring the students.
+    Firstly, we should not underestimate the importance of sharing expertise. The role of a teacher is to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>impart(v.传授)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> knowledge and instruction to his/her students. The process of sharing expertise for teachers is also the process of learning knowledge and gaining experience for students. The students can be able to resort to the professional skills of the teacher for reasonable solution of whatever problem they may come across in working experience.
+    What is equally important is deciding responsibilities. The person on the teaching position should be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crystal clear(极其明白，十分清楚)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the strength and weakness of students, which can put students in the right positions. They are supposed to give impartial judgments and assign each one's work appropriately. Therefore, as a teacher, one is expected to decide
+responsibilities for his/her students.
+    In the third place, monitoring students is no small factor either, It is teacher's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vocation(n.天职)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to improve students' behaviour pattern, It is important for students to be supervised by the teacher when they are working.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if vou choose topic C: What is important when negotiating a contract with a customer?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Customer needs(顾客的需求)
+2.Available budget(可用预算)
+3.Long-term cooperation(长期合作)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer needs, available budget and long-term cooperation have to be taken into consideration with regard to negotiating a contract with a customer.
+    To begin with, customer needs are the basic elements for establishing cooperative relationship. lt determines the existence of the cooperation and negotiation, As a mattel of fact, we are sitting around the negotiating table because we need something from each other.
+    In the second place, available budget can make it possible to come to the following steps, such as reasonable design of the contract, specific terms and so on. We can't discuss and bargain with each other without financial support.
+    What's more, long-term cooperation should also be considered. In order to protect profits and grow the business, we'd better pursue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sustainable(adj.可持续的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> development and win-win outcome. After all, a deal is only good if it is beneficial for both parties. Long-term cooperatioris an essential element for any company when negotiating a contract.
+    So a company should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comprehensively(adv.全面地，综合地)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> consider customer needs, available budget and long-term cooperation when negotiating a contract with a customer.</t>
+    </r>
+  </si>
+  <si>
+    <t>A.写关于职位空缺的报纸广告时，什么是重要的？
+B.选拔员工进行进一步培训时，什么是重要的？
+C.计划商务宴请时，什么是重要的？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you choose topic A: Waht is important when writing a newspaper advertisement for a job vacancy?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer Cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.description of the work(工作描述)
+2.experience needed by  applicants(申请人所需的经验)
+3.remuneration package(薪资福利)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A good job newspaper advertisement should be effective and clear to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>job seekers(求职者)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. It should include some points that candidates are really concerned about.
+    In the first place, a detailed description of the work is supposed to be on the advertisement, including tasks, responsibilities, work environment and so on.
+    Then, list all the qualifications needed by the applicants-from hard skills to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soft skills(软性技巧)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, such as the academic background, social experience, work experience, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>team spirit(团队精神)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, computer skills, communication skills and others.
+    Moreover, job seekers always attach great importance to the salary and benefits.
+    However, most companies do not put the specific information on the advertisement but list a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>salary range(工资幅度)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Nowadays, many candidates pay close attention on benefits, like insurance, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>housing fund(公积金)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>annual leave(年假)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>staff discount(内部折扣)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Therefore, it is a sensible choice to list all these aspects to attract people.
+    Then, on the bottom of the newspaper, be sure to put </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contact details(联系方式)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on it like telephone number, email fax or address.
+    All in all, the newspaper advertisement should be clear and attractive to the target audience.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lf you choose topic B: What is important when selecting employees for further training?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.commitment to company(对公司的贡献)
+2.previous training(以前的培训)
+3.personal skills(个人技能)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Almost all the companies offer training courses to their staff to improve their skills and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>performances(n.业绩，表现)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, more importantly, to benefit the company itself. There are many elements for the company when selecting employees for further training.
+    First of all, it is important to choose a person with great </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dedication(n.贡献)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the company in that training is an investment. Companies think highly of whether this investment can get a return and, in turn, be good for itself.
+    Secondly, when selecting, previous training plays a really important role, because it provides references for the company to decide which aspect should be improved for the staff and make a development plan.
+    Moreover, assessing personal skills is of importance, too. Companies find the weakness through this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assessment(n.评估)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and get to know whether it is good for employees to have further training. And then, it also makes employees have a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comprehensive development(全面发展)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+    In conclusion, all the above I mentioned are wise methods for a company when selecting a person to get further training.</t>
+    </r>
+  </si>
+  <si>
+    <t>A.在设计接待处时，什么是重要的？
+B.在组织会议时，什么是重要的？
+C.为产品的开发制订预算时，什么是重要的？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lf you choose topic A: What is important when designing a reception area?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. company image(公司形象)
+2.security(安全)
+3.service attitude(服务态度)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A reception area plays an increasingly important role in communication exchanges. Therefore, at present, a growing number of companies pay high attention to it.
+    Reception work is not only a bridge between the company and clients, but also an important window showing the corporate image. In modern society, reception work is not simply meeting and seeing off, but a comprehensive work. It directly reflects the company'soverall image.
+    There are many valuable guests and clients in the reception area, so that we cannot ignore the security. Ensuring security should be a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>priority(n.优先，优先考虑的事)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for all.
+    Moreover, service attitudes are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indispensable(adj.绝对必要的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to a reception area. The reception staff issupposed to greet politely, service respectfully and work enthusiastically. They are ready to give the best customer experience ever.
+    Besides, various factors such as consultation skills and file handling are also crucial tothe reception area The companies who build a good reception area are sensible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lf you choose topic B: What is important when organising a conference?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.conference speakers(会议报告人)
+2.facilities at conference center(会场的设备)
+3.procedures and time allocation(流程和时间的分配)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are many keys to organising a conference
+    One of the key secrets to organising conferences is to invite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>motivational(adj.激励的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> speakers to do conference presentations. Good speakers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tend to(趋向，偏重)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attract audience and create an active atmosphere, which has a positive effect on the audience. They encourage people and inspire attendees.
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manpower(n.人力，人力资源)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and material resources function together as a good conference. So besides the speaker, facilities at a conference center also exert a huge effect. For example, the microphone must be tested in advance to ensure that attendees throughout the room. can hear what the speaker is saying. Likely, PPT must be checked before the speaker starts his presentation.
+    Procedures and time allocation determine whether the conference can proceed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as scheduled(如期进行)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Right procedures can ensure the whole conference runs in an orderly way, while time allocation will achieve the conference goals effectively.
+    In conclusion, organising a conference should take all of these factors into consideration and then achieve success.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if you choose topic C: What is important when setting a budget for developing a product?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.predicted sales(预计销售量)
+2.quality of product(产品质量)
+3.equipment costs(仪器设备费用)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For developing a product, companies will set a budget in the first place. An effective budget is the result of a careful examination of what the likely income and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expenditure(n.支出，花费)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will bein a company.
+    When setting a budget, we should not underestimate the importance of predicted sales. The amount of sales determines the costs for investing in new products.
+    What is equally important is quality of product. Production costs are restrained by the quality of product. If the company wants to produce high standard quality of products, they will spend more money. Therefore, in no case can we ignore the quality of products.
+    Apart form that,equipment costs should not be neglected. Production equipments are needed when developing a product and the cost is huge to some extent So many companies take them into consideration.
+These factors I mentioned above are essential for a company when setting a budget for developing a product.</t>
+    </r>
+  </si>
+  <si>
+    <t>A.在决定是否要参加贸易博览会时，什么是重要的？
+B.在选择广告公司时，什么是重要的？
+C.在制订市场营销计划时，什么是重要的？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you choose topic A: Waht is important when  deciding whether to visit a trade fair?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer Cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.type of products displayed(展览商品的种类)
+2.number of exhibitors(参展商的数量)
+3.location(地点)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A trade fair is an exhibition in which companies in a specific industry can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>showcase(v.展示，陈列)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and demonstrate their latest products, services, and then study rivals' activities, the market trends and opportunities. When deciding whether to visit a trade fair, you should consider some things as follows.
+    To begin with, you should take the type of products into consideration. There are a variety of goods displayed in the exhibition, so it is very important for you to figure out if there are some valuable and useful goods, because your aim to visit is to find products which are beneficial to your company.
+    Beyond that, it is also vital to consider the number of exhibitors. There is no point in visiting a trade fair if there are a few exhibitors in that it is unlikely for us to find </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cooperative partners(合作伙伴)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+    Thirdly, location cannot be overlooked, either. If the exhibition's location is far away companies should consider the cost issue, like airline tickets, accommodation and so on.
+    Therefore, many things need to be considered when deciding whether to visit a trade fair.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you choose topic B: What is important when selecting an advertising agency?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.agency fee(广告费)
+2.agency staff(广告人员)
+3.previous cases(以往案例)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When it comes to selecting an advertising agency, a company can view things from many different perspectives.
+    Firstly, they should pay attention to agency fees. Generally speaking, many companies are likely to find some cost-effective agencies. The ideal and popular advertising agencies have to offer the best services and the most reasonable prices.
+    In the second place, they should consider agency staff, too. Apart from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first-class service(一流的服务)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and standard management, a suitable advertising agency should have outstanding staff, which are more collaborative and efficient. Staff can keep commercial secrets and be reliable long-term partners. The core staff should have strong leadership capabilities and an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overall viewpoint(全局观念)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+    Finally, previous cases are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indispensable(adj.不可或缺的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The company can assess an advertising agency from its previous cases and decide whether it has a sense of responsibility. In addition, they can draw conclusions from the duration of cooperation and team work efficiency from the previous cases.
+    It is sensible for a company to consider these factors all the above when they choose anadvertising agency.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lf you choose topic C; What is important when producing a marketing plan?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Answer cues:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.identifying target customers(确定目标客户)
+2.setting a budget(制订预算开支)
+3.marketing strategies(市场战略)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Producing an effective marketing plan can attract your potential customers, which is therefore very important.
+    The first step is to identify target customers, which is helpful for you to define the needs of the market your products or services satisfy and set a specific goal for your plan.
+    A second thing to consider is the budget, which means you have to count spending for your objective. Then, make all of the data into one comprehensive document with tables and graphs. It is beneficial to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>capital turnover(资金周转)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and balance your budget.
+    Next, we should consider marketing strategies like pricing, distribution, promotion, advertising campaign and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>market segmentation(市场细分，市场划分)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Effective and action-oriented marketing strategies are the key to becoming successful.
+    All in all, these factors cannot be neglected when producing a marketing plan for acompany.</t>
     </r>
   </si>
   <si>
@@ -6075,6 +9469,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A company can minimise the demand for travelling to meetings by email. </t>
     </r>
     <r>
@@ -6123,6 +9524,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">As far as I am concerned, travelling to meetings would not necessarily consume a large deal of time as most people estimate since several fast means of transportation created by advanced technologies, like </t>
     </r>
     <r>
@@ -6151,6 +9559,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">In my opinion, business travel is beneficial to widen staffs outlook and </t>
     </r>
     <r>
@@ -6179,6 +9594,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes. Recently, the amount of business has dropped with the arrival of modern technologies, because various ways to communicate, such as emails and skype, are available for people to use. People cannot afford frequent business travel owing to limited time. As a result, they attempt </t>
     </r>
     <r>
@@ -6207,6 +9629,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes, I do. I think video conferencing will play an important role in the future because numerous multinational companies in the world do need it. In addition, more and more </t>
     </r>
     <r>
@@ -6267,6 +9696,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">B: Actually I have heard of this. Who would attend the seminars? I think we should make </t>
     </r>
     <r>
@@ -6298,6 +9734,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A: Yes, the topics proposed involve many aspects, ranging from essential qualifications required by big companies, </t>
     </r>
     <r>
@@ -6329,6 +9772,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">B: By the way, at the end of the seminars, </t>
     </r>
     <r>
@@ -6357,6 +9807,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Facilities at a conference center also </t>
     </r>
     <r>
@@ -6411,6 +9868,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">It is more helpful if students receive advice from a company at the beginning of a course, because based on the suggestions a student could </t>
     </r>
     <r>
@@ -6459,6 +9923,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Students could look up more practical information using the Internet. And they can ask advise from the friends who have </t>
     </r>
     <r>
@@ -6507,6 +9978,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When it comes to the sector, I prefer to be more experienced. I would like to be more interested in </t>
     </r>
     <r>
@@ -6535,6 +10013,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Through the introduction of work experience, </t>
     </r>
     <r>
@@ -6584,6 +10069,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>销售经理会议</t>
     </r>
     <r>
@@ -6604,6 +10097,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A: Do we need to send materials associated with sales managers conference to all the </t>
     </r>
     <r>
@@ -6629,6 +10129,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">B: From my perspective, all the documents related to the conference should be sent. Going through the documents in advance would allow the delegates to prepare the conference well. Conference delegates would get access to the objectives of the conference, procedure instructions, accommodation arrangements, </t>
     </r>
     <r>
@@ -6654,6 +10161,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A: We could ask the sales managers to read business articles used for discussion in the conference or analyse current situation as for recent sales performance. Proposals concerning boosting </t>
     </r>
     <r>
@@ -6697,6 +10211,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes, it would be beneficial in many aspects. On one hand, to establish a </t>
     </r>
     <r>
@@ -6745,6 +10266,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">It depends on the location where the conference </t>
     </r>
     <r>
@@ -6779,6 +10307,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Definitely, no one could </t>
     </r>
     <r>
@@ -6807,6 +10342,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">In spite of </t>
     </r>
     <r>
@@ -6855,6 +10397,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">To launch entertaining activities regularly is also an effective </t>
     </r>
     <r>
@@ -6911,6 +10460,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A: Recently, our company launched new products, so we have to make space in warehouseto stock these products. That means we have to make a plan to dispose the old stock which has been just </t>
     </r>
     <r>
@@ -6969,6 +10525,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes, it is a good way adopted by many retailers or supermarkets. Given bigger discounts.people are more likely to buy things. Facts proved that discounts </t>
     </r>
     <r>
@@ -6997,6 +10560,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">There are many ways to get rid of unwanted stock. Despite discount, companies can dispose them as </t>
     </r>
     <r>
@@ -7045,6 +10615,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">it causes some </t>
     </r>
     <r>
@@ -7086,6 +10663,1410 @@
         <scheme val="minor"/>
       </rPr>
       <t>marketing plans.</t>
+    </r>
+  </si>
+  <si>
+    <t>How do you think companies could plan their stock requirements more accurately?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Companies can set up a stock requirement system to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>monitor(监控)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the latest conditions and ensure the accuracy and completeness of the-relevant stock information. What's more, they need to appoint a key person to supervise the whole process and reflect the inventory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in a timely manner(及时地)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Why do you think it can be difficult to sell stock sometimes?</t>
+  </si>
+  <si>
+    <t>Most of the time, stock goods have gone out of fashion in that fashion changes quickly, Some people would rather pay more to fashionable ones than the old-fashioned, especially the young. Moreover, stock goods sometimes have quality problems so as to have difficulty in selling.</t>
+  </si>
+  <si>
+    <t>How do you think discounting could affect a company's image?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I don't think discounting can affect a company's image. Offering discounts is just a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>marketing tool(营销手段)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that many companies often do. On the contrary, discounting can boost popularity quickly and to some extent extend market share.</t>
+    </r>
+  </si>
+  <si>
+    <t>话题十二：
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。</t>
+  </si>
+  <si>
+    <r>
+      <t>推出一款新车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+你所就职的汽车生产商计划生产一款新车，目标人群在18-25岁的消费人群。
+你需要对此提出建议。
+讨论并决定：
+1.对于目标人群来说，汽车的何种性能可能是重要的。
+2.在广告宣传中应以何种形式呈现这款车。</t>
+    </r>
+  </si>
+  <si>
+    <t>A: Have you heard that? Our company is planning to launch a new model. And the target consumers are aged between 18 to 25 years old, Now, we are supposed to discuss how to market it and which features can attract those customers. What do you think of this?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Um...From my point of view, because it targets the young consumers, we should pay more attention to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outward appearance(外观)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the model. You know, young people often like goods with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modernised outfits(现代化装备)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and good-looking appearance.</t>
+    </r>
+  </si>
+  <si>
+    <t>A: You are right. Besides that, I think young people also prefer to multifunctional model, like watching TV, playing music, even cooking in the car, So we can also add some other equipment to satisfy their different needs.</t>
+  </si>
+  <si>
+    <t>B: Yes! But our competitors also launched new models recently, so we are supposed to do the advertising campaign against them.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Since the consumers are very young, we should invite pop stars or famous actors to present the model, which will cause an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overwhelming(adj.压倒性的，势不可挡的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stir in the world.</t>
+    </r>
+  </si>
+  <si>
+    <t>B: I agree with that“Star effect” will work. Advertising will boost our product image, so we need to take advantage of that timing.</t>
+  </si>
+  <si>
+    <t>A:  You know sales increase after our advertising, so we are likely to increase our total profit through slashing our price a little bit.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Good idea, our sales are certain to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shot up(激增，上涨)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>A: Moreover, We can advertise our products through internet and text message, instead of trade affairs. Because the young can not live without computers and cell phones, they can easily get our message.</t>
+  </si>
+  <si>
+    <t>B: OK, let's go and make a plan for it.</t>
+  </si>
+  <si>
+    <t>If you were buying a car, which features would most influence you?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think the most important feature for a car is safety, especially after the frequent </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>occurrence(n.发生，出现)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of traffic accident. So the car should be equipped with flexible and sensitivesafety devices.</t>
+    </r>
+  </si>
+  <si>
+    <t>Apart from the age of target consumers, what might influence companies when pricing new products?</t>
+  </si>
+  <si>
+    <t>The first thing is production costs. For example, prices should cover the costs, such as insurance, raw materials,rent and equipment. Secondly, competitors' price should be considered, too. Then, when demand is strong, we can set high price; when demand isweak, we can set lower price. Moreover, quality is another factor to influence price.</t>
+  </si>
+  <si>
+    <t>How easily influenced do you think consumers are by advertising campaigns?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Consumers can be easily influenced by advertising campaigns, especially when there are some famous people. After all, people </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tend to(往往，常常)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> buy things that are used by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>celebrities(n.名人)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Why might it be necessary for companies to introduce new products regularly?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it is necessary for companies to introduce new products regularly because it can communicate to consumers that you' are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keeping pace with the times(与时俱进)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Moreover, it indicates your company is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>innovative-oriented(adj.以创新为导向的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think timing is mportant when launching new products?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, it's very important.The good season gives a company opportunity to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boost sales(增加销售额)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and establish its </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>brand image(品牌形象)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and then become more popular in the public.</t>
+    </r>
+  </si>
+  <si>
+    <t>Why do you think companies decide to stop making a product?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, maybe the company suffers from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cash-flow problems(资金周转问题)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or creative issues. So they don't have enough money to develop and produce new products.</t>
+    </r>
+  </si>
+  <si>
+    <t>话题十三：
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。</t>
+  </si>
+  <si>
+    <t>做演示
+你所就职公司的总经理非常关心员工们在内部和外部会议上所做的演示的质量。
+你被要求组织一些关于演示的员工培训。
+讨论并决定：
+1.哪些类型的员工最能够从培训中收益。
+2.如何确定培训是否取得了成功。</t>
+  </si>
+  <si>
+    <t>A: Recently, our company has performed satisfactorily and we are searching for new business opportunities in Japanese and Korean markets. Hence, we need more marketing staff to give presentations of our products. Our managing director attaches great importance to the quality of these presentations. So now, we need to discuss how to plan for successful- business presentations.</t>
+  </si>
+  <si>
+    <t>B: It is urgent, so we have to make a tentative plan for business presentation. Firstly, we need to figure out which staff would benefit most from this training and then let them do first.</t>
+  </si>
+  <si>
+    <t>A: Well, I think staff from marketing department should be trained firstly, because they do business presentation quite often, it can help them a lot.</t>
+  </si>
+  <si>
+    <t>B: Good idea! Now here's another question, how to decide whether the training has been successful?</t>
+  </si>
+  <si>
+    <t>A: You mean the evaluation of the training? OK, let me think. From my point of view, it can be confirmed by the feedback of the staff.</t>
+  </si>
+  <si>
+    <t>B: Great. Because the staff from the marketing department will attend the training first, we can collect feedback from them. Right?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Yes. If they </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>speak highly of(赞扬)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the training and give us a positive feedback, then it means a lot.</t>
+    </r>
+  </si>
+  <si>
+    <t>B: OK, now our job is to find some professors or training groups to do presentation training for our company's staff.</t>
+  </si>
+  <si>
+    <t>A: l agree. I hope that this training will really promote the quality of presentations for staff.</t>
+  </si>
+  <si>
+    <t>B: Sure, now let's go and do it.</t>
+  </si>
+  <si>
+    <t>How useful do you think it is for staff to be trained in giving presentations?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We give presentations when we need to present ideas or information of our products to other people. The information and ideas should always be presented in a clear and structured way so that it is easy for the listeners to understand. So I think it's a wise choice to give staff presentation training. To some extent, it can improve </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product awareness(产品知名度)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and enhance corporate image. lt benefits the company itself a lot.</t>
+    </r>
+  </si>
+  <si>
+    <t>What do you think makes a successful presentation?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Firstly, make clear of your objective for this presentation and who your audience is. This will influence the language you use in your presentation and what you say.
+    Secondly, preparation and planning are essential. lf you have prepared properly, you will feel more confident and the audience will be able to relax and take in the information.
+    Then, as a presenter, you must also think about the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>venue(n.地点)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that you'll be presenting in.
+    Finally, you should also think about the equipment that will be available to you.</t>
+    </r>
+  </si>
+  <si>
+    <t>Would you like to have some training in giving presentations?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I would like to have some training in giving presentations. I will learn a lot from this training, for example, using proper </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visual aids(直观教育，视觉教育)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>easy-to-understand(adj.通俗易懂)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> language to the group you are presenting to. All of these can correct my mistakes and train me in a scientific and reasonable way.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think it's useful to watch other people giving presentations?</t>
+  </si>
+  <si>
+    <t>Yes, I think it's useful to watch other's presentations. We can learn some merits and lessons simultaneously from it.</t>
+  </si>
+  <si>
+    <t>What other ways of communicating new information to customers and staff might be effective?</t>
+  </si>
+  <si>
+    <t>I think there are many ways that can communicate new information to customers and staff, such as email, advertising campaign, newspapers and so on.</t>
+  </si>
+  <si>
+    <t>话题十四：
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。</t>
+  </si>
+  <si>
+    <t>商务代表团
+你所就职的公司考虑派一个代表团去一个国家，到那里开发潜在的新市场。
+你被要求协助策划这场旅行。
+讨论并决定：
+1.此行的好处和坏处
+2.员工在出发前需要了解该国的哪些信息</t>
+  </si>
+  <si>
+    <t>A: You know our company is going to send a trade delegation to America?</t>
+  </si>
+  <si>
+    <t>B: Yeah, I was told that a week ago. lt is said that they are going abroad to develop the potential market there.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Nowadays, our major competitors are gradually </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invading into(进入，侵入)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the foreign market, which causes our company anxiety. Something should be done as a leading company in this field.</t>
+    </r>
+  </si>
+  <si>
+    <t>B: So what's your opinion about sending staff on the trip? I mean the advantages.</t>
+  </si>
+  <si>
+    <t>A: Well, we can take advantage of this trip to examine recent market trends and opportunities in the world. It is a perfect way to broaden our horizon.</t>
+  </si>
+  <si>
+    <t>B: Definitely. I believe the advantage outweighs the disadvantage. Now we are supposed to know more information about doing business and market our products If we really find potential markets, our distribution channel will be expanded. Maybe we'll expand our company in America and set up many new factories in the future.</t>
+  </si>
+  <si>
+    <t>A: Good, but if we can't seek potential markets, we will lose our money like various kinds of expenses.</t>
+  </si>
+  <si>
+    <t>B: Yeah. So now we'd better think about what kinds of information about doing business in the country the staff need to know before the trip.</t>
+  </si>
+  <si>
+    <t>A: OK, let's make a list. Firstly, I think the delegation member must have a good command of English and local business manners.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: You are saying what I am thinking about. We really need some members who have good communication skills. And for the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etiquette(n.礼节，礼仪)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, we should focus on American traditions that do not coincide with us. We are trying to give them a good impression.</t>
+    </r>
+  </si>
+  <si>
+    <t>A: Moreover, we should make staff clear about the goal of this mission and get them fully prepared.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Good idea. And a well-planned itinerary is needed, too. Business travel abroadis especially troublesome, because it involves </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numerous(adj.大量的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> considerations, such as accommodation, ticketing, board, adverse weather conditions, unaccustomed food, and even cultural differences. So we should prepare very well in advance.</t>
+    </r>
+  </si>
+  <si>
+    <t>A: I totally agree with you.</t>
+  </si>
+  <si>
+    <t>What other plans for the trip would it be necessary to make in advance?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We should plan the accommodation, food, appointment and so on. Two or three definite appointments, confirmed well in advance and spaced comfortably throughout a day, are more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>productive(adj.富有成效的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and enjoyable than crowded agenda that forces the businessperson to rush from one meeting to the next.</t>
+    </r>
+  </si>
+  <si>
+    <t>What follow-up steps do you think companies should take on returning from a trade delegation?</t>
+  </si>
+  <si>
+    <t>After the trade delegation comes back, the company may set up a team to present and sort out the data and research results, then evaluate the advantages and disadvantages of the market. Finally, they will determine which market is beneficial to our company.</t>
+  </si>
+  <si>
+    <t>If you were offered a place on a trade delegation, would you accept it?</t>
+  </si>
+  <si>
+    <t>Yes, I will accept it. Now trade delegation is on the rise especially with foreign business markets opening up. A company. can grasp the market trends and gain benefits from it.
+So as a member of the company, I will do anything that brings our company benefits.</t>
+  </si>
+  <si>
+    <t>What do you think is the best way to give a good impression of a company when doing business abroad?</t>
+  </si>
+  <si>
+    <t>In my opinion, truthfulness is the best way to give a good impression of a company when doing business abroad. We should be truthful in introducing our products or establishing cooperative relationship with foreign companies, and finally, let them trust us.</t>
+  </si>
+  <si>
+    <t>Why do you think companies sometimes use sales agents to sell their products in other countries?</t>
+  </si>
+  <si>
+    <t>Firstly, I think companies using sales agents are just for convenience and lower costs.
+Moreover, it is good for company image and short-term investment.</t>
+  </si>
+  <si>
+    <t>How important would it be to speak the language of the country that a trade delegation is visiting?</t>
+  </si>
+  <si>
+    <t>Speaking local language can improve communication and cooperation. lf these companies want to continue to achieve success on the international trading circuit, they must be prepared to adapt to situations and speak the local language. lf not, someone else will.</t>
+  </si>
+  <si>
+    <t>话题十五：
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。</t>
+  </si>
+  <si>
+    <r>
+      <t>差旅费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+你所就职的公司意图减少海外商务旅行的开支。
+要求你对此提出建议。
+讨论并决定：
+1.如何减少商务旅行的总次数
+2.如何降低一些旅行的成本费用</t>
+    </r>
+  </si>
+  <si>
+    <t>A: Nowadays, many companies invested a lot in employees' business trips abroad. Gradually, they are truly overloaded by that. Consequently, an increasing number of companies are seeking ways to reduce the number of business trips.</t>
+  </si>
+  <si>
+    <t>B: Right. I think companies can draw up plans and publish rules to settle this matter.</t>
+  </si>
+  <si>
+    <t>A: Yes. In addition, companies can avoid taking part in unnecessary travel by using the IT system such as video conferences and E-mail as substitutions for expensive travel.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Moreover, some travels can be arranged at a later date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in conjunction with(连同)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> another trip. In this way, we can reduce the numbers of business trips.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: Good idea! Companies can also make great efforts to reduce trip costs. For example, choose the right transportation, or consider first the cheapest ways of transportation like trains or buses, and plan ahead to pay less for the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>air fare(飞机票价)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when we have to travel by plane.</t>
+    </r>
+  </si>
+  <si>
+    <t>B: Yes, I agree with you. Beyond that, companies are going to reduce the cost of accommodation, for instance, encourage staff to stay in nice hotels instead of expensive ones and always ask for a discount.</t>
+  </si>
+  <si>
+    <t>A: Great! Then, they can offer some incentive reward to those who save costs in their travel, such as allowing employees to stay one more night at leisure when it is at weekend. Maybe this can encourage staff to save cost and be motivated.</t>
+  </si>
+  <si>
+    <t>B: Or companies can establish cooperative relationships with hotels and airlines in order to ask discounts.</t>
+  </si>
+  <si>
+    <t>A: It makes sense. After all, this way is beneficial to both sides. Anyway, there are many ways to cut travel expenses. Companies can choose the most suitable one.</t>
+  </si>
+  <si>
+    <t>B: Indeed, companies are supposed to choose the best way to solve problems about travel costs depending on different circumstances</t>
+  </si>
+  <si>
+    <t>Do you think it causes problems for companies when managers are frequently away on business?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, I think it will cause some problems when managers are frequently away on business. Because managers play a really important role in a company and if they areaway, staff will be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indolent(adj.懒散的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and less </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>motivated(adj.积极的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In most cases, staff won't try their best to do work without the supervision of managers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Would you enjoy traveling overseason business?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Absolutely. I am an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inquisitive(adj.好问的，爱追究的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> person, and traveling overseas always makes me explore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>curious(adj.不寻常的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> places, experience different cultures, search for exotic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delicacies(n.美味佳肴)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and most importantly, encounter interesting people. So, I think besides business affairs, I can learn other things that are good for me from business trips.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think most managers enjoy traveling overseas on business?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">May be. From my point of view, they really enjoy traveling overseas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from the very beginning(从一开始)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. They regard this opportunity as a rest or vacation. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>As time goes on(随着时间的推移)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, they think there is nothing special. Finally, they are tired of traveling abroad, or even refuse to get the chance of business trips.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think a reduction in business travel could make a company less competitive?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I don't think so. There is no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">necessary relation(必然的联系) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>between the reduction of business trips and less competitiveness. On the contrary, reducing the number of bushiness travel makes companies better and more effective. They make full use of time and energy to develop the new product or research instead of wasting time to do some needless business travel.</t>
+    </r>
+  </si>
+  <si>
+    <t>Should managers be allowed to take their family with them on business trips?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I am inclined to disagree with that. The intention of busness trips is business matters not traveling. So, there is no need to take family together. In addition, it easily leads to misunderstanding of using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public funds(公款)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to have fun and letting the company </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reimburse(报销)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>travel expenses(差旅费)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>话题十六：
+在本部分考试中，你将会得到一个讨论话题。你有30秒钟的时间快速读题，题目例子如下，之后与你的同伴围绕话题进行3分钟的讨论。随后考官会提出一些与话题相关的问题。</t>
+  </si>
+  <si>
+    <r>
+      <t>逾期付款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+你所就职的制造公司因为顾客延期付款正在遭受资金周转问题。
+要求你就这种情况提出解决方案(建议)。
+讨论并决定:
+1.与欠款顾客接洽的最好的方法
+2.公司今后将用何种方法阻止客户的欠款行为</t>
+    </r>
+  </si>
+  <si>
+    <t>A: According to the survey, two thirds of small businesses are losing out because they're waiting too long to be paid. The customer has broken a promise to the company. So what do you think would be the best way of approaching the customer who owes you money?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Well, I think whatever the reason for the original loan is, when someone who owes you money is not paying, there is always something you can do. Sometimes they just need a simple reminder, but being prepared to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>escalate(不断恶化)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> your requests effectively can make it more likely for you to collect money with less </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hassle(n.争辩，激烈争论)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>A: You're right. Especially for a company, they must ask for it as soon as possible, because waiting on the debt will only make it harder to collect. There are some steps to ask for money. For example, inquire politely about the money. Once you have passed that date, make a request for the money. At this stage, all you want to do is make sure that the debtor is aware that their debt hasn't been paid. Sometimes people just forget, and a friendly reminder is all they need.</t>
+  </si>
+  <si>
+    <t>B: Great! And in addition, if the debtor does not respond to your request, you should be more direct. Make sure it is clear that you expect immediate payment or a definite commitment to payment,and provide clear instructions for making that payment.</t>
+  </si>
+  <si>
+    <t>A: It is really true. lf you don't receive any payment resulting from the demand contact, then chances are that the debtor either doesn't have the money or just doesn't feel like paying. It's your job to make them prioritize you through multiple contacts by phone, letter, e-mail, or in person, so that they decide to pay you before they pay someone else.</t>
+  </si>
+  <si>
+    <t>B: Yeah, and finally the worst way is to hire a third party to conduct your claim and let the debtor know you are serious, and free you up from the hassle of contact and arranging payment.</t>
+  </si>
+  <si>
+    <t>A: Ok, and what's your opinion about discouraging customers from paying late in future?</t>
+  </si>
+  <si>
+    <t>B: Well, I think the first step is to find out some basic details of the customer before the start of business. In this way, you can know his former cases and behaviors, and then decide whether to do business with them or not.</t>
+  </si>
+  <si>
+    <t>A: Good idea! I contend it is necessary to indicate all rules and principles in advance before the cooperation. Apart from that, establishing a strong personal relationship is important, too. You can make friends with them, and once they can't pay you money, you can contact them immediately and remind them.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B: Yes, all in all, we are supposed to prepare all the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>likelihood(n.可能性)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in advance to prevent loss.</t>
+    </r>
+  </si>
+  <si>
+    <t>Why do you think companies sometimes delay payments?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Well, I think probably sometimes they really forget that thing. But there's another possible explanation for this phenomenon is that they've got serious </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cash-flow problems(资金周转问题)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. They can't afford that and then pretend to forget.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think business customers pay bills more quickly than private customers?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I don't think so. Sometime business customers pay bills late because they use this money for other purposes, like investment, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>payoff(n.工资，报酬)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, buying equipment and so on if they don't have enough cash. They know the money can be better used than paying. But for private customers, once they get money they will pay back.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think cash-flow problems are more damaging for small companies or for large companies?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think small companies are more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vulnerable(adj.脆弱的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to cash-flow problems, because they don't have strong systems and sponsors supporting them. In contrast, large companies get some powerful business partners, investors and advanced management and financial systems, which can really help them out.</t>
+    </r>
+  </si>
+  <si>
+    <t>How important are good relations between suppliers and their customers?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is really important. lf suppliers can get along well with their customers, they will establish mutual trust and friendly relationship. In order to build long-term and cooperative relationship, both parties won't easily damage it but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>live up to their words(履行某人的诺言)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you think it's better for a company to have a few large customers or lots of smaller ones?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think for a company, it is better to have a few large customers to sign some large-scale contracts and make more money. Also they need to have lots of smaller ones to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stabilise(v.使稳定)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> capital turnover.</t>
     </r>
   </si>
 </sst>
@@ -7118,6 +12099,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7264,13 +12252,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7608,16 +12589,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7626,119 +12604,122 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7761,6 +12742,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8111,10 +13095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -8662,6 +13646,268 @@
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
     </row>
+    <row r="79" ht="124.8" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" ht="171.6" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" ht="140.4" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" ht="140.4" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" ht="280.8" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" ht="249.6" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" ht="249.6" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" ht="218.4" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" ht="171.6" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" ht="234" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" ht="171.6" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" ht="202.8" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" ht="46.8" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" ht="124.8" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" ht="156" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" ht="171.6" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" ht="156" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" ht="171.6" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" ht="156" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" ht="187.2" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" ht="124.8" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" ht="46.8" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" ht="265.2" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" ht="202.8" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" ht="187.2" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" ht="109.2" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" ht="249.6" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" ht="187.2" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" ht="218.4" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" ht="187.2" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8672,10 +13918,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -8687,26 +13933,26 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="141" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="218.4" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="316" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8715,34 +13961,34 @@
     </row>
     <row r="5" ht="140.4" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" ht="234" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" ht="218.4" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" ht="218.4" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8751,34 +13997,34 @@
     </row>
     <row r="10" ht="140.4" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" ht="234" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" ht="234" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" ht="156" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8787,34 +14033,34 @@
     </row>
     <row r="15" ht="140.4" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" ht="202.8" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" ht="202.8" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8823,34 +14069,34 @@
     </row>
     <row r="20" ht="140.4" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" ht="327.6" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" ht="265.2" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" ht="280.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8859,34 +14105,34 @@
     </row>
     <row r="25" ht="140.4" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" ht="312" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" ht="296.4" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" ht="265.2" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8895,34 +14141,34 @@
     </row>
     <row r="30" ht="140.4" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" ht="296.4" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" ht="280.8" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" ht="187.2" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8931,34 +14177,34 @@
     </row>
     <row r="35" ht="140.4" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" ht="234" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" ht="202.8" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" ht="218.4" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8967,34 +14213,34 @@
     </row>
     <row r="40" ht="93.6" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" ht="405.6" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" ht="408" customHeight="1" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" ht="374.4" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -9003,34 +14249,34 @@
     </row>
     <row r="45" ht="93.6" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" ht="390" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" ht="358.8" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" ht="265.2" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -9039,34 +14285,34 @@
     </row>
     <row r="50" ht="93.6" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" ht="374.4" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" ht="405.6" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" ht="390" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -9075,34 +14321,34 @@
     </row>
     <row r="55" ht="93.6" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" ht="405.6" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" ht="343.2" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" ht="312" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -9111,35 +14357,247 @@
     </row>
     <row r="60" ht="93.6" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" ht="408" customHeight="1" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" ht="405.6" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" ht="405.6" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" ht="93.6" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" ht="358.8" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" ht="249.6" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" ht="265.2" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" ht="93.6" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" ht="327.6" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" ht="327.6" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" ht="343.2" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" ht="93.6" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" ht="343.2" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" ht="405.6" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" ht="390" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" ht="93.6" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" ht="405.6" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="82" ht="390" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" ht="93.6" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" ht="343.2" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" ht="358.8" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" ht="312" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" ht="93.6" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90" ht="374.4" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" ht="390" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" ht="296.4" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9151,10 +14609,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -9165,76 +14623,76 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="124.8" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31.2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="78" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="78" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="62.4" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="93.6" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" ht="93.6" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" ht="93.6" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>215</v>
+        <v>311</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9243,87 +14701,87 @@
     </row>
     <row r="12" ht="202.8" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" ht="46.8" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" ht="78" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" ht="93.6" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" ht="62.4" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" ht="46.8" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" ht="46.8" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" ht="78" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>231</v>
+        <v>327</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" ht="93.6" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" ht="78" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>235</v>
+        <v>331</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>236</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -9332,84 +14790,84 @@
     </row>
     <row r="24" ht="187.2" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" ht="62.4" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" ht="93.6" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>241</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" ht="62.4" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>242</v>
+        <v>338</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>243</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" ht="78" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" ht="78" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>246</v>
+        <v>342</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>247</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>248</v>
+        <v>344</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>249</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" ht="109.2" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>250</v>
+        <v>346</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>251</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" ht="93.6" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>253</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" ht="78" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>254</v>
+        <v>350</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>255</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -9418,87 +14876,87 @@
     </row>
     <row r="36" ht="140.4" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>256</v>
+        <v>352</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>257</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" ht="62.4" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>258</v>
+        <v>354</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>259</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" ht="62.4" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>260</v>
+        <v>356</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>261</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" ht="62.4" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>358</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>263</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" ht="93.6" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>264</v>
+        <v>360</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>265</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" ht="78" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>267</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" ht="31.2" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>268</v>
+        <v>364</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>269</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" ht="93.6" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>270</v>
+        <v>366</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>271</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" ht="93.6" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>273</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" ht="124.8" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>274</v>
+        <v>370</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>275</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -9507,111 +14965,111 @@
     </row>
     <row r="48" ht="124.8" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>276</v>
+        <v>372</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" ht="46.8" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>278</v>
+        <v>374</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>279</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" ht="78" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>280</v>
+        <v>376</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>281</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" ht="78" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>282</v>
+        <v>378</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>283</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" ht="93.6" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>284</v>
+        <v>380</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" ht="46.8" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>286</v>
+        <v>382</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>287</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>288</v>
+        <v>384</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>289</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" ht="78" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>290</v>
+        <v>386</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" ht="78" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58" ht="62.4" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>294</v>
+        <v>390</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>295</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" ht="78" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>297</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" ht="109.2" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>298</v>
+        <v>394</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>299</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" ht="93.6" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>301</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -9620,111 +15078,111 @@
     </row>
     <row r="63" ht="124.8" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>303</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" ht="46.8" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>305</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" ht="31.2" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>306</v>
+        <v>402</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>307</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" ht="62.4" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>308</v>
+        <v>404</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>309</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" ht="62.4" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>310</v>
+        <v>406</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>311</v>
+        <v>407</v>
       </c>
     </row>
     <row r="68" ht="78" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>312</v>
+        <v>408</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>313</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" ht="46.8" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>314</v>
+        <v>410</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>315</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="2" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" ht="109.2" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>316</v>
+        <v>412</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" ht="93.6" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>318</v>
+        <v>414</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>319</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73" ht="62.4" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>320</v>
+        <v>416</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>321</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74" ht="78" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" ht="93.6" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" ht="124.8" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -9733,108 +15191,108 @@
     </row>
     <row r="78" ht="124.8" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" ht="46.8" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" ht="31.2" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>332</v>
+        <v>428</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
     </row>
     <row r="81" ht="62.4" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>334</v>
+        <v>430</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" ht="78" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" ht="93.6" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>338</v>
+        <v>434</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>339</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" ht="46.8" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" ht="62.4" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>341</v>
+        <v>437</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" ht="93.6" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>343</v>
+        <v>439</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>344</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" ht="62.4" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>345</v>
+        <v>441</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" ht="124.8" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>347</v>
+        <v>443</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>348</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" ht="140.4" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" ht="93.6" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>351</v>
+        <v>447</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>352</v>
+        <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -9843,95 +15301,95 @@
     </row>
     <row r="93" ht="140.4" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>353</v>
+        <v>449</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>354</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" ht="140.4" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>355</v>
+        <v>451</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>356</v>
+        <v>452</v>
       </c>
     </row>
     <row r="95" ht="78" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>357</v>
+        <v>453</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>358</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" ht="218.4" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>359</v>
+        <v>455</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" ht="62.4" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>361</v>
+        <v>457</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>362</v>
+        <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" ht="265.2" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>363</v>
+        <v>459</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>364</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100" ht="140.4" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>365</v>
+        <v>461</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>366</v>
+        <v>462</v>
       </c>
     </row>
     <row r="101" ht="140.4" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>368</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" ht="171.6" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>369</v>
+        <v>465</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>370</v>
+        <v>466</v>
       </c>
     </row>
     <row r="103" ht="156" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>371</v>
+        <v>467</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>372</v>
+        <v>468</v>
       </c>
     </row>
     <row r="104" ht="156" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>373</v>
+        <v>469</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>374</v>
+        <v>470</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -9940,95 +15398,95 @@
     </row>
     <row r="106" ht="124.8" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>375</v>
+        <v>471</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>376</v>
+        <v>472</v>
       </c>
     </row>
     <row r="107" ht="93.6" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>378</v>
+        <v>474</v>
       </c>
     </row>
     <row r="108" ht="93.6" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>379</v>
+        <v>475</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>380</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109" ht="202.8" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>381</v>
+        <v>477</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>382</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" ht="109.2" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>383</v>
+        <v>479</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>384</v>
+        <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="2" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" ht="93.6" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
     </row>
     <row r="113" ht="156" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>387</v>
+        <v>483</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>388</v>
+        <v>484</v>
       </c>
     </row>
     <row r="114" ht="156" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>389</v>
+        <v>485</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
     </row>
     <row r="115" ht="124.8" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>391</v>
+        <v>487</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
     </row>
     <row r="116" ht="156" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>394</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" ht="124.8" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>395</v>
+        <v>491</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>396</v>
+        <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -10037,95 +15495,95 @@
     </row>
     <row r="119" ht="140.4" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>397</v>
+        <v>493</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>398</v>
+        <v>494</v>
       </c>
     </row>
     <row r="120" ht="171.6" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>399</v>
+        <v>495</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>400</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" ht="124.8" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>401</v>
+        <v>497</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>402</v>
+        <v>498</v>
       </c>
     </row>
     <row r="122" ht="124.8" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>403</v>
+        <v>499</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>404</v>
+        <v>500</v>
       </c>
     </row>
     <row r="123" ht="78" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>405</v>
+        <v>501</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>406</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="2" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" ht="156" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>407</v>
+        <v>503</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>408</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126" ht="109.2" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>409</v>
+        <v>505</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>410</v>
+        <v>506</v>
       </c>
     </row>
     <row r="127" ht="171.6" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>411</v>
+        <v>507</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>412</v>
+        <v>508</v>
       </c>
     </row>
     <row r="128" ht="93.6" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>413</v>
+        <v>509</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>414</v>
+        <v>510</v>
       </c>
     </row>
     <row r="129" ht="124.8" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>415</v>
+        <v>511</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>416</v>
+        <v>512</v>
       </c>
     </row>
     <row r="130" ht="124.8" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>417</v>
+        <v>513</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>418</v>
+        <v>514</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -10134,87 +15592,625 @@
     </row>
     <row r="132" ht="109.2" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>419</v>
+        <v>515</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>420</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133" ht="109.2" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>421</v>
+        <v>517</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>422</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134" ht="93.6" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>423</v>
+        <v>519</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>424</v>
+        <v>520</v>
       </c>
     </row>
     <row r="135" ht="62.4" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>425</v>
+        <v>521</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>426</v>
+        <v>522</v>
       </c>
     </row>
     <row r="136" ht="109.2" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>427</v>
+        <v>523</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>428</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" ht="109.2" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>429</v>
+        <v>525</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>430</v>
+        <v>526</v>
       </c>
     </row>
     <row r="138" ht="46.8" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>431</v>
+        <v>527</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>269</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="2" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="140" ht="109.2" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>432</v>
+        <v>528</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>433</v>
+        <v>529</v>
       </c>
     </row>
     <row r="141" ht="140.4" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>434</v>
+        <v>530</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>435</v>
+        <v>531</v>
       </c>
     </row>
     <row r="142" ht="109.2" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>436</v>
+        <v>532</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>437</v>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="143" ht="140.4" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="144" ht="124.8" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="145" ht="109.2" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+    </row>
+    <row r="147" ht="140.4" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="148" ht="124.8" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="149" ht="109.2" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="150" ht="93.6" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="151" ht="62.4" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="152" ht="93.6" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="154" ht="93.6" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="155" ht="156" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="156" ht="93.6" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="157" ht="124.8" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="158" ht="78" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="159" ht="78" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161" ht="109.2" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="162" ht="187.2" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="163" ht="62.4" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="164" ht="62.4" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="165" ht="62.4" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="166" ht="46.8" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="168" ht="202.8" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="169" ht="265.2" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="170" ht="140.4" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="171" ht="62.4" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="172" ht="78" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+    </row>
+    <row r="174" ht="109.2" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="175" ht="62.4" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="176" ht="93.6" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="177" ht="140.4" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="178" ht="62.4" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="179" ht="124.8" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="180" ht="156" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="183" ht="140.4" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="184" ht="124.8" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="185" ht="124.8" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="186" ht="124.8" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="187" ht="78" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="188" ht="124.8" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+    </row>
+    <row r="190" ht="109.2" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="191" ht="109.2" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="192" ht="78" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="193" ht="124.8" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="194" ht="109.2" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="195" ht="78" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="197" ht="140.4" spans="1:2">
+      <c r="A197" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="198" ht="171.6" spans="1:2">
+      <c r="A198" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="199" ht="140.4" spans="1:2">
+      <c r="A199" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="200" ht="171.6" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="201" ht="140.4" spans="1:2">
+      <c r="A201" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+    </row>
+    <row r="203" ht="124.8" spans="1:2">
+      <c r="A203" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="204" ht="156" spans="1:2">
+      <c r="A204" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="205" ht="218.4" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="206" ht="156" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="207" ht="109.2" spans="1:2">
+      <c r="A207" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="208" ht="156" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="210" ht="109.2" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="211" ht="156" spans="1:2">
+      <c r="A211" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="212" ht="140.4" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="213" ht="140.4" spans="1:2">
+      <c r="A213" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="214" ht="93.6" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/BEC/02-口语相关/口语问题汇总.xlsx
+++ b/BEC/02-口语相关/口语问题汇总.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10668" windowHeight="9060" tabRatio="802" activeTab="2"/>
+    <workbookView windowWidth="10235" windowHeight="9060" tabRatio="802" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="口语问答" sheetId="1" r:id="rId1"/>
     <sheet name="口语话题选择" sheetId="3" r:id="rId2"/>
     <sheet name="口语讨论" sheetId="2" r:id="rId3"/>
+    <sheet name="口语其他" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="721">
   <si>
     <t>question</t>
   </si>
@@ -2259,6 +2260,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I prefer watching comedy. On the one hand, it gives me a break from </t>
     </r>
     <r>
@@ -2307,6 +2315,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Actually, there are many reasons for me to lear English. First of all, I am able to approach a wider range of information resources. Moreover, I can </t>
     </r>
     <r>
@@ -2375,6 +2390,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I prefer to work in a small team. lt can </t>
     </r>
     <r>
@@ -2423,6 +2445,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Like many young ladies do, I often go shopping in my spare time. I am also interested in swimming, which I think can reshape my body line. Moreover, I have worked part time for a number of big companies, because I think I can gain some </t>
     </r>
     <r>
@@ -2451,6 +2480,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Well, in order to </t>
     </r>
     <r>
@@ -2539,6 +2575,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Students might have many choices to spend a vacation as long as they can make the vacation time interesting or helpful. For example, you can visit your families or friends, go to concerts or do many other things for relaxation. You can also plan a trip to the city or somewhere you are longing for, which will help to broaden your view and knowledge Furthermore, you can also choose to have a vacation </t>
     </r>
     <r>
@@ -2567,6 +2610,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I prefer to be a leader, because l want to implement my dream and i think I can meet the qualities required for a good leader, First of all, a good leader should have the ability of </t>
     </r>
     <r>
@@ -2615,6 +2665,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I prefer to study in group. Firstly, it's inevitable for each of us to </t>
     </r>
     <r>
@@ -2663,6 +2720,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The involvement of new staff in work will bring new ideas and energy for the existing team, and faced with competitions the existing staff may be pushed to work harder.However, regular recruitment will </t>
     </r>
     <r>
@@ -2711,6 +2775,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">After a job is offered and accepted, career decisions must be made. A career plan may involve either a series of promotions within one firm or switching to a different firm. While planning a career path is a useful motivator(n.动力，激励因素), the plan should be </t>
     </r>
     <r>
@@ -2759,6 +2830,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes, I think so. By training their employees, firms may be able to increase their profits because trained staff are likely to be more productive and make less mistakes. Employees might also be more motivated to </t>
     </r>
     <r>
@@ -2807,6 +2885,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I prefer to take my time and enjoy the scenery along the way. Firstly, there can be some surprisingly beautiful sights on the way, and I don't want to miss it. lt can be even better than my destination. In addition, trip is a way of relaxation instead of a job. So you don't need to rush yourself, otherwise  may already feel tired when I get to my destination. I'd like to relax from the moment I </t>
     </r>
     <r>
@@ -2835,6 +2920,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Well, </t>
     </r>
     <r>
@@ -2903,6 +2995,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Well, I think I am a person with great </t>
     </r>
     <r>
@@ -3011,6 +3110,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">My hometown is Dalian. lt is well-known across the country, you know. lt is a </t>
     </r>
     <r>
@@ -3099,6 +3205,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I am very glad to have numerous friends. Most of them are my classmates. We share common interests and we share happiness and bitterness. For me, they like angles around me and always support me no matter what happened. I also learn many things from them, like optimism,self-confidence, diligence and </t>
     </r>
     <r>
@@ -3127,6 +3240,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes. I'm crazy about English. It attracts me due to the language itself and the culture it represents. I enjoy English movies and songs and often learn English sentences from them, My dream is to speak good English </t>
     </r>
     <r>
@@ -3195,6 +3315,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Actually, I </t>
     </r>
     <r>
@@ -3323,6 +3450,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Absolutely, I am fond of </t>
     </r>
     <r>
@@ -3351,6 +3485,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes, I do. Flowers make my home more </t>
     </r>
     <r>
@@ -3419,6 +3560,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Today's society is no longer a </t>
     </r>
     <r>
@@ -3507,6 +3655,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Extensive experience(丰富的经验)</t>
     </r>
     <r>
@@ -3545,6 +3700,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Mutual trust and friendly atmosphere are important parts in a good team. The leader is not supposed to be too </t>
     </r>
     <r>
@@ -3593,6 +3755,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I am a person who always pays attention to details. So I think my role in a team is to strive for </t>
     </r>
     <r>
@@ -3641,6 +3810,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">From my point of view, attending college is very important to help people gain success in their careers. Nowadays, attending college is not only a process of </t>
     </r>
     <r>
@@ -3689,6 +3865,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I prefer to work in the office. Firstly, although working at home may be comfortable, it's dificult for me to be </t>
     </r>
     <r>
@@ -3737,6 +3920,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I don't think students should wear uniform in school. For one thing, wearing uniform doesn't mean a better performance in school: In contrast, it doesn't matter what students wear as long as they ar doing fine. For another, students should be encouraged to express themselves and develop their personalities. Schools can forbid students to wear some </t>
     </r>
     <r>
@@ -3785,6 +3975,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I can't agree more. As the old saying goes, you can learn more by traveling a thousand miles than by reading a thousand books. So, to some extent, practical experience is more important. Practice is the only </t>
     </r>
     <r>
@@ -6600,6 +6797,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you choose topic A: What is important when aiming to improve career prospects?
 </t>
     </r>
@@ -6630,6 +6834,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When aiming to improve career prospects, I would take three factors into consideration, namely, reading business articles, learning a foreign language and attending training class.
     Firstly, reading business articles is very important when trying to improve career prospects. This is a good way for you to </t>
     </r>
@@ -6699,6 +6910,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you choose topic B: What is important when deciding how to transport goods?
 </t>
     </r>
@@ -6729,6 +6947,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When deciding how to transport goods, we need to consider three factors. The first one is destination, which enables us to adopt </t>
     </r>
     <r>
@@ -6777,6 +7002,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">lf you choose topic C: What is important when purchasing new machinery?
 </t>
     </r>
@@ -6807,6 +7039,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When purchasing new machinery for production line, the primary consideration should be the level of automation. The main purpose for us to buy machinery is to save labour, raise efficiency and improve productivity. So we must know if the machine is fully automatic and </t>
     </r>
     <r>
@@ -6859,6 +7098,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you choose topic A: What is important when selecting a retail sales assistant?
 </t>
     </r>
@@ -6889,6 +7135,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When it comes to selecting a retail sales assistant, we should consider such factors as previous experience, appearance and communicating skills.
     The most important factor to consider is the assistants' former working experience. </t>
     </r>
@@ -6938,6 +7191,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you choose topic B: What is important when contacting clients by telephone?
 </t>
     </r>
@@ -6968,6 +7228,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When contacting clients by telephone, we should consider three factors, including calling at the right time, listening carefully and focusing details.
     Firstly, we should not underestimate the importance of calling at the right time. lt matters politeness and good impression on us. Don't disturb or annoy our clients when they are </t>
     </r>
@@ -7017,6 +7284,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you choose topic C; What is important when managing change?
 </t>
     </r>
@@ -7047,6 +7321,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Well, as I see it, several things are </t>
     </r>
     <r>
@@ -7141,6 +7422,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you choose topic A: What is important when considering setting up a staff canteen?
 </t>
     </r>
@@ -7171,6 +7459,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I think there are three points to consider when considering setting up a staff canteen.
     First of all, I think we should listen to the employees' opinions. We should </t>
     </r>
@@ -7220,6 +7515,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you choose topic B: What is important when working as a teacher?
 </t>
     </r>
@@ -7250,6 +7552,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I think working as a teacher requires the following three points: sharing expertise, deciding responsibilities and monitoring the students.
     Firstly, we should not underestimate the importance of sharing expertise. The role of a teacher is to </t>
     </r>
@@ -7319,6 +7628,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">if vou choose topic C: What is important when negotiating a contract with a customer?
 </t>
     </r>
@@ -7349,6 +7665,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Customer needs, available budget and long-term cooperation have to be taken into consideration with regard to negotiating a contract with a customer.
     To begin with, customer needs are the basic elements for establishing cooperative relationship. lt determines the existence of the cooperation and negotiation, As a mattel of fact, we are sitting around the negotiating table because we need something from each other.
     In the second place, available budget can make it possible to come to the following steps, such as reasonable design of the contract, specific terms and so on. We can't discuss and bargain with each other without financial support.
@@ -7403,6 +7726,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you choose topic A: Waht is important when writing a newspaper advertisement for a job vacancy?
 </t>
     </r>
@@ -7433,6 +7763,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A good job newspaper advertisement should be effective and clear to </t>
     </r>
     <r>
@@ -7604,6 +7941,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">lf you choose topic B: What is important when selecting employees for further training?
 </t>
     </r>
@@ -7634,6 +7978,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Almost all the companies offer training courses to their staff to improve their skills and </t>
     </r>
     <r>
@@ -7728,6 +8079,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">lf you choose topic A: What is important when designing a reception area?
 </t>
     </r>
@@ -7758,6 +8116,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A reception area plays an increasingly important role in communication exchanges. Therefore, at present, a growing number of companies pay high attention to it.
     Reception work is not only a bridge between the company and clients, but also an important window showing the corporate image. In modern society, reception work is not simply meeting and seeing off, but a comprehensive work. It directly reflects the company'soverall image.
     There are many valuable guests and clients in the reception area, so that we cannot ignore the security. Ensuring security should be a </t>
@@ -7807,6 +8172,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">lf you choose topic B: What is important when organising a conference?
 </t>
     </r>
@@ -7837,6 +8209,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">There are many keys to organising a conference
     One of the key secrets to organising conferences is to invite </t>
     </r>
@@ -7926,6 +8305,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">if you choose topic C: What is important when setting a budget for developing a product?
 </t>
     </r>
@@ -7956,6 +8342,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">For developing a product, companies will set a budget in the first place. An effective budget is the result of a careful examination of what the likely income and </t>
     </r>
     <r>
@@ -7990,6 +8383,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you choose topic A: Waht is important when  deciding whether to visit a trade fair?
 </t>
     </r>
@@ -8020,6 +8420,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A trade fair is an exhibition in which companies in a specific industry can </t>
     </r>
     <r>
@@ -8069,6 +8476,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you choose topic B: What is important when selecting an advertising agency?
 </t>
     </r>
@@ -8099,6 +8513,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When it comes to selecting an advertising agency, a company can view things from many different perspectives.
     Firstly, they should pay attention to agency fees. Generally speaking, many companies are likely to find some cost-effective agencies. The ideal and popular advertising agencies have to offer the best services and the most reasonable prices.
     In the second place, they should consider agency staff, too. Apart from </t>
@@ -8168,6 +8589,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">lf you choose topic C; What is important when producing a marketing plan?
 </t>
     </r>
@@ -8198,6 +8626,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Producing an effective marketing plan can attract your potential customers, which is therefore very important.
     The first step is to identify target customers, which is helpful for you to define the needs of the market your products or services satisfy and set a specific goal for your plan.
     A second thing to consider is the budget, which means you have to count spending for your objective. Then, make all of the data into one comprehensive document with tables and graphs. It is beneficial to </t>
@@ -10670,6 +11105,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Companies can set up a stock requirement system to </t>
     </r>
     <r>
@@ -10724,6 +11166,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I don't think discounting can affect a company's image. Offering discounts is just a </t>
     </r>
     <r>
@@ -10753,6 +11202,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>推出一款新车</t>
     </r>
     <r>
@@ -10776,6 +11233,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">B: Um...From my point of view, because it targets the young consumers, we should pay more attention to the </t>
     </r>
     <r>
@@ -10827,6 +11291,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A: Since the consumers are very young, we should invite pop stars or famous actors to present the model, which will cause an </t>
     </r>
     <r>
@@ -10858,6 +11329,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">B: Good idea, our sales are certain to </t>
     </r>
     <r>
@@ -10892,6 +11370,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I think the most important feature for a car is safety, especially after the frequent </t>
     </r>
     <r>
@@ -10926,6 +11411,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Consumers can be easily influenced by advertising campaigns, especially when there are some famous people. After all, people </t>
     </r>
     <r>
@@ -10974,6 +11466,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">it is necessary for companies to introduce new products regularly because it can communicate to consumers that you' are </t>
     </r>
     <r>
@@ -11022,6 +11521,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes, it's very important.The good season gives a company opportunity to </t>
     </r>
     <r>
@@ -11070,6 +11576,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Well, maybe the company suffers from </t>
     </r>
     <r>
@@ -11125,6 +11638,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A: Yes. If they </t>
     </r>
     <r>
@@ -11162,6 +11682,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">We give presentations when we need to present ideas or information of our products to other people. The information and ideas should always be presented in a clear and structured way so that it is easy for the listeners to understand. So I think it's a wise choice to give staff presentation training. To some extent, it can improve </t>
     </r>
     <r>
@@ -11190,6 +11717,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Firstly, make clear of your objective for this presentation and who your audience is. This will influence the language you use in your presentation and what you say.
     Secondly, preparation and planning are essential. lf you have prepared properly, you will feel more confident and the audience will be able to relax and take in the information.
     Then, as a presenter, you must also think about the </t>
@@ -11221,6 +11755,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I would like to have some training in giving presentations. I will learn a lot from this training, for example, using proper </t>
     </r>
     <r>
@@ -11296,6 +11837,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A: Nowadays, our major competitors are gradually </t>
     </r>
     <r>
@@ -11339,6 +11887,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">B: You are saying what I am thinking about. We really need some members who have good communication skills. And for the </t>
     </r>
     <r>
@@ -11367,6 +11922,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">B: Good idea. And a well-planned itinerary is needed, too. Business travel abroadis especially troublesome, because it involves </t>
     </r>
     <r>
@@ -11398,6 +11960,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">We should plan the accommodation, food, appointment and so on. Two or three definite appointments, confirmed well in advance and spaced comfortably throughout a day, are more </t>
     </r>
     <r>
@@ -11459,6 +12028,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>差旅费</t>
     </r>
     <r>
@@ -11488,6 +12065,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">B: Moreover, some travels can be arranged at a later date </t>
     </r>
     <r>
@@ -11513,6 +12097,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">A: Good idea! Companies can also make great efforts to reduce trip costs. For example, choose the right transportation, or consider first the cheapest ways of transportation like trains or buses, and plan ahead to pay less for the </t>
     </r>
     <r>
@@ -11556,6 +12147,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes, I think it will cause some problems when managers are frequently away on business. Because managers play a really important role in a company and if they areaway, staff will be </t>
     </r>
     <r>
@@ -11604,6 +12202,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Absolutely. I am an </t>
     </r>
     <r>
@@ -11672,6 +12277,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">May be. From my point of view, they really enjoy traveling overseas </t>
     </r>
     <r>
@@ -11720,6 +12332,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I don't think so. There is no </t>
     </r>
     <r>
@@ -11748,6 +12367,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I am inclined to disagree with that. The intention of busness trips is business matters not traveling. So, there is no need to take family together. In addition, it easily leads to misunderstanding of using </t>
     </r>
     <r>
@@ -11817,6 +12443,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>逾期付款</t>
     </r>
     <r>
@@ -11840,6 +12474,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">B: Well, I think whatever the reason for the original loan is, when someone who owes you money is not paying, there is always something you can do. Sometimes they just need a simple reminder, but being prepared to </t>
     </r>
     <r>
@@ -11906,6 +12547,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">B: Yes, all in all, we are supposed to prepare all the </t>
     </r>
     <r>
@@ -11934,6 +12582,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Well, I think probably sometimes they really forget that thing. But there's another possible explanation for this phenomenon is that they've got serious </t>
     </r>
     <r>
@@ -11962,6 +12617,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I don't think so. Sometime business customers pay bills late because they use this money for other purposes, like investment, </t>
     </r>
     <r>
@@ -11990,6 +12652,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I think small companies are more </t>
     </r>
     <r>
@@ -12018,6 +12687,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">It is really important. lf suppliers can get along well with their customers, they will establish mutual trust and friendly relationship. In order to build long-term and cooperative relationship, both parties won't easily damage it but </t>
     </r>
     <r>
@@ -12046,6 +12722,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I think for a company, it is better to have a few large customers to sign some large-scale contracts and make more money. Also they need to have lots of smaller ones to </t>
     </r>
     <r>
@@ -12068,6 +12751,202 @@
       </rPr>
       <t xml:space="preserve"> capital turnover.</t>
     </r>
+  </si>
+  <si>
+    <t>Job Choose</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>Disadvantage</t>
+  </si>
+  <si>
+    <t>Freelance</t>
+  </si>
+  <si>
+    <t>You choose the job</t>
+  </si>
+  <si>
+    <t>No job security</t>
+  </si>
+  <si>
+    <t>Teleworking</t>
+  </si>
+  <si>
+    <t>Organize your work time</t>
+  </si>
+  <si>
+    <t>You need to be good at self-organisation</t>
+  </si>
+  <si>
+    <t>Job-sharing</t>
+  </si>
+  <si>
+    <t>More free time</t>
+  </si>
+  <si>
+    <t>Need to coordinate with other person</t>
+  </si>
+  <si>
+    <t>Shift work</t>
+  </si>
+  <si>
+    <t>Give you your days free</t>
+  </si>
+  <si>
+    <t>tiring</t>
+  </si>
+  <si>
+    <t>Part-time</t>
+  </si>
+  <si>
+    <t>Less money</t>
+  </si>
+  <si>
+    <t>Temping</t>
+  </si>
+  <si>
+    <t>Lots of variety</t>
+  </si>
+  <si>
+    <t>Hard to progress your career</t>
+  </si>
+  <si>
+    <t>Consultancy</t>
+  </si>
+  <si>
+    <t>Well-paid</t>
+  </si>
+  <si>
+    <t>Flexitime</t>
+  </si>
+  <si>
+    <t>Good for work-life balance</t>
+  </si>
+  <si>
+    <t>Not good for people who like routine</t>
+  </si>
+  <si>
+    <t>Hot-desking</t>
+  </si>
+  <si>
+    <t>Saves the company money</t>
+  </si>
+  <si>
+    <t>Disruptive to employees</t>
+  </si>
+  <si>
+    <t>What's important when working from home?</t>
+  </si>
+  <si>
+    <t>1.Close the door.
+2.Turn off the telephone.
+3.Have a good chair. 
+4.Keep your desk and general work area tidy.
+5.Give yourself breaks.</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>Sole trader</t>
+  </si>
+  <si>
+    <t>You take all the profit.</t>
+  </si>
+  <si>
+    <t>If you go bankrupt, you lose everything.</t>
+  </si>
+  <si>
+    <t>Partnership</t>
+  </si>
+  <si>
+    <t>Your partner share the pressure with you.</t>
+  </si>
+  <si>
+    <t>You might disagree on strategy.</t>
+  </si>
+  <si>
+    <t>Franchise</t>
+  </si>
+  <si>
+    <t>The business model is given to you so there is less risk.</t>
+  </si>
+  <si>
+    <t>Part of your profit go to the franchisor.</t>
+  </si>
+  <si>
+    <t>advertising</t>
+  </si>
+  <si>
+    <t>Types of advertising</t>
+  </si>
+  <si>
+    <t>Advantages</t>
+  </si>
+  <si>
+    <t>TV commercials</t>
+  </si>
+  <si>
+    <t>memorable and can be fun</t>
+  </si>
+  <si>
+    <t>people remember the advert but not the product</t>
+  </si>
+  <si>
+    <t>Word of mouth</t>
+  </si>
+  <si>
+    <t>you trust this form most</t>
+  </si>
+  <si>
+    <t>people can also spread bad news</t>
+  </si>
+  <si>
+    <t>Brochures</t>
+  </si>
+  <si>
+    <t>give you more time to study information</t>
+  </si>
+  <si>
+    <t>expensive to produce and send out to your target market</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>people can test before buying</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>Newspaper adverts</t>
+  </si>
+  <si>
+    <t>read by many</t>
+  </si>
+  <si>
+    <t>read quickly or ignored</t>
+  </si>
+  <si>
+    <t>Banners</t>
+  </si>
+  <si>
+    <t>you can target a market by choice of website</t>
+  </si>
+  <si>
+    <t>they disappear quickcly</t>
+  </si>
+  <si>
+    <t>Spam</t>
+  </si>
+  <si>
+    <t>very cheap to produce and deliver</t>
+  </si>
+  <si>
+    <t>people delete them before reading</t>
   </si>
 </sst>
 </file>
@@ -12080,8 +12959,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -12463,12 +13350,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -12589,16 +13491,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12607,144 +13506,174 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13103,810 +14032,810 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="39.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="39.6666666666667" style="10" customWidth="1"/>
+    <col min="2" max="2" width="43.8888888888889" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="10" customFormat="1" ht="31" customHeight="1" spans="1:2">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:2">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="10" customFormat="1" ht="31" customHeight="1" spans="1:2">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="93.6" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="93.6" spans="1:2">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="124.8" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="10" customFormat="1" ht="124.8" spans="1:2">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="187.2" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="10" customFormat="1" ht="187.2" spans="1:2">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="124.8" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="10" customFormat="1" ht="124.8" spans="1:2">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="109.2" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="10" customFormat="1" ht="109.2" spans="1:2">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="14.4" spans="1:2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="43.2" spans="1:1">
-      <c r="A9" s="5" t="s">
+    <row r="8" s="14" customFormat="1" ht="14.4" spans="1:2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" s="14" customFormat="1" ht="43.2" spans="1:1">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" ht="86.4" spans="1:2">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="14" customFormat="1" ht="86.4" spans="1:2">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" ht="234" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="140.4" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="93.6" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" ht="46.8" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="187.2" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" ht="156" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" ht="171.6" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" ht="46.8" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" ht="249.6" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" ht="234" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" ht="234" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" ht="140.4" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" ht="46.8" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" ht="93.6" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" ht="156" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" ht="187.2" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" ht="93.6" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
     </row>
     <row r="32" ht="46.8" spans="1:1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" ht="109.2" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" ht="171.6" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" ht="234" spans="1:2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" ht="109.2" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
     </row>
     <row r="38" ht="46.8" spans="1:1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" ht="109.2" spans="1:2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" ht="109.2" spans="1:2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" ht="124.8" spans="1:2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" ht="156" spans="1:2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
     </row>
     <row r="44" ht="46.8" spans="1:1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" ht="124.8" spans="1:2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="46" ht="171.6" spans="1:2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" ht="218.4" spans="1:2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" ht="156" spans="1:2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
     </row>
     <row r="50" ht="46.8" spans="1:1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" ht="187.2" spans="1:2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" ht="171.6" spans="1:2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="53" ht="156" spans="1:2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" ht="156" spans="1:2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
     </row>
     <row r="56" ht="46.8" spans="1:1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" ht="140.4" spans="1:2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" ht="140.4" spans="1:2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" ht="187.2" spans="1:2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60" ht="124.8" spans="1:2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
     </row>
     <row r="62" ht="46.8" spans="1:1">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" ht="218.4" spans="1:2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="64" ht="156" spans="1:2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="65" ht="156" spans="1:2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="66" ht="171.6" spans="1:2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
     </row>
     <row r="68" ht="46.8" spans="1:1">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" ht="140.4" spans="1:2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="70" ht="78" spans="1:2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="71" ht="171.6" spans="1:2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="72" ht="156" spans="1:2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" ht="46.8" spans="1:1">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="74" ht="109.2" spans="1:2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="75" ht="140.4" spans="1:2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="76" ht="156" spans="1:2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="77" ht="202.8" spans="1:2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
     </row>
     <row r="79" ht="124.8" spans="1:2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="80" ht="171.6" spans="1:2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="81" ht="140.4" spans="1:2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" ht="140.4" spans="1:2">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84" ht="280.8" spans="1:2">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="85" ht="249.6" spans="1:2">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="86" ht="249.6" spans="1:2">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="87" ht="218.4" spans="1:2">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
     </row>
     <row r="89" ht="171.6" spans="1:2">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="90" ht="234" spans="1:2">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="91" ht="171.6" spans="1:2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="92" ht="202.8" spans="1:2">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
     </row>
     <row r="94" ht="46.8" spans="1:1">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="95" ht="124.8" spans="1:2">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="96" ht="156" spans="1:2">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="97" ht="171.6" spans="1:2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="98" ht="156" spans="1:2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
     </row>
     <row r="100" ht="171.6" spans="1:2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="101" ht="156" spans="1:2">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="102" ht="187.2" spans="1:2">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="103" ht="124.8" spans="1:2">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
     </row>
     <row r="105" ht="46.8" spans="1:1">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="106" ht="265.2" spans="1:2">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107" ht="202.8" spans="1:2">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108" ht="187.2" spans="1:2">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="109" ht="109.2" spans="1:2">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
     </row>
     <row r="111" ht="249.6" spans="1:2">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112" ht="187.2" spans="1:2">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="113" ht="218.4" spans="1:2">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="114" ht="187.2" spans="1:2">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13926,678 +14855,678 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="25.5555555555556" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="25.5555555555556" style="10" customWidth="1"/>
+    <col min="2" max="2" width="61" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="141" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="10" customFormat="1" ht="141" customHeight="1" spans="1:2">
+      <c r="A1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="218.4" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="10" customFormat="1" ht="218.4" spans="1:2">
+      <c r="A2" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="316" customHeight="1" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="10" customFormat="1" ht="316" customHeight="1" spans="1:2">
+      <c r="A3" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" ht="140.4" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" ht="234" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" ht="218.4" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" ht="218.4" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" ht="140.4" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="11" ht="234" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" ht="234" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="13" ht="156" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" ht="140.4" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="11" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="16" ht="202.8" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="18" ht="202.8" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" ht="140.4" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="11" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="21" ht="327.6" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="22" ht="265.2" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="23" ht="280.8" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" ht="140.4" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26" ht="312" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27" ht="296.4" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="28" ht="265.2" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
     </row>
     <row r="30" ht="140.4" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="11" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="31" ht="296.4" spans="1:2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="32" ht="280.8" spans="1:2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="33" ht="187.2" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="10" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
     </row>
     <row r="35" ht="140.4" spans="1:2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="36" ht="234" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="37" ht="202.8" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="38" ht="218.4" spans="1:2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
     </row>
     <row r="40" ht="93.6" spans="1:2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="41" ht="405.6" spans="1:2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="42" ht="408" customHeight="1" spans="1:2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="10" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="43" ht="374.4" spans="1:2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
     </row>
     <row r="45" ht="93.6" spans="1:2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="46" ht="390" spans="1:2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="47" ht="358.8" spans="1:2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="48" ht="265.2" spans="1:2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
     </row>
     <row r="50" ht="93.6" spans="1:2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="51" ht="374.4" spans="1:2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="52" ht="405.6" spans="1:2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="53" ht="390" spans="1:2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
     </row>
     <row r="55" ht="93.6" spans="1:2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="56" ht="405.6" spans="1:2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="57" ht="343.2" spans="1:2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="10" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="58" ht="312" spans="1:2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="10" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
     </row>
     <row r="60" ht="93.6" spans="1:2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="10" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="61" ht="408" customHeight="1" spans="1:2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="62" ht="405.6" spans="1:2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="63" ht="405.6" spans="1:2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="10" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
     </row>
     <row r="65" ht="93.6" spans="1:2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="66" ht="358.8" spans="1:2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="67" ht="249.6" spans="1:2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="68" ht="265.2" spans="1:2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
     </row>
     <row r="70" ht="93.6" spans="1:2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="10" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="71" ht="327.6" spans="1:2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="72" ht="327.6" spans="1:2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="73" ht="343.2" spans="1:2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
     </row>
     <row r="75" ht="93.6" spans="1:2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="76" ht="343.2" spans="1:2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="10" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="77" ht="405.6" spans="1:2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="78" ht="390" spans="1:2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="10" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
     </row>
     <row r="80" ht="93.6" spans="1:2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="81" ht="405.6" spans="1:2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="82" ht="390" spans="1:2">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84" ht="93.6" spans="1:2">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="85" ht="343.2" spans="1:2">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="86" ht="358.8" spans="1:2">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="10" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="87" ht="312" spans="1:2">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
     </row>
     <row r="89" ht="93.6" spans="1:2">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="90" ht="374.4" spans="1:2">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="10" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="91" ht="390" spans="1:2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="10" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="92" ht="296.4" spans="1:2">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14611,1605 +15540,1605 @@
   <sheetPr/>
   <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+    <sheetView topLeftCell="A213" workbookViewId="0">
       <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="42.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="2" width="42.6666666666667" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="124.8" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="10" customFormat="1" ht="124.8" spans="1:1">
+      <c r="A1" s="11" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="31.2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="10" customFormat="1" ht="31.2" spans="1:2">
+      <c r="A2" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="78" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="10" customFormat="1" ht="78" spans="1:2">
+      <c r="A3" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="93.6" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="10" customFormat="1" ht="93.6" spans="1:2">
+      <c r="A4" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="78" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="10" customFormat="1" ht="78" spans="1:2">
+      <c r="A5" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="62.4" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="10" customFormat="1" ht="62.4" spans="1:2">
+      <c r="A6" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="10" customFormat="1" spans="1:1">
+      <c r="A7" s="11" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="93.6" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="10" customFormat="1" ht="93.6" spans="1:2">
+      <c r="A8" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="9" ht="93.6" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="10" ht="93.6" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" ht="202.8" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="13" ht="46.8" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="10" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="14" ht="78" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="10" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="15" ht="93.6" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="16" ht="62.4" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="10" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="17" ht="46.8" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="18" ht="46.8" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="20" ht="78" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="10" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="21" ht="93.6" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="22" ht="78" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="10" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" ht="187.2" spans="1:1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="11" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="25" ht="62.4" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="10" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="26" ht="93.6" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="10" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="27" ht="62.4" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="10" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="28" ht="78" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="10" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="29" ht="78" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="10" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="10" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="32" ht="109.2" spans="1:2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="10" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="33" ht="93.6" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="10" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="34" ht="78" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="10" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
     </row>
     <row r="36" ht="140.4" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="10" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="37" ht="62.4" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="10" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="38" ht="62.4" spans="1:2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="10" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="39" ht="62.4" spans="1:2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="10" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="40" ht="93.6" spans="1:2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="10" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="41" ht="78" spans="1:2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="10" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="42" ht="31.2" spans="1:2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="10" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="44" ht="93.6" spans="1:2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="45" ht="93.6" spans="1:2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="10" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="46" ht="124.8" spans="1:2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="10" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
     </row>
     <row r="48" ht="124.8" spans="1:2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="10" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="49" ht="46.8" spans="1:2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="10" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="50" ht="78" spans="1:2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="10" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="51" ht="78" spans="1:2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="10" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="52" ht="93.6" spans="1:2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="53" ht="46.8" spans="1:2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="10" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="56" ht="78" spans="1:2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="10" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="57" ht="78" spans="1:2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="10" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="58" ht="62.4" spans="1:2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="59" ht="78" spans="1:2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="10" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="60" ht="109.2" spans="1:2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="10" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="61" ht="93.6" spans="1:2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="10" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
     </row>
     <row r="63" ht="124.8" spans="1:2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="10" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="64" ht="46.8" spans="1:2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="10" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="65" ht="31.2" spans="1:2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="10" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="66" ht="62.4" spans="1:2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="10" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="67" ht="62.4" spans="1:2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="10" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="68" ht="78" spans="1:2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="10" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="69" ht="46.8" spans="1:2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="10" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="71" ht="109.2" spans="1:2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="10" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="72" ht="93.6" spans="1:2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="10" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="73" ht="62.4" spans="1:2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="10" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="74" ht="78" spans="1:2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="10" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="75" ht="93.6" spans="1:2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="10" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="76" ht="124.8" spans="1:2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="10" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
     </row>
     <row r="78" ht="124.8" spans="1:2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="10" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="79" ht="46.8" spans="1:2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="10" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="80" ht="31.2" spans="1:2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="10" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="81" ht="62.4" spans="1:2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="10" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="82" ht="78" spans="1:2">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="10" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="83" ht="93.6" spans="1:2">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="10" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="84" ht="46.8" spans="1:1">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="10" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="86" ht="62.4" spans="1:2">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="10" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="87" ht="93.6" spans="1:2">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="10" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="88" ht="62.4" spans="1:2">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="10" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="89" ht="124.8" spans="1:2">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="10" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="90" ht="140.4" spans="1:2">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="10" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="91" ht="93.6" spans="1:2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="10" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
     </row>
     <row r="93" ht="140.4" spans="1:2">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="94" ht="140.4" spans="1:2">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="10" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="95" ht="78" spans="1:2">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="10" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="96" ht="218.4" spans="1:2">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="10" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="97" ht="62.4" spans="1:2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="10" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="99" ht="265.2" spans="1:2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="10" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="100" ht="140.4" spans="1:2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="10" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="101" ht="140.4" spans="1:2">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="10" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="102" ht="171.6" spans="1:2">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="10" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="103" ht="156" spans="1:2">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="104" ht="156" spans="1:2">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="10" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
     </row>
     <row r="106" ht="124.8" spans="1:2">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="10" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="107" ht="93.6" spans="1:2">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="10" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="108" ht="93.6" spans="1:2">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="10" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="109" ht="202.8" spans="1:2">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="10" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="110" ht="109.2" spans="1:2">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="10" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="112" ht="93.6" spans="1:2">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="10" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="113" ht="156" spans="1:2">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="10" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="114" ht="156" spans="1:2">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="10" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="115" ht="124.8" spans="1:2">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="10" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="116" ht="156" spans="1:2">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="10" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="117" ht="124.8" spans="1:2">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="10" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
     </row>
     <row r="119" ht="140.4" spans="1:2">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="11" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="120" ht="171.6" spans="1:2">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="10" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="121" ht="124.8" spans="1:2">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="10" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="122" ht="124.8" spans="1:2">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="10" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="123" ht="78" spans="1:2">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="10" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="125" ht="156" spans="1:2">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="10" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="126" ht="109.2" spans="1:2">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="10" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="127" ht="171.6" spans="1:2">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="10" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="128" ht="93.6" spans="1:2">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="10" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="129" ht="124.8" spans="1:2">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="10" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="130" ht="124.8" spans="1:2">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="10" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
     </row>
     <row r="132" ht="109.2" spans="1:2">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="10" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="133" ht="109.2" spans="1:2">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="10" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="134" ht="93.6" spans="1:2">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="10" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="135" ht="62.4" spans="1:2">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="10" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="136" ht="109.2" spans="1:2">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="10" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="137" ht="109.2" spans="1:2">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="10" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="138" ht="46.8" spans="1:2">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="10" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="140" ht="109.2" spans="1:2">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="10" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="141" ht="140.4" spans="1:2">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="10" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="142" ht="109.2" spans="1:2">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="10" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="143" ht="140.4" spans="1:2">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="10" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="144" ht="124.8" spans="1:2">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="10" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="145" ht="109.2" spans="1:2">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="10" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
     </row>
     <row r="147" ht="140.4" spans="1:2">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="11" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="148" ht="124.8" spans="1:2">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="10" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="149" ht="109.2" spans="1:2">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="10" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="150" ht="93.6" spans="1:2">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="10" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="151" ht="62.4" spans="1:2">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="10" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="152" ht="93.6" spans="1:2">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="10" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="154" ht="93.6" spans="1:2">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="10" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="155" ht="156" spans="1:2">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="10" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="156" ht="93.6" spans="1:2">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="10" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="157" ht="124.8" spans="1:2">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="10" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="158" ht="78" spans="1:2">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="10" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="159" ht="78" spans="1:2">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="10" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
     </row>
     <row r="161" ht="109.2" spans="1:2">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="10" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="162" ht="187.2" spans="1:2">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="10" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="163" ht="62.4" spans="1:2">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="10" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="164" ht="62.4" spans="1:2">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="10" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="165" ht="62.4" spans="1:2">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="10" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="166" ht="46.8" spans="1:2">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="10" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="168" ht="202.8" spans="1:2">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="10" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="169" ht="265.2" spans="1:2">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="10" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="170" ht="140.4" spans="1:2">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="10" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="171" ht="62.4" spans="1:2">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="10" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="172" ht="78" spans="1:2">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="10" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
     </row>
     <row r="174" ht="109.2" spans="1:2">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="10" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="175" ht="62.4" spans="1:2">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="10" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="176" ht="93.6" spans="1:2">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="177" ht="140.4" spans="1:2">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="10" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="178" ht="62.4" spans="1:2">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="10" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="179" ht="124.8" spans="1:2">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="10" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="180" ht="156" spans="1:2">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="10" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="10" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="183" ht="140.4" spans="1:2">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="10" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="184" ht="124.8" spans="1:2">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="10" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="185" ht="124.8" spans="1:2">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="10" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="186" ht="124.8" spans="1:2">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="10" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="187" ht="78" spans="1:2">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="10" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="188" ht="124.8" spans="1:2">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="10" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
+      <c r="A189" s="12"/>
+      <c r="B189" s="12"/>
     </row>
     <row r="190" ht="109.2" spans="1:2">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="11" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="191" ht="109.2" spans="1:2">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="10" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="192" ht="78" spans="1:2">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="10" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="193" ht="124.8" spans="1:2">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="10" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="194" ht="109.2" spans="1:2">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="10" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="195" ht="78" spans="1:2">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="10" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="197" ht="140.4" spans="1:2">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="10" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="198" ht="171.6" spans="1:2">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="10" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="199" ht="140.4" spans="1:2">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="10" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="200" ht="171.6" spans="1:2">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="10" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="201" ht="140.4" spans="1:2">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="10" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
+      <c r="A202" s="12"/>
+      <c r="B202" s="12"/>
     </row>
     <row r="203" ht="124.8" spans="1:2">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="11" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="204" ht="156" spans="1:2">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="10" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="205" ht="218.4" spans="1:2">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="10" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="206" ht="156" spans="1:2">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="10" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="207" ht="109.2" spans="1:2">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="10" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="208" ht="156" spans="1:2">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="10" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="210" ht="109.2" spans="1:2">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="10" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="211" ht="156" spans="1:2">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="10" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="212" ht="140.4" spans="1:2">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" s="10" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="213" ht="140.4" spans="1:2">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="10" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="214" ht="93.6" spans="1:2">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="10" t="s">
         <v>656</v>
       </c>
     </row>
@@ -16218,4 +17147,292 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="3" width="18.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="9" ht="43.2" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" ht="158.4" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="17" ht="43.2" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="18" ht="57.6" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="19" ht="57.6" spans="1:3">
+      <c r="A19" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" ht="43.2" spans="1:3">
+      <c r="A22" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="23" ht="43.2" spans="1:3">
+      <c r="A23" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="24" ht="28.8" spans="1:3">
+      <c r="A24" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="25" ht="57.6" spans="1:3">
+      <c r="A25" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="26" ht="28.8" spans="1:3">
+      <c r="A26" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" spans="1:3">
+      <c r="A27" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="28" ht="43.2" spans="1:3">
+      <c r="A28" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="29" ht="43.2" spans="1:3">
+      <c r="A29" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/BEC/02-口语相关/口语问题汇总.xlsx
+++ b/BEC/02-口语相关/口语问题汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10235" windowHeight="9060" tabRatio="802" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9047" tabRatio="802"/>
   </bookViews>
   <sheets>
     <sheet name="口语问答" sheetId="1" r:id="rId1"/>
@@ -45,14 +45,14 @@
     <t>Can you suggest any ways to improve the transport system in your hometown?</t>
   </si>
   <si>
-    <t>Investing money in it maybe. The problem is it's a vicious cycle. No one wants to use it because it sucks, and it sucks because no one uses it. The only way to break out of the cycle is to pour in some money and give it time. More bicycle-friendly streets, solar-powered vehicles, higher-speed trains, incentives for public transportation, etc.
+    <t>Investing money in it maybe. The problem is it's a vicious cycle. No one wants to use it because it sucks, because no one uses it. The only way to break out of the cycle is to pour in some money and give it time. More bicycle-friendly streets, solar-powered vehicles, higher-speed trains, incentives for public transportation, etc.
 vicious adj.残酷的，狂暴的</t>
   </si>
   <si>
     <t>What do you think of spending a long time travelling to work?</t>
   </si>
   <si>
-    <t>I reckon that it may influence the staff's productivity and concentration. After a long time travelling to work, people tend to feel exhausted and tired of talking.It is difficult for exhausting people to consider the issue overall and react to the certain changes quickly.</t>
+    <t>I reckon that it may influence the staff's productivity and concentration. After a long time travelling to work, people tend to feel exhausted and tired of talking. It is difficult for exhausting people to consider the issue overall and react to the certain changes quickly.</t>
   </si>
   <si>
     <t>Do you think whether the distance from the company should be the factor that staff must consider?</t>
@@ -68,10 +68,10 @@
     <t>What do you think of the company advising employees to go to work by public transport?</t>
   </si>
   <si>
-    <t>It should be encouraged while we have to consider the reallity. Though taking public transport is environment-friendly, sometimes it can bring some troubles to the staff, for example, too long time is spend and public transport can be crowded.</t>
-  </si>
-  <si>
-    <t>Why don't some people like to do performance appraisals? Can it be improved?</t>
+    <t>It should be encouraged while we have to consider the reality. Though taking public transport is environment-friendly, sometimes it can bring some troubles to the staff, for example, too long time is spend and public transport can be crowded.</t>
+  </si>
+  <si>
+    <t>Why don't some people like to do performance appraisals(绩效评估)? Can it be improved?</t>
   </si>
   <si>
     <r>
@@ -145,14 +145,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Staff should not work for a long time. It is difficult for people to concnetrate their mind for a long time and they tend to be </t>
+      <t xml:space="preserve">Staff should not work for a long time. It is difficult for people to concentrate their mind for a long time and they tend to be </t>
     </r>
     <r>
       <rPr>
@@ -214,7 +207,40 @@
     <t>Do you think your subject will be useful in the future?</t>
   </si>
   <si>
-    <t>Well, I really doubt that. You know, most of the theories or definitions that I learned in my university are just a kind of theoretical stuff. Well, lots of the examples in the textbook are actually designed or designated for ideal or typical circumstances. I think it's out-dated and not applicable to the real world situations.</t>
+    <r>
+      <t xml:space="preserve">Well, I really doubt that. You know, most of the theories or definitions that I learned in my university are just a kind of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">theoretical 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ˌθɪəˈretɪk(ə)l/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stuff. Well, lots of the examples in the textbook are actually designed for ideal or typical circumstances. I think it's out-dated and not applicable to the real world situations.</t>
+    </r>
   </si>
   <si>
     <t>What is the most important skill in the job?</t>
@@ -292,17 +318,10 @@
     </r>
   </si>
   <si>
-    <t>How do you see the Chinese luxury consumption?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <t>How do you see the Chinese luxury consumption(消费)?</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Chinese people hold interests in purchasing luxury products when they are abroad, which means that nowadays we are enjoying a relaxing life, possessing fortune and facing less living pressure than before. The promotion of consumption reveals certain increase in </t>
     </r>
     <r>
@@ -323,7 +342,27 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>national strength, people living carefree lives. We'd like to witness that our quality of life has been dramatically enhanced, while boasting the fortune should never be encouraged. Excessive pursuit of money and spending lavishly ought to be avoided.</t>
+      <t xml:space="preserve">national strength, people living carefree lives. We'd like to witness that our quality of life has been dramatically enhanced, while boasting the fortune should never be encouraged. Excessive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pursuit /pəˈsjuːt/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of money and spending lavishly ought to be avoided.</t>
     </r>
   </si>
   <si>
@@ -331,34 +370,27 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tracing back to the history, we can figure out several kinds of advertisement, such as radio, newspapers, TV and the Internet. Nowadays, the influence of newspapers and radio seems to be decaying, while the Internet is </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>embracing(拥抱)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> its glittering era. The changes reflecting in different types of advertisement indicate the quick development of Chinese economy. Everything is changing. If corporations want to keep up with the rapid pace of change, they have to sniff at every omens and seize every chance to develop themselves.</t>
+      <t xml:space="preserve">Tracing back to the history, we can figure out several kinds of advertisement, such as radio, newspapers, TV and the Internet. Nowadays, the influence of newspapers and radio seems to be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decaying /dɪˈkeɪɪŋ/ (衰落的)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, while the Internet is embracing(拥抱) its glittering era. The changes reflecting in different types of advertisement indicate the quick development of Chinese economy. Everything is changing.</t>
     </r>
   </si>
   <si>
@@ -366,13 +398,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Chinese family business owns a long history. There are reasons for its long life. Given that the management members in this business are family members, they can convey easily and attain a highly concentrated target, which means </t>
     </r>
     <r>
@@ -393,7 +418,27 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> force. With the kinship, the managerial staff may feel embarrassed to point out other staff's weakness, which can impede the upward pace of the business. Nowadays Chinese family business is experiencing great growth, becoming the vital part of economy in China.</t>
+      <t xml:space="preserve"> force. With the kinship, the managerial staff may feel embarrassed to point out other staff's weakness, which can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>impede /ɪmˈpiːd/(阻碍)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the upward pace of the business. Nowadays Chinese family business is experiencing great growth, becoming the vital part of economy in China.</t>
     </r>
   </si>
   <si>
@@ -927,13 +972,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Nowadays, along with the </t>
     </r>
     <r>
@@ -944,7 +982,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>burgeoning(adj.迅速成长的，迅速发展的)</t>
+      <t>burgeoning /ˈbɜːdʒənɪŋ/ (adj.迅速成长的，迅速发展的)</t>
     </r>
     <r>
       <rPr>
@@ -997,13 +1035,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Yes: Yes, I think to employ family members in my company is a good idea, because people who have </t>
     </r>
     <r>
@@ -1024,22 +1055,57 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>) are easier to come into agreement on certain issues, and they can work toward the same goal more readily.
+      <t xml:space="preserve">) are easier to come into agreement on certain issues, and they can work toward the same goal more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>readily /ˈredɪli/ 便利地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
 No: No, I don't think it's a good idea to employ family members in my company. You know, if the family members violate the company's rules and regulations, it's hard for me to punish them as I punish other employees.</t>
     </r>
   </si>
   <si>
-    <t>Which industry should increase the remuneration of developing knowledge?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <r>
+      <t xml:space="preserve">Which industry should increase the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remuneration /rɪˌmjuːnəˈreɪʃ(ə)n/ 酬金，薪金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of developing knowledge?</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">As I see it, currently in China, those who are engaged in education and scientific research are </t>
     </r>
     <r>
@@ -1060,7 +1126,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>; they should be given more remuneration. As you know, such professions demand higher level of professional knowledge, and accumulating the necessary skills andn knowledge for such career is costly and expensive.</t>
+      <t>; they should be given more remuneration. As you know, such professions demand higher level of professional knowledge, and accumulating the necessary skills and knowledge for such career is costly and expensive.</t>
     </r>
   </si>
   <si>
@@ -12959,7 +13025,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13139,6 +13205,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13621,7 +13694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13641,15 +13714,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -14026,816 +14090,816 @@
   <sheetPr/>
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="39.6666666666667" style="10" customWidth="1"/>
-    <col min="2" max="2" width="43.8888888888889" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="10"/>
+    <col min="1" max="1" width="39.6666666666667" style="7" customWidth="1"/>
+    <col min="2" max="2" width="43.8888888888889" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="31" customHeight="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="7" customFormat="1" ht="31" customHeight="1" spans="1:2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="31" customHeight="1" spans="1:2">
-      <c r="A2" s="15" t="s">
+    <row r="2" s="7" customFormat="1" ht="31" customHeight="1" spans="1:2">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="93.6" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" s="7" customFormat="1" ht="93.6" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="124.8" spans="1:2">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="7" customFormat="1" ht="124.8" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" ht="187.2" spans="1:2">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="7" customFormat="1" ht="187.2" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" ht="124.8" spans="1:2">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="7" customFormat="1" ht="124.8" spans="1:2">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="1" ht="109.2" spans="1:2">
-      <c r="A7" s="10" t="s">
+    <row r="7" s="7" customFormat="1" ht="109.2" spans="1:2">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="14" customFormat="1" ht="14.4" spans="1:2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" s="14" customFormat="1" ht="43.2" spans="1:1">
-      <c r="A9" s="14" t="s">
+    <row r="8" s="11" customFormat="1" ht="14.4" spans="1:2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" s="11" customFormat="1" ht="43.2" spans="1:1">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="1" ht="86.4" spans="1:2">
-      <c r="A10" s="14" t="s">
+    <row r="10" s="11" customFormat="1" ht="109.2" spans="1:2">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" ht="234" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="140.4" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="93.6" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" ht="46.8" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="187.2" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" ht="156" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" ht="171.6" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" ht="46.8" spans="1:1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" ht="249.6" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" ht="234" spans="1:2">
-      <c r="A22" s="10" t="s">
+    <row r="22" ht="187.2" spans="1:2">
+      <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" ht="234" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" ht="140.4" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" ht="46.8" spans="1:1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" ht="93.6" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" ht="156" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" ht="187.2" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" ht="93.6" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" ht="46.8" spans="1:1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" ht="109.2" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" ht="171.6" spans="1:2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" ht="234" spans="1:2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" ht="109.2" spans="1:2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" ht="46.8" spans="1:1">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" ht="109.2" spans="1:2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" ht="109.2" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" ht="124.8" spans="1:2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" ht="156" spans="1:2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" ht="46.8" spans="1:1">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" ht="124.8" spans="1:2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="46" ht="171.6" spans="1:2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" ht="218.4" spans="1:2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" ht="156" spans="1:2">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" ht="46.8" spans="1:1">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" ht="187.2" spans="1:2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" ht="171.6" spans="1:2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="53" ht="156" spans="1:2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" ht="156" spans="1:2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
     </row>
     <row r="56" ht="46.8" spans="1:1">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" ht="140.4" spans="1:2">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" ht="140.4" spans="1:2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" ht="187.2" spans="1:2">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60" ht="124.8" spans="1:2">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" ht="46.8" spans="1:1">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" ht="218.4" spans="1:2">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="64" ht="156" spans="1:2">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="65" ht="156" spans="1:2">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="66" ht="171.6" spans="1:2">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" ht="46.8" spans="1:1">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" ht="140.4" spans="1:2">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="70" ht="78" spans="1:2">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="71" ht="171.6" spans="1:2">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="72" ht="156" spans="1:2">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" ht="46.8" spans="1:1">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="74" ht="109.2" spans="1:2">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="75" ht="140.4" spans="1:2">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="76" ht="156" spans="1:2">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="77" ht="202.8" spans="1:2">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" ht="124.8" spans="1:2">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="80" ht="171.6" spans="1:2">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="81" ht="140.4" spans="1:2">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" ht="140.4" spans="1:2">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
     </row>
     <row r="84" ht="280.8" spans="1:2">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="85" ht="249.6" spans="1:2">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="86" ht="249.6" spans="1:2">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="87" ht="218.4" spans="1:2">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" ht="171.6" spans="1:2">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="90" ht="234" spans="1:2">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="91" ht="171.6" spans="1:2">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="92" ht="202.8" spans="1:2">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" ht="46.8" spans="1:1">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="95" ht="124.8" spans="1:2">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="96" ht="156" spans="1:2">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="97" ht="171.6" spans="1:2">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="98" ht="156" spans="1:2">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
     </row>
     <row r="100" ht="171.6" spans="1:2">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="101" ht="156" spans="1:2">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="102" ht="187.2" spans="1:2">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="103" ht="124.8" spans="1:2">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
     </row>
     <row r="105" ht="46.8" spans="1:1">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="106" ht="265.2" spans="1:2">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107" ht="202.8" spans="1:2">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108" ht="187.2" spans="1:2">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="109" ht="109.2" spans="1:2">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
     </row>
     <row r="111" ht="249.6" spans="1:2">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112" ht="187.2" spans="1:2">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="113" ht="218.4" spans="1:2">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="114" ht="187.2" spans="1:2">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14855,678 +14919,678 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="25.5555555555556" style="10" customWidth="1"/>
-    <col min="2" max="2" width="61" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="10"/>
+    <col min="1" max="1" width="25.5555555555556" style="7" customWidth="1"/>
+    <col min="2" max="2" width="61" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="141" customHeight="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="7" customFormat="1" ht="141" customHeight="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="218.4" spans="1:2">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="7" customFormat="1" ht="218.4" spans="1:2">
+      <c r="A2" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" ht="316" customHeight="1" spans="1:2">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="7" customFormat="1" ht="316" customHeight="1" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" ht="140.4" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" ht="234" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" ht="218.4" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" ht="218.4" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" ht="140.4" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="11" ht="234" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" ht="234" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="13" ht="156" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" ht="140.4" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="16" ht="202.8" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="18" ht="202.8" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" ht="140.4" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="21" ht="327.6" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="22" ht="265.2" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="23" ht="280.8" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" ht="140.4" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26" ht="312" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27" ht="296.4" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="28" ht="265.2" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" ht="140.4" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="31" ht="296.4" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="32" ht="280.8" spans="1:2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="33" ht="187.2" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" ht="140.4" spans="1:2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="36" ht="234" spans="1:2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="37" ht="202.8" spans="1:2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="7" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="38" ht="218.4" spans="1:2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" ht="93.6" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="41" ht="405.6" spans="1:2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="42" ht="408" customHeight="1" spans="1:2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="43" ht="374.4" spans="1:2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" ht="93.6" spans="1:2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="7" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="46" ht="390" spans="1:2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="47" ht="358.8" spans="1:2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="48" ht="265.2" spans="1:2">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" ht="93.6" spans="1:2">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="51" ht="374.4" spans="1:2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="52" ht="405.6" spans="1:2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="53" ht="390" spans="1:2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" ht="93.6" spans="1:2">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="7" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="56" ht="405.6" spans="1:2">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="57" ht="343.2" spans="1:2">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="58" ht="312" spans="1:2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="7" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" ht="93.6" spans="1:2">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="7" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="61" ht="408" customHeight="1" spans="1:2">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="62" ht="405.6" spans="1:2">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="63" ht="405.6" spans="1:2">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
     </row>
     <row r="65" ht="93.6" spans="1:2">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="66" ht="358.8" spans="1:2">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="67" ht="249.6" spans="1:2">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="68" ht="265.2" spans="1:2">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" ht="93.6" spans="1:2">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="7" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="71" ht="327.6" spans="1:2">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="72" ht="327.6" spans="1:2">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="73" ht="343.2" spans="1:2">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="7" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" ht="93.6" spans="1:2">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="7" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="76" ht="343.2" spans="1:2">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="7" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="77" ht="405.6" spans="1:2">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="7" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="78" ht="390" spans="1:2">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="7" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
     </row>
     <row r="80" ht="93.6" spans="1:2">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="7" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="81" ht="405.6" spans="1:2">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="7" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="82" ht="390" spans="1:2">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
     </row>
     <row r="84" ht="93.6" spans="1:2">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="7" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="85" ht="343.2" spans="1:2">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="7" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="86" ht="358.8" spans="1:2">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="7" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="87" ht="312" spans="1:2">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" ht="93.6" spans="1:2">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="7" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="90" ht="374.4" spans="1:2">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="7" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="91" ht="390" spans="1:2">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="92" ht="296.4" spans="1:2">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15546,1599 +15610,1599 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="42.6666666666667" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="10"/>
+    <col min="1" max="2" width="42.6666666666667" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="124.8" spans="1:1">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="7" customFormat="1" ht="124.8" spans="1:1">
+      <c r="A1" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="31.2" spans="1:2">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="7" customFormat="1" ht="31.2" spans="1:2">
+      <c r="A2" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" ht="78" spans="1:2">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="7" customFormat="1" ht="78" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="93.6" spans="1:2">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="7" customFormat="1" ht="93.6" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" ht="78" spans="1:2">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="7" customFormat="1" ht="78" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" ht="62.4" spans="1:2">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="7" customFormat="1" ht="62.4" spans="1:2">
+      <c r="A6" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="1" spans="1:1">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="7" customFormat="1" spans="1:1">
+      <c r="A7" s="8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="1" ht="93.6" spans="1:2">
-      <c r="A8" s="10" t="s">
+    <row r="8" s="7" customFormat="1" ht="93.6" spans="1:2">
+      <c r="A8" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="9" ht="93.6" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="10" ht="93.6" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" ht="202.8" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="13" ht="46.8" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="14" ht="78" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="15" ht="93.6" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="16" ht="62.4" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="17" ht="46.8" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="18" ht="46.8" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="20" ht="78" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="21" ht="93.6" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="22" ht="78" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" ht="187.2" spans="1:1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="25" ht="62.4" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="26" ht="93.6" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="27" ht="62.4" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="28" ht="78" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="29" ht="78" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="32" ht="109.2" spans="1:2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="33" ht="93.6" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="34" ht="78" spans="1:2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" ht="140.4" spans="1:2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="7" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="37" ht="62.4" spans="1:2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="7" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="38" ht="62.4" spans="1:2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="7" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="39" ht="62.4" spans="1:2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="7" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="40" ht="93.6" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="41" ht="78" spans="1:2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="42" ht="31.2" spans="1:2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="44" ht="93.6" spans="1:2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="7" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="45" ht="93.6" spans="1:2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="7" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="46" ht="124.8" spans="1:2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="7" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" ht="124.8" spans="1:2">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="7" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="49" ht="46.8" spans="1:2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="7" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="50" ht="78" spans="1:2">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="7" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="51" ht="78" spans="1:2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="52" ht="93.6" spans="1:2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="7" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="53" ht="46.8" spans="1:2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="7" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="7" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="56" ht="78" spans="1:2">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="7" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="57" ht="78" spans="1:2">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="7" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="58" ht="62.4" spans="1:2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="7" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="59" ht="78" spans="1:2">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="60" ht="109.2" spans="1:2">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="7" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="61" ht="93.6" spans="1:2">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="7" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
     </row>
     <row r="63" ht="124.8" spans="1:2">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="7" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="64" ht="46.8" spans="1:2">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="7" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="65" ht="31.2" spans="1:2">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="66" ht="62.4" spans="1:2">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="7" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="67" ht="62.4" spans="1:2">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="7" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="68" ht="78" spans="1:2">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="69" ht="46.8" spans="1:2">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="7" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="71" ht="109.2" spans="1:2">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="7" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="72" ht="93.6" spans="1:2">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="7" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="73" ht="62.4" spans="1:2">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="74" ht="78" spans="1:2">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="7" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="75" ht="93.6" spans="1:2">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="7" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="76" ht="124.8" spans="1:2">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
     </row>
     <row r="78" ht="124.8" spans="1:2">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="7" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="79" ht="46.8" spans="1:2">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="7" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="80" ht="31.2" spans="1:2">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="7" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="81" ht="62.4" spans="1:2">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="7" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="82" ht="78" spans="1:2">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="7" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="83" ht="93.6" spans="1:2">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="7" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="84" ht="46.8" spans="1:1">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="7" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="86" ht="62.4" spans="1:2">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="7" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="87" ht="93.6" spans="1:2">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="7" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="88" ht="62.4" spans="1:2">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="89" ht="124.8" spans="1:2">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="7" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="90" ht="140.4" spans="1:2">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="7" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="91" ht="93.6" spans="1:2">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="7" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
     </row>
     <row r="93" ht="140.4" spans="1:2">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="7" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="94" ht="140.4" spans="1:2">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="7" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="95" ht="78" spans="1:2">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="7" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="96" ht="218.4" spans="1:2">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="7" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="97" ht="62.4" spans="1:2">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="7" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="99" ht="265.2" spans="1:2">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="7" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="100" ht="140.4" spans="1:2">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="7" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="101" ht="140.4" spans="1:2">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="7" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="102" ht="171.6" spans="1:2">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="7" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="103" ht="156" spans="1:2">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="7" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="104" ht="156" spans="1:2">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="7" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
     </row>
     <row r="106" ht="124.8" spans="1:2">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="107" ht="93.6" spans="1:2">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="108" ht="93.6" spans="1:2">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="7" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="109" ht="202.8" spans="1:2">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="7" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="110" ht="109.2" spans="1:2">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="7" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="112" ht="93.6" spans="1:2">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="7" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="113" ht="156" spans="1:2">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="7" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="114" ht="156" spans="1:2">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="7" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="115" ht="124.8" spans="1:2">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="7" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="116" ht="156" spans="1:2">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="7" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="117" ht="124.8" spans="1:2">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="7" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
     </row>
     <row r="119" ht="140.4" spans="1:2">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="8" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="120" ht="171.6" spans="1:2">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="7" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="121" ht="124.8" spans="1:2">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="122" ht="124.8" spans="1:2">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="7" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="123" ht="78" spans="1:2">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="7" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="125" ht="156" spans="1:2">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="7" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="126" ht="109.2" spans="1:2">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="7" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="127" ht="171.6" spans="1:2">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="7" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="128" ht="93.6" spans="1:2">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="7" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="129" ht="124.8" spans="1:2">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="7" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="130" ht="124.8" spans="1:2">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="7" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
     </row>
     <row r="132" ht="109.2" spans="1:2">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="7" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="133" ht="109.2" spans="1:2">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="7" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="134" ht="93.6" spans="1:2">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="7" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="135" ht="62.4" spans="1:2">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="7" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="136" ht="109.2" spans="1:2">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="137" ht="109.2" spans="1:2">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="7" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="138" ht="46.8" spans="1:2">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="140" ht="109.2" spans="1:2">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="7" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="141" ht="140.4" spans="1:2">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="7" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="142" ht="109.2" spans="1:2">
-      <c r="A142" s="10" t="s">
+      <c r="A142" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="7" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="143" ht="140.4" spans="1:2">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="7" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="144" ht="124.8" spans="1:2">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="7" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="145" ht="109.2" spans="1:2">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="7" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="12"/>
-      <c r="B146" s="12"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
     </row>
     <row r="147" ht="140.4" spans="1:2">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="8" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="148" ht="124.8" spans="1:2">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="7" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="149" ht="109.2" spans="1:2">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="7" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="150" ht="93.6" spans="1:2">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="7" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="151" ht="62.4" spans="1:2">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="7" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="152" ht="93.6" spans="1:2">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="7" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="154" ht="93.6" spans="1:2">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="7" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="155" ht="156" spans="1:2">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="7" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="156" ht="93.6" spans="1:2">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="7" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="157" ht="124.8" spans="1:2">
-      <c r="A157" s="10" t="s">
+      <c r="A157" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="7" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="158" ht="78" spans="1:2">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="7" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="159" ht="78" spans="1:2">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="7" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
     </row>
     <row r="161" ht="109.2" spans="1:2">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="7" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="162" ht="187.2" spans="1:2">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="7" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="163" ht="62.4" spans="1:2">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="7" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="164" ht="62.4" spans="1:2">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="7" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="165" ht="62.4" spans="1:2">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="7" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="166" ht="46.8" spans="1:2">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="7" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="168" ht="202.8" spans="1:2">
-      <c r="A168" s="10" t="s">
+      <c r="A168" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="7" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="169" ht="265.2" spans="1:2">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="7" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="170" ht="140.4" spans="1:2">
-      <c r="A170" s="10" t="s">
+      <c r="A170" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="7" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="171" ht="62.4" spans="1:2">
-      <c r="A171" s="10" t="s">
+      <c r="A171" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="7" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="172" ht="78" spans="1:2">
-      <c r="A172" s="10" t="s">
+      <c r="A172" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="7" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12"/>
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
     </row>
     <row r="174" ht="109.2" spans="1:2">
-      <c r="A174" s="10" t="s">
+      <c r="A174" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="7" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="175" ht="62.4" spans="1:2">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="7" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="176" ht="93.6" spans="1:2">
-      <c r="A176" s="10" t="s">
+      <c r="A176" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="7" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="177" ht="140.4" spans="1:2">
-      <c r="A177" s="10" t="s">
+      <c r="A177" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="7" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="178" ht="62.4" spans="1:2">
-      <c r="A178" s="10" t="s">
+      <c r="A178" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="7" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="179" ht="124.8" spans="1:2">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="7" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="180" ht="156" spans="1:2">
-      <c r="A180" s="10" t="s">
+      <c r="A180" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="7" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="10" t="s">
+      <c r="A181" s="7" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="11" t="s">
+      <c r="A182" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="183" ht="140.4" spans="1:2">
-      <c r="A183" s="10" t="s">
+      <c r="A183" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="7" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="184" ht="124.8" spans="1:2">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="7" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="185" ht="124.8" spans="1:2">
-      <c r="A185" s="10" t="s">
+      <c r="A185" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="7" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="186" ht="124.8" spans="1:2">
-      <c r="A186" s="10" t="s">
+      <c r="A186" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="7" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="187" ht="78" spans="1:2">
-      <c r="A187" s="10" t="s">
+      <c r="A187" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="7" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="188" ht="124.8" spans="1:2">
-      <c r="A188" s="10" t="s">
+      <c r="A188" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="7" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="12"/>
-      <c r="B189" s="12"/>
+      <c r="A189" s="9"/>
+      <c r="B189" s="9"/>
     </row>
     <row r="190" ht="109.2" spans="1:2">
-      <c r="A190" s="10" t="s">
+      <c r="A190" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="8" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="191" ht="109.2" spans="1:2">
-      <c r="A191" s="10" t="s">
+      <c r="A191" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="7" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="192" ht="78" spans="1:2">
-      <c r="A192" s="10" t="s">
+      <c r="A192" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="7" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="193" ht="124.8" spans="1:2">
-      <c r="A193" s="10" t="s">
+      <c r="A193" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="7" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="194" ht="109.2" spans="1:2">
-      <c r="A194" s="10" t="s">
+      <c r="A194" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="7" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="195" ht="78" spans="1:2">
-      <c r="A195" s="10" t="s">
+      <c r="A195" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="7" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="11" t="s">
+      <c r="A196" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="197" ht="140.4" spans="1:2">
-      <c r="A197" s="10" t="s">
+      <c r="A197" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="7" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="198" ht="171.6" spans="1:2">
-      <c r="A198" s="10" t="s">
+      <c r="A198" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="7" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="199" ht="140.4" spans="1:2">
-      <c r="A199" s="10" t="s">
+      <c r="A199" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="7" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="200" ht="171.6" spans="1:2">
-      <c r="A200" s="10" t="s">
+      <c r="A200" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="7" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="201" ht="140.4" spans="1:2">
-      <c r="A201" s="10" t="s">
+      <c r="A201" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="7" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="12"/>
-      <c r="B202" s="12"/>
+      <c r="A202" s="9"/>
+      <c r="B202" s="9"/>
     </row>
     <row r="203" ht="124.8" spans="1:2">
-      <c r="A203" s="10" t="s">
+      <c r="A203" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B203" s="8" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="204" ht="156" spans="1:2">
-      <c r="A204" s="10" t="s">
+      <c r="A204" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="7" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="205" ht="218.4" spans="1:2">
-      <c r="A205" s="10" t="s">
+      <c r="A205" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="7" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="206" ht="156" spans="1:2">
-      <c r="A206" s="10" t="s">
+      <c r="A206" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="7" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="207" ht="109.2" spans="1:2">
-      <c r="A207" s="10" t="s">
+      <c r="A207" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="7" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="208" ht="156" spans="1:2">
-      <c r="A208" s="10" t="s">
+      <c r="A208" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="7" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="11" t="s">
+      <c r="A209" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="210" ht="109.2" spans="1:2">
-      <c r="A210" s="10" t="s">
+      <c r="A210" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="7" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="211" ht="156" spans="1:2">
-      <c r="A211" s="10" t="s">
+      <c r="A211" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="7" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="212" ht="140.4" spans="1:2">
-      <c r="A212" s="10" t="s">
+      <c r="A212" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="7" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="213" ht="140.4" spans="1:2">
-      <c r="A213" s="10" t="s">
+      <c r="A213" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B213" s="7" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="214" ht="93.6" spans="1:2">
-      <c r="A214" s="10" t="s">
+      <c r="A214" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="7" t="s">
         <v>656</v>
       </c>
     </row>
@@ -17154,7 +17218,7 @@
   <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -17175,7 +17239,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>660</v>
       </c>
@@ -17197,7 +17261,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:3">
+    <row r="4" ht="28.8" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>666</v>
       </c>
@@ -17241,7 +17305,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>677</v>
       </c>
@@ -17279,7 +17343,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" ht="158.4" spans="1:2">
+    <row r="13" ht="144" spans="1:2">
       <c r="A13" s="6" t="s">
         <v>685</v>
       </c>
@@ -17295,44 +17359,44 @@
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="3" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="17" ht="43.2" spans="1:3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="18" ht="57.6" spans="1:3">
-      <c r="A18" s="9" t="s">
+    <row r="18" ht="43.2" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="19" ht="57.6" spans="1:3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>696</v>
       </c>
     </row>
@@ -17343,91 +17407,91 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" ht="43.2" spans="1:3">
-      <c r="A22" s="8" t="s">
+    <row r="22" ht="28.8" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="3" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="23" ht="43.2" spans="1:3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="24" ht="28.8" spans="1:3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="25" ht="57.6" spans="1:3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="26" ht="28.8" spans="1:3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="28" ht="43.2" spans="1:3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="29" ht="43.2" spans="1:3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="4" t="s">
         <v>720</v>
       </c>
     </row>

--- a/BEC/02-口语相关/口语问题汇总.xlsx
+++ b/BEC/02-口语相关/口语问题汇总.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9047" tabRatio="802"/>
+    <workbookView windowWidth="10668" windowHeight="9047" tabRatio="802" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="口语问答" sheetId="1" r:id="rId1"/>
     <sheet name="口语话题选择" sheetId="3" r:id="rId2"/>
     <sheet name="口语讨论" sheetId="2" r:id="rId3"/>
     <sheet name="口语其他" sheetId="4" r:id="rId4"/>
+    <sheet name="口语重点" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="729">
   <si>
     <t>question</t>
   </si>
@@ -145,6 +146,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Staff should not work for a long time. It is difficult for people to concentrate their mind for a long time and they tend to be </t>
     </r>
     <r>
@@ -208,6 +216,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Well, I really doubt that. You know, most of the theories or definitions that I learned in my university are just a kind of </t>
     </r>
     <r>
@@ -322,6 +337,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Chinese people hold interests in purchasing luxury products when they are abroad, which means that nowadays we are enjoying a relaxing life, possessing fortune and facing less living pressure than before. The promotion of consumption reveals certain increase in </t>
     </r>
     <r>
@@ -370,6 +392,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Tracing back to the history, we can figure out several kinds of advertisement, such as radio, newspapers, TV and the Internet. Nowadays, the influence of newspapers and radio seems to be </t>
     </r>
     <r>
@@ -398,6 +427,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Chinese family business owns a long history. There are reasons for its long life. Given that the management members in this business are family members, they can convey easily and attain a highly concentrated target, which means </t>
     </r>
     <r>
@@ -972,6 +1008,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Nowadays, along with the </t>
     </r>
     <r>
@@ -1035,6 +1078,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Yes: Yes, I think to employ family members in my company is a good idea, because people who have </t>
     </r>
     <r>
@@ -1081,6 +1131,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Which industry should increase the </t>
     </r>
     <r>
@@ -1106,6 +1163,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">As I see it, currently in China, those who are engaged in education and scientific research are </t>
     </r>
     <r>
@@ -13013,6 +13077,38 @@
   </si>
   <si>
     <t>people delete them before reading</t>
+  </si>
+  <si>
+    <t>Where are you from?</t>
+  </si>
+  <si>
+    <t>I'm from Changsha, the capital city of
+Hunan Province. It's home to spicy
+cuisine.</t>
+  </si>
+  <si>
+    <t>Please introduce yourself</t>
+  </si>
+  <si>
+    <t>My name is Zhao Zewen, My English name is Kevin.I'm 33 years old. 
+I'm now working in a business company for printing books.
+I'm an outgoing and easygoing person. I love swimming and I love making friends.</t>
+  </si>
+  <si>
+    <t>How would you feel about having a job interview by phone?</t>
+  </si>
+  <si>
+    <t>I believe having a job interview by phone has positive effects on both the interviewer and the interviewee.
+For the interviewer, a job interview by phone is quicker and more convenient than arranging a face-to-face meeting, especially for a preliminary stage of recruitment. For the interviewee, a job interview on the phone is fair because the usual visual impression is absent. Interviewee can focus on showing the ability and commitment during the conversation.</t>
+  </si>
+  <si>
+    <t>Why do you think some companies prefer to do job jinterviews by phone?</t>
+  </si>
+  <si>
+    <t>I believe some companies decide to do job Interviews by phone in order to save time and money.
+In the preliminary stage of recuitment, a telephone conversation is an effective way to assess the general ability and social skills of interviewees in a shorter period.
+Other companies choose to do job interviews by phone to find serious applicants.
+Only applicants that are willing to be interviewed by phone and also getting ready to it should be taken to the further process of the job application.</t>
   </si>
 </sst>
 </file>
@@ -13694,9 +13790,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -14090,816 +14189,816 @@
   <sheetPr/>
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="39.6666666666667" style="7" customWidth="1"/>
-    <col min="2" max="2" width="43.8888888888889" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="1" width="39.6666666666667" style="8" customWidth="1"/>
+    <col min="2" max="2" width="43.8888888888889" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="31" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="8" customFormat="1" ht="31" customHeight="1" spans="1:2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" ht="31" customHeight="1" spans="1:2">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="8" customFormat="1" ht="31" customHeight="1" spans="1:2">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-    </row>
-    <row r="3" s="7" customFormat="1" ht="93.6" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="93.6" spans="1:2">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" ht="124.8" spans="1:2">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="8" customFormat="1" ht="124.8" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" ht="187.2" spans="1:2">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="8" customFormat="1" ht="187.2" spans="1:2">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" ht="124.8" spans="1:2">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="8" customFormat="1" ht="124.8" spans="1:2">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" ht="109.2" spans="1:2">
-      <c r="A7" s="7" t="s">
+    <row r="7" s="8" customFormat="1" ht="109.2" spans="1:2">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" ht="14.4" spans="1:2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-    </row>
-    <row r="9" s="11" customFormat="1" ht="43.2" spans="1:1">
-      <c r="A9" s="11" t="s">
+    <row r="8" s="12" customFormat="1" ht="14.4" spans="1:2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" s="12" customFormat="1" ht="43.2" spans="1:1">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" ht="109.2" spans="1:2">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="12" customFormat="1" ht="109.2" spans="1:2">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" ht="234" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="140.4" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="93.6" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" ht="46.8" spans="1:1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="187.2" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" ht="156" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" ht="171.6" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" ht="46.8" spans="1:1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" ht="249.6" spans="1:2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" ht="187.2" spans="1:2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" ht="234" spans="1:2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" ht="140.4" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" ht="46.8" spans="1:1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" ht="93.6" spans="1:2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" ht="156" spans="1:2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" ht="187.2" spans="1:2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" ht="93.6" spans="1:2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" ht="46.8" spans="1:1">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" ht="109.2" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" ht="171.6" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" ht="234" spans="1:2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" ht="109.2" spans="1:2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" ht="46.8" spans="1:1">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" ht="109.2" spans="1:2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" ht="109.2" spans="1:2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" ht="124.8" spans="1:2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" ht="156" spans="1:2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" ht="46.8" spans="1:1">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" ht="124.8" spans="1:2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="46" ht="171.6" spans="1:2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" ht="218.4" spans="1:2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" ht="156" spans="1:2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
     </row>
     <row r="50" ht="46.8" spans="1:1">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" ht="187.2" spans="1:2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" ht="171.6" spans="1:2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="53" ht="156" spans="1:2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" ht="156" spans="1:2">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
     </row>
     <row r="56" ht="46.8" spans="1:1">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" ht="140.4" spans="1:2">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" ht="140.4" spans="1:2">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" ht="187.2" spans="1:2">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60" ht="124.8" spans="1:2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
     </row>
     <row r="62" ht="46.8" spans="1:1">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" ht="218.4" spans="1:2">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="64" ht="156" spans="1:2">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="65" ht="156" spans="1:2">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="66" ht="171.6" spans="1:2">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
     </row>
     <row r="68" ht="46.8" spans="1:1">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" ht="140.4" spans="1:2">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="70" ht="78" spans="1:2">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="71" ht="171.6" spans="1:2">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="72" ht="156" spans="1:2">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" ht="46.8" spans="1:1">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="74" ht="109.2" spans="1:2">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="75" ht="140.4" spans="1:2">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="76" ht="156" spans="1:2">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="77" ht="202.8" spans="1:2">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
     </row>
     <row r="79" ht="124.8" spans="1:2">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="80" ht="171.6" spans="1:2">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="81" ht="140.4" spans="1:2">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" ht="140.4" spans="1:2">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
     </row>
     <row r="84" ht="280.8" spans="1:2">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="85" ht="249.6" spans="1:2">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="86" ht="249.6" spans="1:2">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="87" ht="218.4" spans="1:2">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
     </row>
     <row r="89" ht="171.6" spans="1:2">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="90" ht="234" spans="1:2">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="91" ht="171.6" spans="1:2">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="92" ht="202.8" spans="1:2">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
     </row>
     <row r="94" ht="46.8" spans="1:1">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="95" ht="124.8" spans="1:2">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="96" ht="156" spans="1:2">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="97" ht="171.6" spans="1:2">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="98" ht="156" spans="1:2">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
     </row>
     <row r="100" ht="171.6" spans="1:2">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="101" ht="156" spans="1:2">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="102" ht="187.2" spans="1:2">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="103" ht="124.8" spans="1:2">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
     </row>
     <row r="105" ht="46.8" spans="1:1">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="106" ht="265.2" spans="1:2">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107" ht="202.8" spans="1:2">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="15" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108" ht="187.2" spans="1:2">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="109" ht="109.2" spans="1:2">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
     </row>
     <row r="111" ht="249.6" spans="1:2">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112" ht="187.2" spans="1:2">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="113" ht="218.4" spans="1:2">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="114" ht="187.2" spans="1:2">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14919,678 +15018,678 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="25.5555555555556" style="7" customWidth="1"/>
-    <col min="2" max="2" width="61" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="1" width="25.5555555555556" style="8" customWidth="1"/>
+    <col min="2" max="2" width="61" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="141" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="1" ht="141" customHeight="1" spans="1:2">
+      <c r="A1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" ht="218.4" spans="1:2">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="8" customFormat="1" ht="218.4" spans="1:2">
+      <c r="A2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" ht="316" customHeight="1" spans="1:2">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" ht="316" customHeight="1" spans="1:2">
+      <c r="A3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" ht="140.4" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" ht="234" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" ht="218.4" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" ht="218.4" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" ht="140.4" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="11" ht="234" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" ht="234" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="13" ht="156" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" ht="140.4" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="16" ht="202.8" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="17" ht="187.2" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="18" ht="202.8" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" ht="140.4" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="21" ht="327.6" spans="1:2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="22" ht="265.2" spans="1:2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="23" ht="280.8" spans="1:2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" ht="140.4" spans="1:2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26" ht="312" spans="1:2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27" ht="296.4" spans="1:2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="28" ht="265.2" spans="1:2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" ht="140.4" spans="1:2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="31" ht="296.4" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="32" ht="280.8" spans="1:2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="33" ht="187.2" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" ht="140.4" spans="1:2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="36" ht="234" spans="1:2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="37" ht="202.8" spans="1:2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="38" ht="218.4" spans="1:2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" ht="93.6" spans="1:2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="41" ht="405.6" spans="1:2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="42" ht="408" customHeight="1" spans="1:2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="43" ht="374.4" spans="1:2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
     </row>
     <row r="45" ht="93.6" spans="1:2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="46" ht="390" spans="1:2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="47" ht="358.8" spans="1:2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="48" ht="265.2" spans="1:2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
     </row>
     <row r="50" ht="93.6" spans="1:2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="51" ht="374.4" spans="1:2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="52" ht="405.6" spans="1:2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="53" ht="390" spans="1:2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
     </row>
     <row r="55" ht="93.6" spans="1:2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="56" ht="405.6" spans="1:2">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="57" ht="343.2" spans="1:2">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="58" ht="312" spans="1:2">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
     </row>
     <row r="60" ht="93.6" spans="1:2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="61" ht="408" customHeight="1" spans="1:2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="62" ht="405.6" spans="1:2">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="63" ht="405.6" spans="1:2">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
     </row>
     <row r="65" ht="93.6" spans="1:2">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="66" ht="358.8" spans="1:2">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="67" ht="249.6" spans="1:2">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="68" ht="265.2" spans="1:2">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
     </row>
     <row r="70" ht="93.6" spans="1:2">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="71" ht="327.6" spans="1:2">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="72" ht="327.6" spans="1:2">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="73" ht="343.2" spans="1:2">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
     </row>
     <row r="75" ht="93.6" spans="1:2">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="76" ht="343.2" spans="1:2">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="8" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="77" ht="405.6" spans="1:2">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="78" ht="390" spans="1:2">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
     </row>
     <row r="80" ht="93.6" spans="1:2">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="81" ht="405.6" spans="1:2">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="82" ht="390" spans="1:2">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
     </row>
     <row r="84" ht="93.6" spans="1:2">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="85" ht="343.2" spans="1:2">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="8" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="86" ht="358.8" spans="1:2">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="87" ht="312" spans="1:2">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
     </row>
     <row r="89" ht="93.6" spans="1:2">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="90" ht="374.4" spans="1:2">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="91" ht="390" spans="1:2">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="8" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="92" ht="296.4" spans="1:2">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="8" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15604,1605 +15703,1605 @@
   <sheetPr/>
   <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="42.6666666666667" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="2" width="42.6666666666667" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="124.8" spans="1:1">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="8" customFormat="1" ht="124.8" spans="1:1">
+      <c r="A1" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" ht="31.2" spans="1:2">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="8" customFormat="1" ht="31.2" spans="1:2">
+      <c r="A2" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" ht="78" spans="1:2">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="8" customFormat="1" ht="78" spans="1:2">
+      <c r="A3" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" ht="93.6" spans="1:2">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="8" customFormat="1" ht="93.6" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" ht="78" spans="1:2">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="8" customFormat="1" ht="78" spans="1:2">
+      <c r="A5" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" ht="62.4" spans="1:2">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="8" customFormat="1" ht="62.4" spans="1:2">
+      <c r="A6" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:1">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="8" customFormat="1" spans="1:1">
+      <c r="A7" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" ht="93.6" spans="1:2">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="8" customFormat="1" ht="93.6" spans="1:2">
+      <c r="A8" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="9" ht="93.6" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="10" ht="93.6" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" ht="202.8" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="13" ht="46.8" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="14" ht="78" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="15" ht="93.6" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="16" ht="62.4" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="17" ht="46.8" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="18" ht="46.8" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="20" ht="78" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="21" ht="93.6" spans="1:2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="22" ht="78" spans="1:2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" ht="187.2" spans="1:1">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="25" ht="62.4" spans="1:2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="26" ht="93.6" spans="1:2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="27" ht="62.4" spans="1:2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="28" ht="78" spans="1:2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="29" ht="78" spans="1:2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="32" ht="109.2" spans="1:2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="33" ht="93.6" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="34" ht="78" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" ht="140.4" spans="1:2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="37" ht="62.4" spans="1:2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="38" ht="62.4" spans="1:2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="39" ht="62.4" spans="1:2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="40" ht="93.6" spans="1:2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="41" ht="78" spans="1:2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="42" ht="31.2" spans="1:2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="44" ht="93.6" spans="1:2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="45" ht="93.6" spans="1:2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="46" ht="124.8" spans="1:2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="48" ht="124.8" spans="1:2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="49" ht="46.8" spans="1:2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="50" ht="78" spans="1:2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="51" ht="78" spans="1:2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="52" ht="93.6" spans="1:2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="53" ht="46.8" spans="1:2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="56" ht="78" spans="1:2">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="57" ht="78" spans="1:2">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="58" ht="62.4" spans="1:2">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="59" ht="78" spans="1:2">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="60" ht="109.2" spans="1:2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="61" ht="93.6" spans="1:2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
     </row>
     <row r="63" ht="124.8" spans="1:2">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="64" ht="46.8" spans="1:2">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="65" ht="31.2" spans="1:2">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="66" ht="62.4" spans="1:2">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="67" ht="62.4" spans="1:2">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="68" ht="78" spans="1:2">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="69" ht="46.8" spans="1:2">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="71" ht="109.2" spans="1:2">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="72" ht="93.6" spans="1:2">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="73" ht="62.4" spans="1:2">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="74" ht="78" spans="1:2">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="8" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="75" ht="93.6" spans="1:2">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="76" ht="124.8" spans="1:2">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="8" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
     </row>
     <row r="78" ht="124.8" spans="1:2">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="79" ht="46.8" spans="1:2">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="8" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="80" ht="31.2" spans="1:2">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="81" ht="62.4" spans="1:2">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="82" ht="78" spans="1:2">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="83" ht="93.6" spans="1:2">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="84" ht="46.8" spans="1:1">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="8" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="86" ht="62.4" spans="1:2">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="87" ht="93.6" spans="1:2">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="88" ht="62.4" spans="1:2">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="89" ht="124.8" spans="1:2">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="90" ht="140.4" spans="1:2">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="91" ht="93.6" spans="1:2">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="8" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
     </row>
     <row r="93" ht="140.4" spans="1:2">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="8" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="94" ht="140.4" spans="1:2">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="8" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="95" ht="78" spans="1:2">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="96" ht="218.4" spans="1:2">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="8" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="97" ht="62.4" spans="1:2">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="99" ht="265.2" spans="1:2">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="8" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="100" ht="140.4" spans="1:2">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="8" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="101" ht="140.4" spans="1:2">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="8" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="102" ht="171.6" spans="1:2">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="8" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="103" ht="156" spans="1:2">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="8" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="104" ht="156" spans="1:2">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="8" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
     </row>
     <row r="106" ht="124.8" spans="1:2">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="8" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="107" ht="93.6" spans="1:2">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="8" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="108" ht="93.6" spans="1:2">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="8" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="109" ht="202.8" spans="1:2">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="8" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="110" ht="109.2" spans="1:2">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="8" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="112" ht="93.6" spans="1:2">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="8" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="113" ht="156" spans="1:2">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="8" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="114" ht="156" spans="1:2">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="8" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="115" ht="124.8" spans="1:2">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="8" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="116" ht="156" spans="1:2">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="8" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="117" ht="124.8" spans="1:2">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="8" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
     </row>
     <row r="119" ht="140.4" spans="1:2">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="9" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="120" ht="171.6" spans="1:2">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="8" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="121" ht="124.8" spans="1:2">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="8" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="122" ht="124.8" spans="1:2">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="8" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="123" ht="78" spans="1:2">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="8" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="125" ht="156" spans="1:2">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="8" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="126" ht="109.2" spans="1:2">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="8" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="127" ht="171.6" spans="1:2">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="8" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="128" ht="93.6" spans="1:2">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="8" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="129" ht="124.8" spans="1:2">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="8" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="130" ht="124.8" spans="1:2">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="8" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
     </row>
     <row r="132" ht="109.2" spans="1:2">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="8" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="133" ht="109.2" spans="1:2">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="8" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="134" ht="93.6" spans="1:2">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="8" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="135" ht="62.4" spans="1:2">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="8" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="136" ht="109.2" spans="1:2">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="8" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="137" ht="109.2" spans="1:2">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="8" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="138" ht="46.8" spans="1:2">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="8" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="140" ht="109.2" spans="1:2">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="8" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="141" ht="140.4" spans="1:2">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="8" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="142" ht="109.2" spans="1:2">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="8" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="143" ht="140.4" spans="1:2">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="8" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="144" ht="124.8" spans="1:2">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="8" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="145" ht="109.2" spans="1:2">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="8" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
     </row>
     <row r="147" ht="140.4" spans="1:2">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="9" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="148" ht="124.8" spans="1:2">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="8" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="149" ht="109.2" spans="1:2">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="8" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="150" ht="93.6" spans="1:2">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="8" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="151" ht="62.4" spans="1:2">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="8" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="152" ht="93.6" spans="1:2">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="8" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="154" ht="93.6" spans="1:2">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="8" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="155" ht="156" spans="1:2">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="8" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="156" ht="93.6" spans="1:2">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="8" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="157" ht="124.8" spans="1:2">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="8" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="158" ht="78" spans="1:2">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="8" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="159" ht="78" spans="1:2">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="8" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
     </row>
     <row r="161" ht="109.2" spans="1:2">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="8" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="162" ht="187.2" spans="1:2">
-      <c r="A162" s="7" t="s">
+      <c r="A162" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="8" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="163" ht="62.4" spans="1:2">
-      <c r="A163" s="7" t="s">
+      <c r="A163" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="8" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="164" ht="62.4" spans="1:2">
-      <c r="A164" s="7" t="s">
+      <c r="A164" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="8" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="165" ht="62.4" spans="1:2">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="8" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="166" ht="46.8" spans="1:2">
-      <c r="A166" s="7" t="s">
+      <c r="A166" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="8" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="168" ht="202.8" spans="1:2">
-      <c r="A168" s="7" t="s">
+      <c r="A168" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="8" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="169" ht="265.2" spans="1:2">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="8" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="170" ht="140.4" spans="1:2">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="8" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="171" ht="62.4" spans="1:2">
-      <c r="A171" s="7" t="s">
+      <c r="A171" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="8" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="172" ht="78" spans="1:2">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="8" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="9"/>
-      <c r="B173" s="9"/>
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
     </row>
     <row r="174" ht="109.2" spans="1:2">
-      <c r="A174" s="7" t="s">
+      <c r="A174" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="8" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="175" ht="62.4" spans="1:2">
-      <c r="A175" s="7" t="s">
+      <c r="A175" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="8" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="176" ht="93.6" spans="1:2">
-      <c r="A176" s="7" t="s">
+      <c r="A176" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="8" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="177" ht="140.4" spans="1:2">
-      <c r="A177" s="7" t="s">
+      <c r="A177" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="8" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="178" ht="62.4" spans="1:2">
-      <c r="A178" s="7" t="s">
+      <c r="A178" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="8" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="179" ht="124.8" spans="1:2">
-      <c r="A179" s="7" t="s">
+      <c r="A179" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="8" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="180" ht="156" spans="1:2">
-      <c r="A180" s="7" t="s">
+      <c r="A180" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="8" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="7" t="s">
+      <c r="A181" s="8" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="8" t="s">
+      <c r="A182" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="183" ht="140.4" spans="1:2">
-      <c r="A183" s="7" t="s">
+      <c r="A183" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="8" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="184" ht="124.8" spans="1:2">
-      <c r="A184" s="7" t="s">
+      <c r="A184" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="8" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="185" ht="124.8" spans="1:2">
-      <c r="A185" s="7" t="s">
+      <c r="A185" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="8" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="186" ht="124.8" spans="1:2">
-      <c r="A186" s="7" t="s">
+      <c r="A186" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="8" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="187" ht="78" spans="1:2">
-      <c r="A187" s="7" t="s">
+      <c r="A187" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="8" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="188" ht="124.8" spans="1:2">
-      <c r="A188" s="7" t="s">
+      <c r="A188" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="8" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
     </row>
     <row r="190" ht="109.2" spans="1:2">
-      <c r="A190" s="7" t="s">
+      <c r="A190" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="9" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="191" ht="109.2" spans="1:2">
-      <c r="A191" s="7" t="s">
+      <c r="A191" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="8" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="192" ht="78" spans="1:2">
-      <c r="A192" s="7" t="s">
+      <c r="A192" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="8" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="193" ht="124.8" spans="1:2">
-      <c r="A193" s="7" t="s">
+      <c r="A193" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="8" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="194" ht="109.2" spans="1:2">
-      <c r="A194" s="7" t="s">
+      <c r="A194" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B194" s="8" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="195" ht="78" spans="1:2">
-      <c r="A195" s="7" t="s">
+      <c r="A195" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="8" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="8" t="s">
+      <c r="A196" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="197" ht="140.4" spans="1:2">
-      <c r="A197" s="7" t="s">
+      <c r="A197" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="8" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="198" ht="171.6" spans="1:2">
-      <c r="A198" s="7" t="s">
+      <c r="A198" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="8" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="199" ht="140.4" spans="1:2">
-      <c r="A199" s="7" t="s">
+      <c r="A199" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="8" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="200" ht="171.6" spans="1:2">
-      <c r="A200" s="7" t="s">
+      <c r="A200" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B200" s="8" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="201" ht="140.4" spans="1:2">
-      <c r="A201" s="7" t="s">
+      <c r="A201" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="8" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="9"/>
-      <c r="B202" s="9"/>
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
     </row>
     <row r="203" ht="124.8" spans="1:2">
-      <c r="A203" s="7" t="s">
+      <c r="A203" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="9" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="204" ht="156" spans="1:2">
-      <c r="A204" s="7" t="s">
+      <c r="A204" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="8" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="205" ht="218.4" spans="1:2">
-      <c r="A205" s="7" t="s">
+      <c r="A205" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="8" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="206" ht="156" spans="1:2">
-      <c r="A206" s="7" t="s">
+      <c r="A206" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="8" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="207" ht="109.2" spans="1:2">
-      <c r="A207" s="7" t="s">
+      <c r="A207" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="8" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="208" ht="156" spans="1:2">
-      <c r="A208" s="7" t="s">
+      <c r="A208" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="8" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="210" ht="109.2" spans="1:2">
-      <c r="A210" s="7" t="s">
+      <c r="A210" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="8" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="211" ht="156" spans="1:2">
-      <c r="A211" s="7" t="s">
+      <c r="A211" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="8" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="212" ht="140.4" spans="1:2">
-      <c r="A212" s="7" t="s">
+      <c r="A212" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B212" s="8" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="213" ht="140.4" spans="1:2">
-      <c r="A213" s="7" t="s">
+      <c r="A213" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="B213" s="8" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="214" ht="93.6" spans="1:2">
-      <c r="A214" s="7" t="s">
+      <c r="A214" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="8" t="s">
         <v>656</v>
       </c>
     </row>
@@ -17224,275 +17323,328 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="3" width="18.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="3" width="18.8888888888889" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" ht="144" spans="1:2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="17" ht="43.2" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="19" ht="57.6" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" ht="28.8" spans="1:3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="23" ht="43.2" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="24" ht="28.8" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="25" ht="57.6" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="26" ht="28.8" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="28" ht="43.2" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="29" ht="43.2" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="43.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="43.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2" ht="86.4" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="3" ht="201.6" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4" ht="216" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
